--- a/data/raw/Location-Import.xlsx
+++ b/data/raw/Location-Import.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Build3\NavigatorGPT\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C5FE68-1576-44EC-9C9F-609B8ECD4229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27AAE12-F1F3-4F8C-AD35-D3ED8C6C84C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8475" yWindow="2445" windowWidth="35940" windowHeight="17055" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
+    <workbookView xWindow="18210" yWindow="6465" windowWidth="28005" windowHeight="16980" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Landmark" sheetId="2" r:id="rId1"/>
+    <sheet name="Location" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="230">
   <si>
     <t>BoroughCode</t>
   </si>
@@ -636,13 +637,103 @@
   </si>
   <si>
     <t>New York</t>
+  </si>
+  <si>
+    <t>LPNumber</t>
+  </si>
+  <si>
+    <t>LandmarkType</t>
+  </si>
+  <si>
+    <t>DesignationDate</t>
+  </si>
+  <si>
+    <t>6444d14ee7abb0665474a208</t>
+  </si>
+  <si>
+    <t>6455b7e44673c82a34f4ecca</t>
+  </si>
+  <si>
+    <t>64bc67c954ab1c604a34d1bc</t>
+  </si>
+  <si>
+    <t>54fa99fa5c95965f78def7bf</t>
+  </si>
+  <si>
+    <t>560f2c12f89701aedbaebc2c</t>
+  </si>
+  <si>
+    <t>643ec6364ac6203737fd6e74</t>
+  </si>
+  <si>
+    <t>6450ca363879cf70e53ff047</t>
+  </si>
+  <si>
+    <t>646c28aa9e866c1d68eb57b7</t>
+  </si>
+  <si>
+    <t>64542f153879cf70e53ff0c5</t>
+  </si>
+  <si>
+    <t>LP-00001</t>
+  </si>
+  <si>
+    <t>LP-00002</t>
+  </si>
+  <si>
+    <t>LP-00003</t>
+  </si>
+  <si>
+    <t>LP-00004</t>
+  </si>
+  <si>
+    <t>LP-00005</t>
+  </si>
+  <si>
+    <t>LP-00006</t>
+  </si>
+  <si>
+    <t>LP-00007</t>
+  </si>
+  <si>
+    <t>LP-00008</t>
+  </si>
+  <si>
+    <t>LP-00009</t>
+  </si>
+  <si>
+    <t>Individual Landmark</t>
+  </si>
+  <si>
+    <t>648a4f917c55b27c2c708012</t>
+  </si>
+  <si>
+    <t>648cbaeb7c55b27c2c708068</t>
+  </si>
+  <si>
+    <t>648cbbef7c55b27c2c70806a</t>
+  </si>
+  <si>
+    <t>648cbc737c55b27c2c70806b</t>
+  </si>
+  <si>
+    <t>LP-00010</t>
+  </si>
+  <si>
+    <t>LP-00011</t>
+  </si>
+  <si>
+    <t>LP-00012</t>
+  </si>
+  <si>
+    <t>LP-00013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,8 +761,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,8 +791,18 @@
         <fgColor rgb="FF5B9BD5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -702,23 +810,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Accent4" xfId="2" builtinId="41"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1029,12 +1159,251 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="189" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{80010029-BE93-4641-A104-963365D4B469}">
+  <we:reference id="wa200005502" version="1.0.0.7" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200005502" version="1.0.0.7" store="WA200005502" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="docId" value="&quot;cb3dc8e1-536a-4042-9483-746aeff27fc1&quot;"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8DF20D-43B8-4F50-BD73-629D07637EE7}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="9">
+        <v>24029</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="9">
+        <v>24029</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="9">
+        <v>24029</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="9">
+        <v>24029</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="9">
+        <v>24029</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="9">
+        <v>24029</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="9">
+        <v>24029</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="9">
+        <v>24029</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="9">
+        <v>25455</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="9">
+        <v>24029</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="9">
+        <v>24029</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="9">
+        <v>24029</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="9">
+        <v>24029</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E35AD9-3ED2-499D-983E-C1E37B674B88}">
   <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/raw/Location-Import.xlsx
+++ b/data/raw/Location-Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27AAE12-F1F3-4F8C-AD35-D3ED8C6C84C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D36D4AA-BF4F-4584-9059-50B10E156B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18210" yWindow="6465" windowWidth="28005" windowHeight="16980" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
+    <workbookView xWindow="6390" yWindow="3810" windowWidth="29070" windowHeight="16980" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
   </bookViews>
   <sheets>
     <sheet name="Landmark" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="282">
   <si>
     <t>BoroughCode</t>
   </si>
@@ -648,85 +648,241 @@
     <t>DesignationDate</t>
   </si>
   <si>
-    <t>6444d14ee7abb0665474a208</t>
-  </si>
-  <si>
-    <t>6455b7e44673c82a34f4ecca</t>
-  </si>
-  <si>
-    <t>64bc67c954ab1c604a34d1bc</t>
-  </si>
-  <si>
-    <t>54fa99fa5c95965f78def7bf</t>
-  </si>
-  <si>
-    <t>560f2c12f89701aedbaebc2c</t>
-  </si>
-  <si>
-    <t>643ec6364ac6203737fd6e74</t>
-  </si>
-  <si>
-    <t>6450ca363879cf70e53ff047</t>
-  </si>
-  <si>
-    <t>646c28aa9e866c1d68eb57b7</t>
-  </si>
-  <si>
-    <t>64542f153879cf70e53ff0c5</t>
-  </si>
-  <si>
-    <t>LP-00001</t>
-  </si>
-  <si>
-    <t>LP-00002</t>
-  </si>
-  <si>
-    <t>LP-00003</t>
-  </si>
-  <si>
-    <t>LP-00004</t>
-  </si>
-  <si>
-    <t>LP-00005</t>
-  </si>
-  <si>
-    <t>LP-00006</t>
-  </si>
-  <si>
-    <t>LP-00007</t>
-  </si>
-  <si>
-    <t>LP-00008</t>
-  </si>
-  <si>
-    <t>LP-00009</t>
-  </si>
-  <si>
     <t>Individual Landmark</t>
   </si>
   <si>
-    <t>648a4f917c55b27c2c708012</t>
-  </si>
-  <si>
-    <t>648cbaeb7c55b27c2c708068</t>
-  </si>
-  <si>
-    <t>648cbbef7c55b27c2c70806a</t>
-  </si>
-  <si>
-    <t>648cbc737c55b27c2c70806b</t>
-  </si>
-  <si>
-    <t>LP-00010</t>
-  </si>
-  <si>
-    <t>LP-00011</t>
-  </si>
-  <si>
-    <t>LP-00012</t>
-  </si>
-  <si>
-    <t>LP-00013</t>
+    <t>645dd82fe6fcaf3f17fab00f</t>
+  </si>
+  <si>
+    <t>560f6b83f89701aedbaebc4a</t>
+  </si>
+  <si>
+    <t>555d5a73083cd88a44265d6d</t>
+  </si>
+  <si>
+    <t>5606bb45f89701aedbaebb75</t>
+  </si>
+  <si>
+    <t>643a069e4ac6203737fd6e2d</t>
+  </si>
+  <si>
+    <t>64341bb1a90bce6b6c83bb12</t>
+  </si>
+  <si>
+    <t>643b8c404ac6203737fd6e50</t>
+  </si>
+  <si>
+    <t>643a07b44ac6203737fd6e2e</t>
+  </si>
+  <si>
+    <t>64c2f48a54ab1c604a34d302</t>
+  </si>
+  <si>
+    <t>64a4be4efc95c50bc98dcfa0</t>
+  </si>
+  <si>
+    <t>64c2f8de54ab1c604a34d305</t>
+  </si>
+  <si>
+    <t>5606c8f0f89701aedbaebb7b</t>
+  </si>
+  <si>
+    <t>55f796b4f58614cf075b7681</t>
+  </si>
+  <si>
+    <t>64b3338c54ab1c604a34d0f7</t>
+  </si>
+  <si>
+    <t>55f7842df58614cf075b7664</t>
+  </si>
+  <si>
+    <t>64869e0b3ee0be6578226198</t>
+  </si>
+  <si>
+    <t>55f77b56f58614cf075b7655</t>
+  </si>
+  <si>
+    <t>648357b03ee0be6578226172</t>
+  </si>
+  <si>
+    <t>64b048bd54ab1c604a34d079</t>
+  </si>
+  <si>
+    <t>64341c90a90bce6b6c83bb13</t>
+  </si>
+  <si>
+    <t>64c099f054ab1c604a34d25d</t>
+  </si>
+  <si>
+    <t>6466555e6117d262815b109f</t>
+  </si>
+  <si>
+    <t>64af5f7654ab1c604a34d053</t>
+  </si>
+  <si>
+    <t>6499b628d4762e2149e238cd</t>
+  </si>
+  <si>
+    <t>5606b97cf89701aedbaebb74</t>
+  </si>
+  <si>
+    <t>55f77de4f58614cf075b7657</t>
+  </si>
+  <si>
+    <t>64341df3a90bce6b6c83bb14</t>
+  </si>
+  <si>
+    <t>560f2ba6f89701aedbaebc2b</t>
+  </si>
+  <si>
+    <t>64af604354ab1c604a34d054</t>
+  </si>
+  <si>
+    <t>55f794fbf58614cf075b767e</t>
+  </si>
+  <si>
+    <t>64497315e7abb0665474a277</t>
+  </si>
+  <si>
+    <t>5609fd70f89701aedbaebbd7</t>
+  </si>
+  <si>
+    <t>64477ab7e7abb0665474a23f</t>
+  </si>
+  <si>
+    <t>55371fc0083cd88a44265c56</t>
+  </si>
+  <si>
+    <t>54fa99fa5c95965f78def7c1</t>
+  </si>
+  <si>
+    <t>54fa99fa5c95965f78def7c2</t>
+  </si>
+  <si>
+    <t>5500f4aa93a2b1e1e52db672</t>
+  </si>
+  <si>
+    <t>560dd26df89701aedbaebbf1</t>
+  </si>
+  <si>
+    <t>64ad99edfc95c50bc98dd02f</t>
+  </si>
+  <si>
+    <t>LP-00101</t>
+  </si>
+  <si>
+    <t>LP-00108</t>
+  </si>
+  <si>
+    <t>LP-00109</t>
+  </si>
+  <si>
+    <t>LP-00110</t>
+  </si>
+  <si>
+    <t>LP-00112</t>
+  </si>
+  <si>
+    <t>LP-00113</t>
+  </si>
+  <si>
+    <t>LP-00114</t>
+  </si>
+  <si>
+    <t>LP-00115</t>
+  </si>
+  <si>
+    <t>LP-00116</t>
+  </si>
+  <si>
+    <t>LP-00117</t>
+  </si>
+  <si>
+    <t>LP-00118</t>
+  </si>
+  <si>
+    <t>LP-00119</t>
+  </si>
+  <si>
+    <t>LP-00121</t>
+  </si>
+  <si>
+    <t>LP-00124</t>
+  </si>
+  <si>
+    <t>LP-00125</t>
+  </si>
+  <si>
+    <t>LP-00126</t>
+  </si>
+  <si>
+    <t>LP-00127</t>
+  </si>
+  <si>
+    <t>LP-00128</t>
+  </si>
+  <si>
+    <t>LP-00129</t>
+  </si>
+  <si>
+    <t>LP-00131</t>
+  </si>
+  <si>
+    <t>LP-00133</t>
+  </si>
+  <si>
+    <t>LP-00135</t>
+  </si>
+  <si>
+    <t>LP-00136</t>
+  </si>
+  <si>
+    <t>LP-00138</t>
+  </si>
+  <si>
+    <t>LP-00139</t>
+  </si>
+  <si>
+    <t>LP-00141</t>
+  </si>
+  <si>
+    <t>LP-00142</t>
+  </si>
+  <si>
+    <t>LP-00143</t>
+  </si>
+  <si>
+    <t>LP-00144</t>
+  </si>
+  <si>
+    <t>LP-00145</t>
+  </si>
+  <si>
+    <t>LP-00146</t>
+  </si>
+  <si>
+    <t>LP-00147</t>
+  </si>
+  <si>
+    <t>LP-00148</t>
+  </si>
+  <si>
+    <t>LP-00149</t>
+  </si>
+  <si>
+    <t>LP-00152</t>
+  </si>
+  <si>
+    <t>LP-00153</t>
+  </si>
+  <si>
+    <t>LP-00154</t>
+  </si>
+  <si>
+    <t>LP-00155</t>
+  </si>
+  <si>
+    <t>LP-00156</t>
   </si>
 </sst>
 </file>
@@ -831,18 +987,19 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1183,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8DF20D-43B8-4F50-BD73-629D07637EE7}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,184 +1370,548 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="9">
-        <v>24029</v>
+        <v>203</v>
+      </c>
+      <c r="C2" s="8">
+        <v>24632</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="9">
-        <v>24029</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="C3" s="8">
+        <v>24483</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="9">
-        <v>24029</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="C4" s="8">
+        <v>24888</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="9">
-        <v>24029</v>
+        <v>203</v>
+      </c>
+      <c r="C5" s="8">
+        <v>24153</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="9">
-        <v>24029</v>
+        <v>203</v>
+      </c>
+      <c r="C6" s="8">
+        <v>24153</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="9">
-        <v>24029</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
+      </c>
+      <c r="C7" s="8">
+        <v>24153</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="9">
-        <v>24029</v>
+        <v>203</v>
+      </c>
+      <c r="C8" s="8">
+        <v>24153</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="9">
-        <v>24029</v>
+        <v>203</v>
+      </c>
+      <c r="C9" s="8">
+        <v>24153</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="9">
-        <v>25455</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>211</v>
+        <v>203</v>
+      </c>
+      <c r="C10" s="8">
+        <v>25798</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="9">
-        <v>24029</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>222</v>
+        <v>203</v>
+      </c>
+      <c r="C11" s="8">
+        <v>25798</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" s="9">
-        <v>24029</v>
+        <v>203</v>
+      </c>
+      <c r="C12" s="8">
+        <v>25798</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="9">
-        <v>24029</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>224</v>
+        <v>203</v>
+      </c>
+      <c r="C13" s="8">
+        <v>24181</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="8">
+        <v>24216</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="8">
+        <v>24216</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="8">
+        <v>24153</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="8">
+        <v>24483</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="8">
+        <v>24181</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="8">
+        <v>24216</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="8">
+        <v>24216</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="8">
+        <v>24279</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="8">
+        <v>24181</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="8">
+        <v>24181</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="8">
+        <v>24216</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>266</v>
+      </c>
+      <c r="B25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="8">
+        <v>24307</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="8">
+        <v>25049</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="8">
+        <v>25798</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="9">
-        <v>24029</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>225</v>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="8">
+        <v>24216</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="8">
+        <v>24153</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="8">
+        <v>24216</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="8">
+        <v>24216</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>273</v>
+      </c>
+      <c r="B32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="8">
+        <v>24307</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>274</v>
+      </c>
+      <c r="B33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="8">
+        <v>24216</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>275</v>
+      </c>
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="8">
+        <v>24216</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>276</v>
+      </c>
+      <c r="B35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="8">
+        <v>24216</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>277</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="8">
+        <v>24279</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>278</v>
+      </c>
+      <c r="B37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="8">
+        <v>24181</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>279</v>
+      </c>
+      <c r="B38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="8">
+        <v>25182</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>280</v>
+      </c>
+      <c r="B39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="8">
+        <v>24181</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>281</v>
+      </c>
+      <c r="B40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="8">
+        <v>24216</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Location-Import.xlsx
+++ b/data/raw/Location-Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D36D4AA-BF4F-4584-9059-50B10E156B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538B48BA-93FB-4636-9A89-996A89528106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="3810" windowWidth="29070" windowHeight="16980" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
+    <workbookView xWindow="24675" yWindow="3345" windowWidth="29070" windowHeight="16980" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
   </bookViews>
   <sheets>
     <sheet name="Landmark" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="256">
   <si>
     <t>BoroughCode</t>
   </si>
@@ -651,238 +651,160 @@
     <t>Individual Landmark</t>
   </si>
   <si>
-    <t>645dd82fe6fcaf3f17fab00f</t>
-  </si>
-  <si>
-    <t>560f6b83f89701aedbaebc4a</t>
-  </si>
-  <si>
-    <t>555d5a73083cd88a44265d6d</t>
-  </si>
-  <si>
-    <t>5606bb45f89701aedbaebb75</t>
-  </si>
-  <si>
-    <t>643a069e4ac6203737fd6e2d</t>
-  </si>
-  <si>
-    <t>64341bb1a90bce6b6c83bb12</t>
-  </si>
-  <si>
-    <t>643b8c404ac6203737fd6e50</t>
-  </si>
-  <si>
-    <t>643a07b44ac6203737fd6e2e</t>
-  </si>
-  <si>
-    <t>64c2f48a54ab1c604a34d302</t>
-  </si>
-  <si>
-    <t>64a4be4efc95c50bc98dcfa0</t>
-  </si>
-  <si>
-    <t>64c2f8de54ab1c604a34d305</t>
-  </si>
-  <si>
-    <t>5606c8f0f89701aedbaebb7b</t>
-  </si>
-  <si>
-    <t>55f796b4f58614cf075b7681</t>
-  </si>
-  <si>
-    <t>64b3338c54ab1c604a34d0f7</t>
-  </si>
-  <si>
-    <t>55f7842df58614cf075b7664</t>
-  </si>
-  <si>
-    <t>64869e0b3ee0be6578226198</t>
-  </si>
-  <si>
-    <t>55f77b56f58614cf075b7655</t>
-  </si>
-  <si>
-    <t>648357b03ee0be6578226172</t>
-  </si>
-  <si>
-    <t>64b048bd54ab1c604a34d079</t>
-  </si>
-  <si>
-    <t>64341c90a90bce6b6c83bb13</t>
-  </si>
-  <si>
-    <t>64c099f054ab1c604a34d25d</t>
-  </si>
-  <si>
-    <t>6466555e6117d262815b109f</t>
-  </si>
-  <si>
-    <t>64af5f7654ab1c604a34d053</t>
-  </si>
-  <si>
-    <t>6499b628d4762e2149e238cd</t>
-  </si>
-  <si>
-    <t>5606b97cf89701aedbaebb74</t>
-  </si>
-  <si>
-    <t>55f77de4f58614cf075b7657</t>
-  </si>
-  <si>
-    <t>64341df3a90bce6b6c83bb14</t>
-  </si>
-  <si>
-    <t>560f2ba6f89701aedbaebc2b</t>
-  </si>
-  <si>
-    <t>64af604354ab1c604a34d054</t>
-  </si>
-  <si>
-    <t>55f794fbf58614cf075b767e</t>
-  </si>
-  <si>
-    <t>64497315e7abb0665474a277</t>
-  </si>
-  <si>
-    <t>5609fd70f89701aedbaebbd7</t>
-  </si>
-  <si>
-    <t>64477ab7e7abb0665474a23f</t>
-  </si>
-  <si>
-    <t>55371fc0083cd88a44265c56</t>
-  </si>
-  <si>
-    <t>54fa99fa5c95965f78def7c1</t>
-  </si>
-  <si>
-    <t>54fa99fa5c95965f78def7c2</t>
-  </si>
-  <si>
-    <t>5500f4aa93a2b1e1e52db672</t>
-  </si>
-  <si>
-    <t>560dd26df89701aedbaebbf1</t>
-  </si>
-  <si>
-    <t>64ad99edfc95c50bc98dd02f</t>
-  </si>
-  <si>
-    <t>LP-00101</t>
-  </si>
-  <si>
-    <t>LP-00108</t>
-  </si>
-  <si>
-    <t>LP-00109</t>
-  </si>
-  <si>
-    <t>LP-00110</t>
-  </si>
-  <si>
-    <t>LP-00112</t>
-  </si>
-  <si>
-    <t>LP-00113</t>
-  </si>
-  <si>
-    <t>LP-00114</t>
-  </si>
-  <si>
-    <t>LP-00115</t>
-  </si>
-  <si>
-    <t>LP-00116</t>
-  </si>
-  <si>
-    <t>LP-00117</t>
-  </si>
-  <si>
-    <t>LP-00118</t>
-  </si>
-  <si>
-    <t>LP-00119</t>
-  </si>
-  <si>
-    <t>LP-00121</t>
-  </si>
-  <si>
-    <t>LP-00124</t>
-  </si>
-  <si>
-    <t>LP-00125</t>
-  </si>
-  <si>
-    <t>LP-00126</t>
-  </si>
-  <si>
-    <t>LP-00127</t>
-  </si>
-  <si>
-    <t>LP-00128</t>
-  </si>
-  <si>
-    <t>LP-00129</t>
-  </si>
-  <si>
-    <t>LP-00131</t>
-  </si>
-  <si>
-    <t>LP-00133</t>
-  </si>
-  <si>
-    <t>LP-00135</t>
-  </si>
-  <si>
-    <t>LP-00136</t>
-  </si>
-  <si>
-    <t>LP-00138</t>
-  </si>
-  <si>
-    <t>LP-00139</t>
-  </si>
-  <si>
-    <t>LP-00141</t>
-  </si>
-  <si>
-    <t>LP-00142</t>
-  </si>
-  <si>
-    <t>LP-00143</t>
-  </si>
-  <si>
-    <t>LP-00144</t>
-  </si>
-  <si>
-    <t>LP-00145</t>
-  </si>
-  <si>
-    <t>LP-00146</t>
-  </si>
-  <si>
-    <t>LP-00147</t>
-  </si>
-  <si>
-    <t>LP-00148</t>
-  </si>
-  <si>
-    <t>LP-00149</t>
-  </si>
-  <si>
-    <t>LP-00152</t>
-  </si>
-  <si>
-    <t>LP-00153</t>
-  </si>
-  <si>
-    <t>LP-00154</t>
-  </si>
-  <si>
-    <t>LP-00155</t>
-  </si>
-  <si>
-    <t>LP-00156</t>
+    <t>6455bad54673c82a34f4eccc</t>
+  </si>
+  <si>
+    <t>6470e61c9e866c1d68eb587f</t>
+  </si>
+  <si>
+    <t>64583f814673c82a34f4ecf6</t>
+  </si>
+  <si>
+    <t>6470d6d49e866c1d68eb587c</t>
+  </si>
+  <si>
+    <t>64582fe34673c82a34f4ece9</t>
+  </si>
+  <si>
+    <t>645830e24673c82a34f4ecea</t>
+  </si>
+  <si>
+    <t>560f3cfef89701aedbaebc31</t>
+  </si>
+  <si>
+    <t>647046569e866c1d68eb5870</t>
+  </si>
+  <si>
+    <t>6455a9f14673c82a34f4ecbc</t>
+  </si>
+  <si>
+    <t>6455ca704673c82a34f4ecce</t>
+  </si>
+  <si>
+    <t>6455cb4d4673c82a34f4eccf</t>
+  </si>
+  <si>
+    <t>64963e6313f51e5a4696f276</t>
+  </si>
+  <si>
+    <t>560df230f89701aedbaebbf4</t>
+  </si>
+  <si>
+    <t>6444d47be7abb0665474a20b</t>
+  </si>
+  <si>
+    <t>64ad97a0fc95c50bc98dd02e</t>
+  </si>
+  <si>
+    <t>6455eec44673c82a34f4ecd3</t>
+  </si>
+  <si>
+    <t>6455edd04673c82a34f4ecd2</t>
+  </si>
+  <si>
+    <t>5604c7a2f89701aedbaebb66</t>
+  </si>
+  <si>
+    <t>646c311c9e866c1d68eb57c1</t>
+  </si>
+  <si>
+    <t>6450c7d33879cf70e53ff046</t>
+  </si>
+  <si>
+    <t>561f1decf89701aedbaebc95</t>
+  </si>
+  <si>
+    <t>646af3da9e866c1d68eb57a5</t>
+  </si>
+  <si>
+    <t>644ccafd3879cf70e53ff02b</t>
+  </si>
+  <si>
+    <t>646dc5dc9e866c1d68eb5825</t>
+  </si>
+  <si>
+    <t>6450c55c3879cf70e53ff044</t>
+  </si>
+  <si>
+    <t>6444d560e7abb0665474a20c</t>
+  </si>
+  <si>
+    <t>LP-00160</t>
+  </si>
+  <si>
+    <t>LP-00161</t>
+  </si>
+  <si>
+    <t>LP-00162</t>
+  </si>
+  <si>
+    <t>LP-00163</t>
+  </si>
+  <si>
+    <t>LP-00164</t>
+  </si>
+  <si>
+    <t>LP-00165</t>
+  </si>
+  <si>
+    <t>LP-00167</t>
+  </si>
+  <si>
+    <t>LP-00168</t>
+  </si>
+  <si>
+    <t>LP-00169</t>
+  </si>
+  <si>
+    <t>LP-00170</t>
+  </si>
+  <si>
+    <t>LP-00170E</t>
+  </si>
+  <si>
+    <t>LP-00171</t>
+  </si>
+  <si>
+    <t>LP-00172</t>
+  </si>
+  <si>
+    <t>LP-00173</t>
+  </si>
+  <si>
+    <t>LP-00175</t>
+  </si>
+  <si>
+    <t>LP-00176</t>
+  </si>
+  <si>
+    <t>LP-00177</t>
+  </si>
+  <si>
+    <t>LP-00179</t>
+  </si>
+  <si>
+    <t>LP-00181</t>
+  </si>
+  <si>
+    <t>LP-00183</t>
+  </si>
+  <si>
+    <t>LP-00184</t>
+  </si>
+  <si>
+    <t>LP-00186</t>
+  </si>
+  <si>
+    <t>LP-00187</t>
+  </si>
+  <si>
+    <t>LP-00192</t>
+  </si>
+  <si>
+    <t>LP-00193</t>
+  </si>
+  <si>
+    <t>LP-00196</t>
   </si>
 </sst>
 </file>
@@ -987,7 +909,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -995,11 +917,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="11" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1340,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8DF20D-43B8-4F50-BD73-629D07637EE7}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,27 +1294,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="8">
-        <v>24632</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="7">
+        <v>25154</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="8">
-        <v>24483</v>
+      <c r="C3" s="7">
+        <v>24916</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>205</v>
@@ -1398,13 +1322,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="8">
-        <v>24888</v>
+      <c r="C4" s="7">
+        <v>25526</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>206</v>
@@ -1412,13 +1336,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="8">
-        <v>24153</v>
+      <c r="C5" s="7">
+        <v>42592</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>207</v>
@@ -1426,13 +1350,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="8">
-        <v>24153</v>
+      <c r="C6" s="7">
+        <v>24244</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>208</v>
@@ -1440,27 +1364,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="8">
-        <v>24153</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="7">
+        <v>24181</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="8">
-        <v>24153</v>
+      <c r="C8" s="7">
+        <v>24399</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>210</v>
@@ -1468,41 +1392,41 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="8">
-        <v>24153</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="7">
+        <v>24916</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="8">
-        <v>25798</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="7">
+        <v>24307</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="8">
-        <v>25798</v>
+      <c r="C11" s="7">
+        <v>24181</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>213</v>
@@ -1510,41 +1434,41 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B12" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="8">
-        <v>25798</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="7">
+        <v>28864</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>24181</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="13" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
         <v>203</v>
       </c>
-      <c r="C14" s="8">
-        <v>24216</v>
+      <c r="C14" s="7">
+        <v>24181</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>216</v>
@@ -1552,97 +1476,97 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B15" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="8">
-        <v>24216</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="7">
+        <v>24854</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="8">
-        <v>24153</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="7">
+        <v>25245</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="8">
-        <v>24483</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="7">
+        <v>25526</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="8">
-        <v>24181</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="7">
+        <v>24307</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B19" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="8">
-        <v>24216</v>
+      <c r="C19" s="7">
+        <v>24370</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>24216</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
         <v>203</v>
       </c>
-      <c r="C21" s="8">
-        <v>24279</v>
+      <c r="C21" s="7">
+        <v>25526</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>223</v>
@@ -1650,13 +1574,13 @@
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="8">
-        <v>24181</v>
+      <c r="C22" s="7">
+        <v>24216</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>224</v>
@@ -1664,55 +1588,55 @@
     </row>
     <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="8">
-        <v>24181</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="7">
+        <v>24279</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="8">
-        <v>24216</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="7">
+        <v>24279</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="8">
-        <v>24307</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="7">
+        <v>24483</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s">
         <v>203</v>
       </c>
-      <c r="C26" s="8">
-        <v>25049</v>
+      <c r="C26" s="7">
+        <v>24244</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>228</v>
@@ -1720,198 +1644,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="8">
-        <v>25798</v>
+      <c r="C27" s="7">
+        <v>24244</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>269</v>
-      </c>
-      <c r="B28" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" s="8">
-        <v>24216</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>270</v>
-      </c>
-      <c r="B29" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="8">
-        <v>24153</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>271</v>
-      </c>
-      <c r="B30" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="8">
-        <v>24216</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>272</v>
-      </c>
-      <c r="B31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C31" s="8">
-        <v>24216</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>273</v>
-      </c>
-      <c r="B32" t="s">
-        <v>203</v>
-      </c>
-      <c r="C32" s="8">
-        <v>24307</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>274</v>
-      </c>
-      <c r="B33" t="s">
-        <v>203</v>
-      </c>
-      <c r="C33" s="8">
-        <v>24216</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>275</v>
-      </c>
-      <c r="B34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34" s="8">
-        <v>24216</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>276</v>
-      </c>
-      <c r="B35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C35" s="8">
-        <v>24216</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>277</v>
-      </c>
-      <c r="B36" t="s">
-        <v>203</v>
-      </c>
-      <c r="C36" s="8">
-        <v>24279</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>278</v>
-      </c>
-      <c r="B37" t="s">
-        <v>203</v>
-      </c>
-      <c r="C37" s="8">
-        <v>24181</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>279</v>
-      </c>
-      <c r="B38" t="s">
-        <v>203</v>
-      </c>
-      <c r="C38" s="8">
-        <v>25182</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>280</v>
-      </c>
-      <c r="B39" t="s">
-        <v>203</v>
-      </c>
-      <c r="C39" s="8">
-        <v>24181</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>281</v>
-      </c>
-      <c r="B40" t="s">
-        <v>203</v>
-      </c>
-      <c r="C40" s="8">
-        <v>24216</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Location-Import.xlsx
+++ b/data/raw/Location-Import.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538B48BA-93FB-4636-9A89-996A89528106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C99EEF2-08A7-4758-A473-837BD8D6DBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24675" yWindow="3345" windowWidth="29070" windowHeight="16980" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
+    <workbookView xWindow="6345" yWindow="2910" windowWidth="35970" windowHeight="16875" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
   </bookViews>
   <sheets>
     <sheet name="Landmark" sheetId="2" r:id="rId1"/>
-    <sheet name="Location" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Location" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="286">
   <si>
     <t>BoroughCode</t>
   </si>
@@ -651,160 +652,250 @@
     <t>Individual Landmark</t>
   </si>
   <si>
-    <t>6455bad54673c82a34f4eccc</t>
-  </si>
-  <si>
-    <t>6470e61c9e866c1d68eb587f</t>
-  </si>
-  <si>
-    <t>64583f814673c82a34f4ecf6</t>
-  </si>
-  <si>
-    <t>6470d6d49e866c1d68eb587c</t>
-  </si>
-  <si>
-    <t>64582fe34673c82a34f4ece9</t>
-  </si>
-  <si>
-    <t>645830e24673c82a34f4ecea</t>
-  </si>
-  <si>
-    <t>560f3cfef89701aedbaebc31</t>
-  </si>
-  <si>
-    <t>647046569e866c1d68eb5870</t>
-  </si>
-  <si>
-    <t>6455a9f14673c82a34f4ecbc</t>
-  </si>
-  <si>
-    <t>6455ca704673c82a34f4ecce</t>
-  </si>
-  <si>
-    <t>6455cb4d4673c82a34f4eccf</t>
-  </si>
-  <si>
-    <t>64963e6313f51e5a4696f276</t>
-  </si>
-  <si>
-    <t>560df230f89701aedbaebbf4</t>
-  </si>
-  <si>
-    <t>6444d47be7abb0665474a20b</t>
-  </si>
-  <si>
-    <t>64ad97a0fc95c50bc98dd02e</t>
-  </si>
-  <si>
-    <t>6455eec44673c82a34f4ecd3</t>
-  </si>
-  <si>
-    <t>6455edd04673c82a34f4ecd2</t>
-  </si>
-  <si>
-    <t>5604c7a2f89701aedbaebb66</t>
-  </si>
-  <si>
-    <t>646c311c9e866c1d68eb57c1</t>
-  </si>
-  <si>
-    <t>6450c7d33879cf70e53ff046</t>
-  </si>
-  <si>
-    <t>561f1decf89701aedbaebc95</t>
-  </si>
-  <si>
-    <t>646af3da9e866c1d68eb57a5</t>
-  </si>
-  <si>
-    <t>644ccafd3879cf70e53ff02b</t>
-  </si>
-  <si>
-    <t>646dc5dc9e866c1d68eb5825</t>
-  </si>
-  <si>
-    <t>6450c55c3879cf70e53ff044</t>
-  </si>
-  <si>
-    <t>6444d560e7abb0665474a20c</t>
-  </si>
-  <si>
-    <t>LP-00160</t>
-  </si>
-  <si>
-    <t>LP-00161</t>
-  </si>
-  <si>
-    <t>LP-00162</t>
-  </si>
-  <si>
-    <t>LP-00163</t>
-  </si>
-  <si>
-    <t>LP-00164</t>
-  </si>
-  <si>
-    <t>LP-00165</t>
-  </si>
-  <si>
-    <t>LP-00167</t>
-  </si>
-  <si>
-    <t>LP-00168</t>
-  </si>
-  <si>
-    <t>LP-00169</t>
-  </si>
-  <si>
-    <t>LP-00170</t>
-  </si>
-  <si>
-    <t>LP-00170E</t>
-  </si>
-  <si>
-    <t>LP-00171</t>
-  </si>
-  <si>
-    <t>LP-00172</t>
-  </si>
-  <si>
-    <t>LP-00173</t>
-  </si>
-  <si>
-    <t>LP-00175</t>
-  </si>
-  <si>
-    <t>LP-00176</t>
-  </si>
-  <si>
-    <t>LP-00177</t>
-  </si>
-  <si>
-    <t>LP-00179</t>
-  </si>
-  <si>
-    <t>LP-00181</t>
-  </si>
-  <si>
-    <t>LP-00183</t>
-  </si>
-  <si>
-    <t>LP-00184</t>
-  </si>
-  <si>
-    <t>LP-00186</t>
-  </si>
-  <si>
-    <t>LP-00187</t>
-  </si>
-  <si>
-    <t>LP-00192</t>
-  </si>
-  <si>
-    <t>LP-00193</t>
-  </si>
-  <si>
-    <t>LP-00196</t>
+    <t>6487fdc23ee0be65782261ba</t>
+  </si>
+  <si>
+    <t>6487fc133ee0be65782261b8</t>
+  </si>
+  <si>
+    <t>6487e7313ee0be65782261b2</t>
+  </si>
+  <si>
+    <t>648b67a87c55b27c2c708030</t>
+  </si>
+  <si>
+    <t>648b69f47c55b27c2c708031</t>
+  </si>
+  <si>
+    <t>648b6be87c55b27c2c708036</t>
+  </si>
+  <si>
+    <t>648b6c827c55b27c2c708037</t>
+  </si>
+  <si>
+    <t>648b6d2d7c55b27c2c708038</t>
+  </si>
+  <si>
+    <t>648b6e017c55b27c2c708039</t>
+  </si>
+  <si>
+    <t>648b6f137c55b27c2c70803a</t>
+  </si>
+  <si>
+    <t>648b70a47c55b27c2c70803c</t>
+  </si>
+  <si>
+    <t>648b71137c55b27c2c70803d</t>
+  </si>
+  <si>
+    <t>648b71827c55b27c2c70803e</t>
+  </si>
+  <si>
+    <t>648b71f07c55b27c2c70803f</t>
+  </si>
+  <si>
+    <t>648b730d7c55b27c2c708042</t>
+  </si>
+  <si>
+    <t>648b739e7c55b27c2c708043</t>
+  </si>
+  <si>
+    <t>648b74b87c55b27c2c708044</t>
+  </si>
+  <si>
+    <t>648b75387c55b27c2c708045</t>
+  </si>
+  <si>
+    <t>648b75ae7c55b27c2c708046</t>
+  </si>
+  <si>
+    <t>648bea157c55b27c2c708049</t>
+  </si>
+  <si>
+    <t>648bea847c55b27c2c70804a</t>
+  </si>
+  <si>
+    <t>648beaf47c55b27c2c70804b</t>
+  </si>
+  <si>
+    <t>648bebc57c55b27c2c70804c</t>
+  </si>
+  <si>
+    <t>648bec2a7c55b27c2c70804d</t>
+  </si>
+  <si>
+    <t>648bec9e7c55b27c2c70804e</t>
+  </si>
+  <si>
+    <t>648bed5d7c55b27c2c708050</t>
+  </si>
+  <si>
+    <t>648bedc07c55b27c2c708051</t>
+  </si>
+  <si>
+    <t>648939ee7c55b27c2c707f73</t>
+  </si>
+  <si>
+    <t>648939367c55b27c2c707f72</t>
+  </si>
+  <si>
+    <t>648937da7c55b27c2c707f71</t>
+  </si>
+  <si>
+    <t>648936e57c55b27c2c707f70</t>
+  </si>
+  <si>
+    <t>554c0643083cd88a44265d1b</t>
+  </si>
+  <si>
+    <t>554c0c27083cd88a44265d20</t>
+  </si>
+  <si>
+    <t>554c0906083cd88a44265d1d</t>
+  </si>
+  <si>
+    <t>554c0208083cd88a44265d16</t>
+  </si>
+  <si>
+    <t>554c0a57083cd88a44265d1e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">554c0866083cd88a44265d1c </t>
+  </si>
+  <si>
+    <t>554c0474083cd88a44265d19</t>
+  </si>
+  <si>
+    <t>644742d9e7abb0665474a235</t>
+  </si>
+  <si>
+    <t>646432196117d262815b107d</t>
+  </si>
+  <si>
+    <t>64582ce84673c82a34f4ece4</t>
+  </si>
+  <si>
+    <t>LP-01133</t>
+  </si>
+  <si>
+    <t>LP-01134</t>
+  </si>
+  <si>
+    <t>LP-01135</t>
+  </si>
+  <si>
+    <t>LP-01137</t>
+  </si>
+  <si>
+    <t>LP-01138</t>
+  </si>
+  <si>
+    <t>LP-01139</t>
+  </si>
+  <si>
+    <t>LP-01140</t>
+  </si>
+  <si>
+    <t>LP-01141</t>
+  </si>
+  <si>
+    <t>LP-01142</t>
+  </si>
+  <si>
+    <t>LP-01143</t>
+  </si>
+  <si>
+    <t>LP-01144</t>
+  </si>
+  <si>
+    <t>LP-01145</t>
+  </si>
+  <si>
+    <t>LP-01146</t>
+  </si>
+  <si>
+    <t>LP-01147</t>
+  </si>
+  <si>
+    <t>LP-01148</t>
+  </si>
+  <si>
+    <t>LP-01149</t>
+  </si>
+  <si>
+    <t>LP-01150</t>
+  </si>
+  <si>
+    <t>LP-01151</t>
+  </si>
+  <si>
+    <t>LP-01152</t>
+  </si>
+  <si>
+    <t>LP-01153</t>
+  </si>
+  <si>
+    <t>LP-01154</t>
+  </si>
+  <si>
+    <t>LP-01155</t>
+  </si>
+  <si>
+    <t>LP-01156</t>
+  </si>
+  <si>
+    <t>LP-01157</t>
+  </si>
+  <si>
+    <t>LP-01158</t>
+  </si>
+  <si>
+    <t>LP-01159</t>
+  </si>
+  <si>
+    <t>LP-01160</t>
+  </si>
+  <si>
+    <t>LP-01161</t>
+  </si>
+  <si>
+    <t>LP-01162</t>
+  </si>
+  <si>
+    <t>LP-01163</t>
+  </si>
+  <si>
+    <t>LP-01164</t>
+  </si>
+  <si>
+    <t>LP-01169</t>
+  </si>
+  <si>
+    <t>LP-01170</t>
+  </si>
+  <si>
+    <t>LP-01171</t>
+  </si>
+  <si>
+    <t>LP-01172</t>
+  </si>
+  <si>
+    <t>LP-01173</t>
+  </si>
+  <si>
+    <t>LP-01174</t>
+  </si>
+  <si>
+    <t>LP-01176</t>
+  </si>
+  <si>
+    <t>LP-01177</t>
+  </si>
+  <si>
+    <t>LP-01179</t>
+  </si>
+  <si>
+    <t>LP-01194</t>
   </si>
 </sst>
 </file>
@@ -917,13 +1008,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1264,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8DF20D-43B8-4F50-BD73-629D07637EE7}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,83 +1385,83 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="7">
-        <v>25154</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="8">
+        <v>29620</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="7">
-        <v>24916</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="8">
+        <v>29620</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="7">
-        <v>25526</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="7">
-        <v>42592</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="7">
-        <v>24244</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="7">
-        <v>24181</v>
+      <c r="C7" s="8">
+        <v>29809</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>209</v>
@@ -1378,139 +1469,139 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B8" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="7">
-        <v>24399</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="B9" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="7">
-        <v>24916</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="B10" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="7">
-        <v>24307</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="B11" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="7">
-        <v>24181</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B12" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="7">
-        <v>28864</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="B13" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="7">
-        <v>24181</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B14" t="s">
         <v>203</v>
       </c>
-      <c r="C14" s="7">
-        <v>24181</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="B15" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="7">
-        <v>24854</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="B16" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="7">
-        <v>25245</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B17" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="7">
-        <v>25526</v>
+      <c r="C17" s="8">
+        <v>29809</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>219</v>
@@ -1518,142 +1609,352 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="B18" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="7">
-        <v>24307</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="B19" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="7">
-        <v>24370</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B20" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="7">
-        <v>24216</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="B21" t="s">
         <v>203</v>
       </c>
-      <c r="C21" s="7">
-        <v>25526</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="B22" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="7">
-        <v>24216</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="7">
-        <v>24279</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="B24" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="7">
-        <v>24279</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="B25" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="7">
-        <v>24483</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s">
         <v>203</v>
       </c>
-      <c r="C26" s="7">
-        <v>24244</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="7">
-        <v>24244</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>273</v>
+      </c>
+      <c r="B30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>274</v>
+      </c>
+      <c r="B31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="8">
+        <v>29809</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="8">
+        <v>29823</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>277</v>
+      </c>
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="8">
+        <v>29823</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>278</v>
+      </c>
+      <c r="B35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="8">
+        <v>29823</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>279</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="8">
+        <v>29823</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>280</v>
+      </c>
+      <c r="B37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="8">
+        <v>29823</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>281</v>
+      </c>
+      <c r="B38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="8">
+        <v>29823</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>282</v>
+      </c>
+      <c r="B39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="8">
+        <v>29823</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>283</v>
+      </c>
+      <c r="B40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="8">
+        <v>29732</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>284</v>
+      </c>
+      <c r="B41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="8">
+        <v>29823</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="8">
+        <v>30495</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1662,6 +1963,602 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3357CC09-23DF-4DCC-90AE-073CA89D0F7A}">
+  <dimension ref="D137:G177"/>
+  <sheetViews>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137:G177"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="50" customWidth="1"/>
+    <col min="8" max="8" width="44.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="137" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>245</v>
+      </c>
+      <c r="E137" t="s">
+        <v>203</v>
+      </c>
+      <c r="F137" s="8">
+        <v>29620</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="138" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>246</v>
+      </c>
+      <c r="E138" t="s">
+        <v>203</v>
+      </c>
+      <c r="F138" s="8">
+        <v>29620</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="139" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>247</v>
+      </c>
+      <c r="E139" t="s">
+        <v>203</v>
+      </c>
+      <c r="F139" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G139" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="140" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>248</v>
+      </c>
+      <c r="E140" t="s">
+        <v>203</v>
+      </c>
+      <c r="F140" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="141" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>249</v>
+      </c>
+      <c r="E141" t="s">
+        <v>203</v>
+      </c>
+      <c r="F141" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="142" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>250</v>
+      </c>
+      <c r="E142" t="s">
+        <v>203</v>
+      </c>
+      <c r="F142" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="143" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>251</v>
+      </c>
+      <c r="E143" t="s">
+        <v>203</v>
+      </c>
+      <c r="F143" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="144" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>252</v>
+      </c>
+      <c r="E144" t="s">
+        <v>203</v>
+      </c>
+      <c r="F144" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="145" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>253</v>
+      </c>
+      <c r="E145" t="s">
+        <v>203</v>
+      </c>
+      <c r="F145" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>254</v>
+      </c>
+      <c r="E146" t="s">
+        <v>203</v>
+      </c>
+      <c r="F146" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>255</v>
+      </c>
+      <c r="E147" t="s">
+        <v>203</v>
+      </c>
+      <c r="F147" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>256</v>
+      </c>
+      <c r="E148" t="s">
+        <v>203</v>
+      </c>
+      <c r="F148" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="149" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>257</v>
+      </c>
+      <c r="E149" t="s">
+        <v>203</v>
+      </c>
+      <c r="F149" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="150" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>258</v>
+      </c>
+      <c r="E150" t="s">
+        <v>203</v>
+      </c>
+      <c r="F150" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="151" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>259</v>
+      </c>
+      <c r="E151" t="s">
+        <v>203</v>
+      </c>
+      <c r="F151" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="152" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>260</v>
+      </c>
+      <c r="E152" t="s">
+        <v>203</v>
+      </c>
+      <c r="F152" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="153" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>261</v>
+      </c>
+      <c r="E153" t="s">
+        <v>203</v>
+      </c>
+      <c r="F153" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="154" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>262</v>
+      </c>
+      <c r="E154" t="s">
+        <v>203</v>
+      </c>
+      <c r="F154" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>263</v>
+      </c>
+      <c r="E155" t="s">
+        <v>203</v>
+      </c>
+      <c r="F155" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="156" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>264</v>
+      </c>
+      <c r="E156" t="s">
+        <v>203</v>
+      </c>
+      <c r="F156" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G156" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="157" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>265</v>
+      </c>
+      <c r="E157" t="s">
+        <v>203</v>
+      </c>
+      <c r="F157" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="158" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>266</v>
+      </c>
+      <c r="E158" t="s">
+        <v>203</v>
+      </c>
+      <c r="F158" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="159" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>267</v>
+      </c>
+      <c r="E159" t="s">
+        <v>203</v>
+      </c>
+      <c r="F159" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="160" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>268</v>
+      </c>
+      <c r="E160" t="s">
+        <v>203</v>
+      </c>
+      <c r="F160" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="161" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>269</v>
+      </c>
+      <c r="E161" t="s">
+        <v>203</v>
+      </c>
+      <c r="F161" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="162" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>270</v>
+      </c>
+      <c r="E162" t="s">
+        <v>203</v>
+      </c>
+      <c r="F162" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="163" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>271</v>
+      </c>
+      <c r="E163" t="s">
+        <v>203</v>
+      </c>
+      <c r="F163" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="164" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>272</v>
+      </c>
+      <c r="E164" t="s">
+        <v>203</v>
+      </c>
+      <c r="F164" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G164" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="165" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>273</v>
+      </c>
+      <c r="E165" t="s">
+        <v>203</v>
+      </c>
+      <c r="F165" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="166" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>274</v>
+      </c>
+      <c r="E166" t="s">
+        <v>203</v>
+      </c>
+      <c r="F166" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="167" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>275</v>
+      </c>
+      <c r="E167" t="s">
+        <v>203</v>
+      </c>
+      <c r="F167" s="8">
+        <v>29809</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="168" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>276</v>
+      </c>
+      <c r="E168" t="s">
+        <v>203</v>
+      </c>
+      <c r="F168" s="8">
+        <v>29823</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="169" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>277</v>
+      </c>
+      <c r="E169" t="s">
+        <v>203</v>
+      </c>
+      <c r="F169" s="8">
+        <v>29823</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="170" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>278</v>
+      </c>
+      <c r="E170" t="s">
+        <v>203</v>
+      </c>
+      <c r="F170" s="8">
+        <v>29823</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="171" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>279</v>
+      </c>
+      <c r="E171" t="s">
+        <v>203</v>
+      </c>
+      <c r="F171" s="8">
+        <v>29823</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="172" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>280</v>
+      </c>
+      <c r="E172" t="s">
+        <v>203</v>
+      </c>
+      <c r="F172" s="8">
+        <v>29823</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="173" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>281</v>
+      </c>
+      <c r="E173" t="s">
+        <v>203</v>
+      </c>
+      <c r="F173" s="8">
+        <v>29823</v>
+      </c>
+      <c r="G173" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="174" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>282</v>
+      </c>
+      <c r="E174" t="s">
+        <v>203</v>
+      </c>
+      <c r="F174" s="8">
+        <v>29823</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="175" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>283</v>
+      </c>
+      <c r="E175" t="s">
+        <v>203</v>
+      </c>
+      <c r="F175" s="8">
+        <v>29732</v>
+      </c>
+      <c r="G175" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="176" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>284</v>
+      </c>
+      <c r="E176" t="s">
+        <v>203</v>
+      </c>
+      <c r="F176" s="8">
+        <v>29823</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="177" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>285</v>
+      </c>
+      <c r="E177" t="s">
+        <v>203</v>
+      </c>
+      <c r="F177" s="8">
+        <v>30495</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E35AD9-3ED2-499D-983E-C1E37B674B88}">
   <dimension ref="A1:E192"/>
   <sheetViews>

--- a/data/raw/Location-Import.xlsx
+++ b/data/raw/Location-Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C99EEF2-08A7-4758-A473-837BD8D6DBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31E1A74-8DC1-4D45-B454-E0769F4A954C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6345" yWindow="2910" windowWidth="35970" windowHeight="16875" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="287">
   <si>
     <t>BoroughCode</t>
   </si>
@@ -896,6 +896,9 @@
   </si>
   <si>
     <t>LP-01194</t>
+  </si>
+  <si>
+    <t>554c0866083cd88a44265d1c</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1361,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,7 +1901,7 @@
         <v>29823</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/raw/Location-Import.xlsx
+++ b/data/raw/Location-Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31E1A74-8DC1-4D45-B454-E0769F4A954C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69453030-7DDF-4917-9265-67D66DD45057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="2910" windowWidth="35970" windowHeight="16875" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
+    <workbookView xWindow="3045" yWindow="1905" windowWidth="32475" windowHeight="16875" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
   </bookViews>
   <sheets>
     <sheet name="Landmark" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="529">
   <si>
     <t>BoroughCode</t>
   </si>
@@ -898,7 +898,733 @@
     <t>LP-01194</t>
   </si>
   <si>
-    <t>554c0866083cd88a44265d1c</t>
+    <t>64a71f99fc95c50bc98dcfaf</t>
+  </si>
+  <si>
+    <t>6483595e3ee0be6578226173</t>
+  </si>
+  <si>
+    <t>64a7205afc95c50bc98dcfb0</t>
+  </si>
+  <si>
+    <t>64488bd5e7abb0665474a255</t>
+  </si>
+  <si>
+    <t>6448b237e7abb0665474a261</t>
+  </si>
+  <si>
+    <t>643a0e624ac6203737fd6e3a</t>
+  </si>
+  <si>
+    <t>647d5b55426b0f007933de0f</t>
+  </si>
+  <si>
+    <t>6455b3a64673c82a34f4ecc6</t>
+  </si>
+  <si>
+    <t>6455b2aa4673c82a34f4ecc5</t>
+  </si>
+  <si>
+    <t>6455b49f4673c82a34f4ecc7</t>
+  </si>
+  <si>
+    <t>64a596effc95c50bc98dcfa2</t>
+  </si>
+  <si>
+    <t>55fa102bf58614cf075b768b</t>
+  </si>
+  <si>
+    <t>64420d5394494a7b43e48345</t>
+  </si>
+  <si>
+    <t>64570add4673c82a34f4ece0</t>
+  </si>
+  <si>
+    <t>646c195a9e866c1d68eb57af</t>
+  </si>
+  <si>
+    <t>643a0f2b4ac6203737fd6e3b</t>
+  </si>
+  <si>
+    <t>645bee96e6fcaf3f17faafdf</t>
+  </si>
+  <si>
+    <t>648b5d1f7c55b27c2c70802d</t>
+  </si>
+  <si>
+    <t>6463489f6117d262815b1067</t>
+  </si>
+  <si>
+    <t>6440b83e4ac6203737fd6e98</t>
+  </si>
+  <si>
+    <t>6470d3579e866c1d68eb5878</t>
+  </si>
+  <si>
+    <t>6482016dc57c9f5a476e2bd6</t>
+  </si>
+  <si>
+    <t>6448a7aae7abb0665474a25a</t>
+  </si>
+  <si>
+    <t>64484b50e7abb0665474a243</t>
+  </si>
+  <si>
+    <t>6457048d4673c82a34f4ecdd</t>
+  </si>
+  <si>
+    <t>64827cdcc57c9f5a476e2c0a</t>
+  </si>
+  <si>
+    <t>645efbc1e6fcaf3f17fab04b</t>
+  </si>
+  <si>
+    <t>646336016117d262815b1061</t>
+  </si>
+  <si>
+    <t>64330af0a90bce6b6c83badf</t>
+  </si>
+  <si>
+    <t>64342572a90bce6b6c83bb1c</t>
+  </si>
+  <si>
+    <t>646353eb6117d262815b1072</t>
+  </si>
+  <si>
+    <t>645be772e6fcaf3f17faafd2</t>
+  </si>
+  <si>
+    <t>55f26488f58614cf075b75f8</t>
+  </si>
+  <si>
+    <t>55f701a4f58614cf075b7635</t>
+  </si>
+  <si>
+    <t>645bec21e6fcaf3f17faafda</t>
+  </si>
+  <si>
+    <t>645b14c44673c82a34f4ed7b</t>
+  </si>
+  <si>
+    <t>6445dacde7abb0665474a21d</t>
+  </si>
+  <si>
+    <t>6446e3c6e7abb0665474a223</t>
+  </si>
+  <si>
+    <t>64471fa9e7abb0665474a230</t>
+  </si>
+  <si>
+    <t>561dd2a1f89701aedbaebc8c</t>
+  </si>
+  <si>
+    <t>64697c2a9e866c1d68eb5770</t>
+  </si>
+  <si>
+    <t>6446e215e7abb0665474a222</t>
+  </si>
+  <si>
+    <t>646813a09e866c1d68eb5709</t>
+  </si>
+  <si>
+    <t>6451d7be3879cf70e53ff078</t>
+  </si>
+  <si>
+    <t>644f2fed3879cf70e53ff039</t>
+  </si>
+  <si>
+    <t>6448bc7de7abb0665474a263</t>
+  </si>
+  <si>
+    <t>645be81ae6fcaf3f17faafd3</t>
+  </si>
+  <si>
+    <t>645711d94673c82a34f4ece1</t>
+  </si>
+  <si>
+    <t>647d20e4426b0f007933ddfc</t>
+  </si>
+  <si>
+    <t>6449859be7abb0665474a280</t>
+  </si>
+  <si>
+    <t>644b1d58e7abb0665474a294</t>
+  </si>
+  <si>
+    <t>646facda9e866c1d68eb5845</t>
+  </si>
+  <si>
+    <t>646832ed9e866c1d68eb570d</t>
+  </si>
+  <si>
+    <t>64496b72e7abb0665474a272</t>
+  </si>
+  <si>
+    <t>6451d8543879cf70e53ff079</t>
+  </si>
+  <si>
+    <t>645bee00e6fcaf3f17faafde</t>
+  </si>
+  <si>
+    <t>6448b139e7abb0665474a260</t>
+  </si>
+  <si>
+    <t>6461b9f4e6fcaf3f17fab0b5</t>
+  </si>
+  <si>
+    <t>645b18344673c82a34f4ed81</t>
+  </si>
+  <si>
+    <t>648000a0426b0f007933de3e</t>
+  </si>
+  <si>
+    <t>6472a9ca426b0f007933dca0</t>
+  </si>
+  <si>
+    <t>646c4a209e866c1d68eb57cb</t>
+  </si>
+  <si>
+    <t>646c4b1d9e866c1d68eb57cd</t>
+  </si>
+  <si>
+    <t>646c4ba09e866c1d68eb57ce</t>
+  </si>
+  <si>
+    <t>646c4c3e9e866c1d68eb57cf</t>
+  </si>
+  <si>
+    <t>644720e1e7abb0665474a231</t>
+  </si>
+  <si>
+    <t>646c4cd19e866c1d68eb57d0</t>
+  </si>
+  <si>
+    <t>6452dcfd3879cf70e53ff092</t>
+  </si>
+  <si>
+    <t>6461bbe0e6fcaf3f17fab0b7</t>
+  </si>
+  <si>
+    <t>6473a355426b0f007933dcb3</t>
+  </si>
+  <si>
+    <t>6473a1c6426b0f007933dcb2</t>
+  </si>
+  <si>
+    <t>6472e76b426b0f007933dcb1</t>
+  </si>
+  <si>
+    <t>6473ae92426b0f007933dcbd</t>
+  </si>
+  <si>
+    <t>648ff55b13f51e5a4696f25a</t>
+  </si>
+  <si>
+    <t>6477fc44426b0f007933dcef</t>
+  </si>
+  <si>
+    <t>644065504ac6203737fd6e93</t>
+  </si>
+  <si>
+    <t>64330c6ba90bce6b6c83bae1</t>
+  </si>
+  <si>
+    <t>64619668e6fcaf3f17fab096</t>
+  </si>
+  <si>
+    <t>646199abe6fcaf3f17fab097</t>
+  </si>
+  <si>
+    <t>6471b2b7426b0f007933dc87</t>
+  </si>
+  <si>
+    <t>646986ef9e866c1d68eb5776</t>
+  </si>
+  <si>
+    <t>64484f2ae7abb0665474a247</t>
+  </si>
+  <si>
+    <t>64477c17e7abb0665474a240</t>
+  </si>
+  <si>
+    <t>5608b1e8f89701aedbaebbb2</t>
+  </si>
+  <si>
+    <t>556d067e083cd88a44265da9</t>
+  </si>
+  <si>
+    <t>64a121c4fc95c50bc98dcf75</t>
+  </si>
+  <si>
+    <t>64a122c1fc95c50bc98dcf76</t>
+  </si>
+  <si>
+    <t>6473aa71426b0f007933dcb9</t>
+  </si>
+  <si>
+    <t>646fd41e9e866c1d68eb585a</t>
+  </si>
+  <si>
+    <t>646e2aef9e866c1d68eb5826</t>
+  </si>
+  <si>
+    <t>646d015f9e866c1d68eb57df</t>
+  </si>
+  <si>
+    <t>6463daac6117d262815b1074</t>
+  </si>
+  <si>
+    <t>64a7219afc95c50bc98dcfb1</t>
+  </si>
+  <si>
+    <t>64333382a90bce6b6c83baf3</t>
+  </si>
+  <si>
+    <t>56020f28f58614cf075b771b</t>
+  </si>
+  <si>
+    <t>64488ae0e7abb0665474a254</t>
+  </si>
+  <si>
+    <t>645f044ce6fcaf3f17fab052</t>
+  </si>
+  <si>
+    <t>645f0532e6fcaf3f17fab053</t>
+  </si>
+  <si>
+    <t>645f05d1e6fcaf3f17fab054</t>
+  </si>
+  <si>
+    <t>6445dbfae7abb0665474a21e</t>
+  </si>
+  <si>
+    <t>645bf00be6fcaf3f17faafe1</t>
+  </si>
+  <si>
+    <t>6491f6ee13f51e5a4696f267</t>
+  </si>
+  <si>
+    <t>6491f75d13f51e5a4696f268</t>
+  </si>
+  <si>
+    <t>645effb6e6fcaf3f17fab050</t>
+  </si>
+  <si>
+    <t>6461ab4ee6fcaf3f17fab0a6</t>
+  </si>
+  <si>
+    <t>6461abe1e6fcaf3f17fab0a8</t>
+  </si>
+  <si>
+    <t>6461ac82e6fcaf3f17fab0a9</t>
+  </si>
+  <si>
+    <t>6461ae0de6fcaf3f17fab0aa</t>
+  </si>
+  <si>
+    <t>6473ad20426b0f007933dcbb</t>
+  </si>
+  <si>
+    <t>6472e60f426b0f007933dcaf</t>
+  </si>
+  <si>
+    <t>6472e5b0426b0f007933dcae</t>
+  </si>
+  <si>
+    <t>6472e517426b0f007933dcad</t>
+  </si>
+  <si>
+    <t>6472e492426b0f007933dcac</t>
+  </si>
+  <si>
+    <t>6472e3b1426b0f007933dcab</t>
+  </si>
+  <si>
+    <t>6472e355426b0f007933dcaa</t>
+  </si>
+  <si>
+    <t>6472e2d0426b0f007933dca9</t>
+  </si>
+  <si>
+    <t>6472df3c426b0f007933dca7</t>
+  </si>
+  <si>
+    <t>6472dda3426b0f007933dca6</t>
+  </si>
+  <si>
+    <t>6472dd2c426b0f007933dca5</t>
+  </si>
+  <si>
+    <t>6472dc49426b0f007933dca3</t>
+  </si>
+  <si>
+    <t>6473afb3426b0f007933dcbe</t>
+  </si>
+  <si>
+    <t>LP-01401</t>
+  </si>
+  <si>
+    <t>LP-01402</t>
+  </si>
+  <si>
+    <t>LP-01407</t>
+  </si>
+  <si>
+    <t>LP-01412</t>
+  </si>
+  <si>
+    <t>LP-01415</t>
+  </si>
+  <si>
+    <t>LP-01419</t>
+  </si>
+  <si>
+    <t>LP-01423</t>
+  </si>
+  <si>
+    <t>LP-01431</t>
+  </si>
+  <si>
+    <t>LP-01432</t>
+  </si>
+  <si>
+    <t>LP-01433</t>
+  </si>
+  <si>
+    <t>LP-01436</t>
+  </si>
+  <si>
+    <t>LP-01437</t>
+  </si>
+  <si>
+    <t>LP-01438</t>
+  </si>
+  <si>
+    <t>LP-01439</t>
+  </si>
+  <si>
+    <t>LP-01440</t>
+  </si>
+  <si>
+    <t>LP-01446</t>
+  </si>
+  <si>
+    <t>LP-01447</t>
+  </si>
+  <si>
+    <t>LP-01455</t>
+  </si>
+  <si>
+    <t>LP-01458</t>
+  </si>
+  <si>
+    <t>LP-01460</t>
+  </si>
+  <si>
+    <t>LP-01504</t>
+  </si>
+  <si>
+    <t>LP-01505</t>
+  </si>
+  <si>
+    <t>LP-01506</t>
+  </si>
+  <si>
+    <t>LP-01507</t>
+  </si>
+  <si>
+    <t>LP-01512</t>
+  </si>
+  <si>
+    <t>LP-01516</t>
+  </si>
+  <si>
+    <t>LP-01517</t>
+  </si>
+  <si>
+    <t>LP-01518</t>
+  </si>
+  <si>
+    <t>LP-01519</t>
+  </si>
+  <si>
+    <t>LP-01520</t>
+  </si>
+  <si>
+    <t>LP-01521</t>
+  </si>
+  <si>
+    <t>LP-01523</t>
+  </si>
+  <si>
+    <t>LP-01529</t>
+  </si>
+  <si>
+    <t>LP-01530</t>
+  </si>
+  <si>
+    <t>LP-01533</t>
+  </si>
+  <si>
+    <t>LP-01534</t>
+  </si>
+  <si>
+    <t>LP-01536</t>
+  </si>
+  <si>
+    <t>LP-01537</t>
+  </si>
+  <si>
+    <t>LP-01538</t>
+  </si>
+  <si>
+    <t>LP-01539</t>
+  </si>
+  <si>
+    <t>LP-01540</t>
+  </si>
+  <si>
+    <t>LP-01541</t>
+  </si>
+  <si>
+    <t>LP-01542</t>
+  </si>
+  <si>
+    <t>LP-01545</t>
+  </si>
+  <si>
+    <t>LP-01546</t>
+  </si>
+  <si>
+    <t>LP-01547</t>
+  </si>
+  <si>
+    <t>LP-01552</t>
+  </si>
+  <si>
+    <t>LP-01553</t>
+  </si>
+  <si>
+    <t>LP-01555</t>
+  </si>
+  <si>
+    <t>LP-01556</t>
+  </si>
+  <si>
+    <t>LP-01557</t>
+  </si>
+  <si>
+    <t>LP-01558</t>
+  </si>
+  <si>
+    <t>LP-01561</t>
+  </si>
+  <si>
+    <t>LP-01562</t>
+  </si>
+  <si>
+    <t>LP-01563</t>
+  </si>
+  <si>
+    <t>LP-01564</t>
+  </si>
+  <si>
+    <t>LP-01566</t>
+  </si>
+  <si>
+    <t>LP-01568</t>
+  </si>
+  <si>
+    <t>LP-01571</t>
+  </si>
+  <si>
+    <t>LP-01575</t>
+  </si>
+  <si>
+    <t>LP-01578</t>
+  </si>
+  <si>
+    <t>LP-01581</t>
+  </si>
+  <si>
+    <t>LP-01582</t>
+  </si>
+  <si>
+    <t>LP-01583</t>
+  </si>
+  <si>
+    <t>LP-01585</t>
+  </si>
+  <si>
+    <t>LP-01586</t>
+  </si>
+  <si>
+    <t>LP-01587</t>
+  </si>
+  <si>
+    <t>LP-01616</t>
+  </si>
+  <si>
+    <t>LP-01618</t>
+  </si>
+  <si>
+    <t>LP-01619</t>
+  </si>
+  <si>
+    <t>LP-01620</t>
+  </si>
+  <si>
+    <t>LP-01621</t>
+  </si>
+  <si>
+    <t>LP-01622</t>
+  </si>
+  <si>
+    <t>LP-01623</t>
+  </si>
+  <si>
+    <t>LP-01624</t>
+  </si>
+  <si>
+    <t>LP-01625</t>
+  </si>
+  <si>
+    <t>LP-01627</t>
+  </si>
+  <si>
+    <t>LP-01628</t>
+  </si>
+  <si>
+    <t>LP-01629</t>
+  </si>
+  <si>
+    <t>LP-01630</t>
+  </si>
+  <si>
+    <t>LP-01632</t>
+  </si>
+  <si>
+    <t>LP-01633</t>
+  </si>
+  <si>
+    <t>LP-01634</t>
+  </si>
+  <si>
+    <t>LP-01636</t>
+  </si>
+  <si>
+    <t>LP-01638</t>
+  </si>
+  <si>
+    <t>LP-01639</t>
+  </si>
+  <si>
+    <t>LP-01640</t>
+  </si>
+  <si>
+    <t>LP-01644</t>
+  </si>
+  <si>
+    <t>LP-01645</t>
+  </si>
+  <si>
+    <t>LP-01648</t>
+  </si>
+  <si>
+    <t>LP-01649</t>
+  </si>
+  <si>
+    <t>LP-01650</t>
+  </si>
+  <si>
+    <t>LP-01651</t>
+  </si>
+  <si>
+    <t>LP-01652</t>
+  </si>
+  <si>
+    <t>LP-01653</t>
+  </si>
+  <si>
+    <t>LP-01654</t>
+  </si>
+  <si>
+    <t>LP-01658</t>
+  </si>
+  <si>
+    <t>LP-01659</t>
+  </si>
+  <si>
+    <t>LP-01660</t>
+  </si>
+  <si>
+    <t>LP-01661</t>
+  </si>
+  <si>
+    <t>LP-01664</t>
+  </si>
+  <si>
+    <t>LP-01667</t>
+  </si>
+  <si>
+    <t>LP-01668</t>
+  </si>
+  <si>
+    <t>LP-01669</t>
+  </si>
+  <si>
+    <t>LP-01670</t>
+  </si>
+  <si>
+    <t>LP-01672</t>
+  </si>
+  <si>
+    <t>LP-01673</t>
+  </si>
+  <si>
+    <t>LP-01674</t>
+  </si>
+  <si>
+    <t>LP-01675</t>
+  </si>
+  <si>
+    <t>LP-01676</t>
+  </si>
+  <si>
+    <t>LP-01677</t>
+  </si>
+  <si>
+    <t>LP-01678</t>
+  </si>
+  <si>
+    <t>LP-01679</t>
+  </si>
+  <si>
+    <t>LP-01680</t>
+  </si>
+  <si>
+    <t>LP-01681</t>
+  </si>
+  <si>
+    <t>LP-01682</t>
+  </si>
+  <si>
+    <t>LP-01683</t>
+  </si>
+  <si>
+    <t>LP-01684</t>
+  </si>
+  <si>
+    <t>LP-01685</t>
+  </si>
+  <si>
+    <t>LP-01686</t>
+  </si>
+  <si>
+    <t>LP-01687</t>
+  </si>
+  <si>
+    <t>LP-01689</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1729,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -1017,7 +1743,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="4" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1358,10 +2086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8DF20D-43B8-4F50-BD73-629D07637EE7}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,576 +2116,1710 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
         <v>203</v>
       </c>
       <c r="C2" s="8">
-        <v>29620</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>204</v>
+        <v>31818</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
         <v>203</v>
       </c>
       <c r="C3" s="8">
-        <v>29620</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>205</v>
+        <v>31818</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
         <v>203</v>
       </c>
       <c r="C4" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>206</v>
+        <v>31818</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>207</v>
+        <v>31237</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
         <v>203</v>
       </c>
       <c r="C6" s="8">
-        <v>29809</v>
+        <v>31489</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
         <v>203</v>
       </c>
       <c r="C7" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>209</v>
+        <v>31489</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
         <v>203</v>
       </c>
       <c r="C8" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>210</v>
+        <v>32189</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>203</v>
       </c>
       <c r="C9" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>211</v>
+        <v>31489</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
         <v>203</v>
       </c>
       <c r="C10" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>212</v>
+        <v>31489</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
         <v>203</v>
       </c>
       <c r="C11" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>213</v>
+        <v>31489</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
         <v>203</v>
       </c>
       <c r="C12" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>214</v>
+        <v>31608</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s">
         <v>203</v>
       </c>
       <c r="C13" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>215</v>
+        <v>30971</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s">
         <v>203</v>
       </c>
       <c r="C14" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>216</v>
+        <v>31237</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>258</v>
+        <v>420</v>
       </c>
       <c r="B15" t="s">
         <v>203</v>
       </c>
       <c r="C15" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>217</v>
+        <v>31692</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>259</v>
+        <v>421</v>
       </c>
       <c r="B16" t="s">
         <v>203</v>
       </c>
       <c r="C16" s="8">
-        <v>29809</v>
+        <v>31818</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>218</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>422</v>
       </c>
       <c r="B17" t="s">
         <v>203</v>
       </c>
       <c r="C17" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>219</v>
+        <v>31160</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s">
         <v>203</v>
       </c>
       <c r="C18" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>220</v>
+        <v>31160</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>424</v>
       </c>
       <c r="B19" t="s">
         <v>203</v>
       </c>
       <c r="C19" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>221</v>
+        <v>30936</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>425</v>
       </c>
       <c r="B20" t="s">
         <v>203</v>
       </c>
       <c r="C20" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>222</v>
+        <v>31118</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>426</v>
       </c>
       <c r="B21" t="s">
         <v>203</v>
       </c>
       <c r="C21" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>223</v>
+        <v>31489</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>265</v>
+        <v>427</v>
       </c>
       <c r="B22" t="s">
         <v>203</v>
       </c>
       <c r="C22" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>224</v>
+        <v>42717</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>266</v>
+        <v>428</v>
       </c>
       <c r="B23" t="s">
         <v>203</v>
       </c>
       <c r="C23" s="8">
-        <v>29809</v>
+        <v>31692</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>267</v>
+        <v>429</v>
       </c>
       <c r="B24" t="s">
         <v>203</v>
       </c>
       <c r="C24" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>226</v>
+        <v>30936</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>268</v>
+        <v>430</v>
       </c>
       <c r="B25" t="s">
         <v>203</v>
       </c>
       <c r="C25" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>227</v>
+        <v>31818</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>269</v>
+        <v>431</v>
       </c>
       <c r="B26" t="s">
         <v>203</v>
       </c>
       <c r="C26" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>228</v>
+        <v>31818</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>270</v>
+        <v>432</v>
       </c>
       <c r="B27" t="s">
         <v>203</v>
       </c>
       <c r="C27" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>229</v>
+        <v>31237</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>271</v>
+        <v>433</v>
       </c>
       <c r="B28" t="s">
         <v>203</v>
       </c>
       <c r="C28" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>230</v>
+        <v>31237</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>272</v>
+        <v>434</v>
       </c>
       <c r="B29" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>231</v>
+        <v>32210</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>273</v>
+        <v>435</v>
       </c>
       <c r="B30" t="s">
         <v>203</v>
       </c>
       <c r="C30" s="8">
-        <v>29809</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>232</v>
+        <v>31867</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>274</v>
+        <v>436</v>
       </c>
       <c r="B31" t="s">
         <v>203</v>
       </c>
       <c r="C31" s="8">
-        <v>29809</v>
+        <v>32035</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>233</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>275</v>
+        <v>437</v>
       </c>
       <c r="B32" t="s">
         <v>203</v>
       </c>
       <c r="C32" s="8">
-        <v>29809</v>
+        <v>31237</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>276</v>
+        <v>438</v>
       </c>
       <c r="B33" t="s">
         <v>203</v>
       </c>
       <c r="C33" s="8">
-        <v>29823</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>235</v>
+        <v>31036</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>277</v>
+        <v>439</v>
       </c>
       <c r="B34" t="s">
         <v>203</v>
       </c>
       <c r="C34" s="8">
-        <v>29823</v>
+        <v>31237</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>236</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>278</v>
+        <v>440</v>
       </c>
       <c r="B35" t="s">
         <v>203</v>
       </c>
       <c r="C35" s="8">
-        <v>29823</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>237</v>
+        <v>32672</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>279</v>
+        <v>441</v>
       </c>
       <c r="B36" t="s">
         <v>203</v>
       </c>
       <c r="C36" s="8">
-        <v>29823</v>
+        <v>31076</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>238</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>280</v>
+        <v>442</v>
       </c>
       <c r="B37" t="s">
         <v>203</v>
       </c>
       <c r="C37" s="8">
-        <v>29823</v>
+        <v>31076</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>239</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>281</v>
+        <v>443</v>
       </c>
       <c r="B38" t="s">
         <v>203</v>
       </c>
       <c r="C38" s="8">
-        <v>29823</v>
+        <v>32336</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>282</v>
+        <v>444</v>
       </c>
       <c r="B39" t="s">
         <v>203</v>
       </c>
       <c r="C39" s="8">
-        <v>29823</v>
+        <v>32336</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>241</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>445</v>
       </c>
       <c r="B40" t="s">
         <v>203</v>
       </c>
       <c r="C40" s="8">
-        <v>29732</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>242</v>
+        <v>32336</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>284</v>
+        <v>446</v>
       </c>
       <c r="B41" t="s">
         <v>203</v>
       </c>
       <c r="C41" s="8">
-        <v>29823</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>243</v>
+        <v>31692</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="B42" t="s">
         <v>203</v>
       </c>
       <c r="C42" s="8">
-        <v>30495</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>244</v>
+        <v>32392</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>448</v>
+      </c>
+      <c r="B43" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="8">
+        <v>32392</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>449</v>
+      </c>
+      <c r="B44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="8">
+        <v>32490</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>450</v>
+      </c>
+      <c r="B45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="8">
+        <v>33148</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>451</v>
+      </c>
+      <c r="B46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="8">
+        <v>32434</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>452</v>
+      </c>
+      <c r="B47" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="8">
+        <v>32035</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>453</v>
+      </c>
+      <c r="B48" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="8">
+        <v>32448</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>454</v>
+      </c>
+      <c r="B49" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="8">
+        <v>32049</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>455</v>
+      </c>
+      <c r="B50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="8">
+        <v>32490</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>456</v>
+      </c>
+      <c r="B51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="8">
+        <v>32434</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>457</v>
+      </c>
+      <c r="B52" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="8">
+        <v>32301</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>458</v>
+      </c>
+      <c r="B53" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="8">
+        <v>32301</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>459</v>
+      </c>
+      <c r="B54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="8">
+        <v>32434</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>460</v>
+      </c>
+      <c r="B55" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="8">
+        <v>32861</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>461</v>
+      </c>
+      <c r="B56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="8">
+        <v>32749</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>462</v>
+      </c>
+      <c r="B57" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="8">
+        <v>32749</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B58" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="8">
+        <v>32448</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>464</v>
+      </c>
+      <c r="B59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="8">
+        <v>31363</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>465</v>
+      </c>
+      <c r="B60" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="8">
+        <v>32189</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>466</v>
+      </c>
+      <c r="B61" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="8">
+        <v>32665</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>467</v>
+      </c>
+      <c r="B62" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="8">
+        <v>32700</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>468</v>
+      </c>
+      <c r="B63" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="8">
+        <v>32994</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>469</v>
+      </c>
+      <c r="B64" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="8">
+        <v>32994</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>470</v>
+      </c>
+      <c r="B65" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="8">
+        <v>32994</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>471</v>
+      </c>
+      <c r="B66" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" s="8">
+        <v>32994</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>472</v>
+      </c>
+      <c r="B67" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="8">
+        <v>32994</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>473</v>
+      </c>
+      <c r="B68" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="8">
+        <v>32994</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>474</v>
+      </c>
+      <c r="B69" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="8">
+        <v>32749</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>475</v>
+      </c>
+      <c r="B70" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="8">
+        <v>33288</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>476</v>
+      </c>
+      <c r="B71" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" s="8">
+        <v>33099</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>477</v>
+      </c>
+      <c r="B72" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="8">
+        <v>33099</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>478</v>
+      </c>
+      <c r="B73" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" s="8">
+        <v>33099</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>479</v>
+      </c>
+      <c r="B74" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="8">
+        <v>33099</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>480</v>
+      </c>
+      <c r="B75" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" s="8">
+        <v>32210</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>481</v>
+      </c>
+      <c r="B76" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" s="8">
+        <v>32189</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>482</v>
+      </c>
+      <c r="B77" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" s="8">
+        <v>32189</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>483</v>
+      </c>
+      <c r="B78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="8">
+        <v>32224</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>484</v>
+      </c>
+      <c r="B79" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" s="8">
+        <v>33218</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>485</v>
+      </c>
+      <c r="B80" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" s="8">
+        <v>33617</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>486</v>
+      </c>
+      <c r="B81" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" s="8">
+        <v>32301</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>487</v>
+      </c>
+      <c r="B82" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="8">
+        <v>33148</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>488</v>
+      </c>
+      <c r="B83" t="s">
+        <v>203</v>
+      </c>
+      <c r="C83" s="8">
+        <v>32301</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>489</v>
+      </c>
+      <c r="B84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" s="8">
+        <v>32302</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>490</v>
+      </c>
+      <c r="B85" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" s="8">
+        <v>32336</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>491</v>
+      </c>
+      <c r="B86" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="8">
+        <v>32651</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>492</v>
+      </c>
+      <c r="B87" t="s">
+        <v>203</v>
+      </c>
+      <c r="C87" s="8">
+        <v>32056</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>493</v>
+      </c>
+      <c r="B88" t="s">
+        <v>203</v>
+      </c>
+      <c r="C88" s="8">
+        <v>32056</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>494</v>
+      </c>
+      <c r="B89" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="8">
+        <v>32091</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>495</v>
+      </c>
+      <c r="B90" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" s="8">
+        <v>32091</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>496</v>
+      </c>
+      <c r="B91" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" s="8">
+        <v>32721</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>497</v>
+      </c>
+      <c r="B92" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" s="8">
+        <v>32749</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>498</v>
+      </c>
+      <c r="B93" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" s="8">
+        <v>32749</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>499</v>
+      </c>
+      <c r="B94" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" s="8">
+        <v>32224</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>500</v>
+      </c>
+      <c r="B95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="8">
+        <v>32588</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>501</v>
+      </c>
+      <c r="B96" t="s">
+        <v>203</v>
+      </c>
+      <c r="C96" s="8">
+        <v>42472</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>502</v>
+      </c>
+      <c r="B97" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" s="8">
+        <v>33372</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>503</v>
+      </c>
+      <c r="B98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" s="8">
+        <v>33099</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>504</v>
+      </c>
+      <c r="B99" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" s="8">
+        <v>32721</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>505</v>
+      </c>
+      <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" s="8">
+        <v>33148</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>506</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="8">
+        <v>32847</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>507</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" s="8">
+        <v>32784</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>508</v>
+      </c>
+      <c r="B103" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="8">
+        <v>32378</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>509</v>
+      </c>
+      <c r="B104" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" s="8">
+        <v>32700</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>510</v>
+      </c>
+      <c r="B105" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105" s="8">
+        <v>32700</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>511</v>
+      </c>
+      <c r="B106" t="s">
+        <v>203</v>
+      </c>
+      <c r="C106" s="8">
+        <v>32721</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>512</v>
+      </c>
+      <c r="B107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" s="8">
+        <v>33344</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>513</v>
+      </c>
+      <c r="B108" t="s">
+        <v>203</v>
+      </c>
+      <c r="C108" s="8">
+        <v>33344</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>514</v>
+      </c>
+      <c r="B109" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" s="8">
+        <v>33344</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>515</v>
+      </c>
+      <c r="B110" t="s">
+        <v>203</v>
+      </c>
+      <c r="C110" s="8">
+        <v>33344</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>516</v>
+      </c>
+      <c r="B111" t="s">
+        <v>203</v>
+      </c>
+      <c r="C111" s="8">
+        <v>33344</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>517</v>
+      </c>
+      <c r="B112" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" s="8">
+        <v>33344</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>518</v>
+      </c>
+      <c r="B113" t="s">
+        <v>203</v>
+      </c>
+      <c r="C113" s="8">
+        <v>33344</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>519</v>
+      </c>
+      <c r="B114" t="s">
+        <v>203</v>
+      </c>
+      <c r="C114" s="8">
+        <v>33344</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>520</v>
+      </c>
+      <c r="B115" t="s">
+        <v>203</v>
+      </c>
+      <c r="C115" s="8">
+        <v>33344</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>521</v>
+      </c>
+      <c r="B116" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" s="8">
+        <v>33344</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>522</v>
+      </c>
+      <c r="B117" t="s">
+        <v>203</v>
+      </c>
+      <c r="C117" s="8">
+        <v>33344</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>523</v>
+      </c>
+      <c r="B118" t="s">
+        <v>203</v>
+      </c>
+      <c r="C118" s="8">
+        <v>33344</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>524</v>
+      </c>
+      <c r="B119" t="s">
+        <v>203</v>
+      </c>
+      <c r="C119" s="8">
+        <v>33344</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>525</v>
+      </c>
+      <c r="B120" t="s">
+        <v>203</v>
+      </c>
+      <c r="C120" s="8">
+        <v>33344</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>526</v>
+      </c>
+      <c r="B121" t="s">
+        <v>203</v>
+      </c>
+      <c r="C121" s="8">
+        <v>33344</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>527</v>
+      </c>
+      <c r="B122" t="s">
+        <v>203</v>
+      </c>
+      <c r="C122" s="8">
+        <v>33344</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>528</v>
+      </c>
+      <c r="B123" t="s">
+        <v>203</v>
+      </c>
+      <c r="C123" s="8">
+        <v>33288</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +3882,7 @@
       <c r="F139" s="8">
         <v>29809</v>
       </c>
-      <c r="G139" s="13" t="s">
+      <c r="G139" s="14" t="s">
         <v>206</v>
       </c>
     </row>

--- a/data/raw/Location-Import.xlsx
+++ b/data/raw/Location-Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69453030-7DDF-4917-9265-67D66DD45057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A7E85B-E218-466A-8C3F-30FEF08F1BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="1905" windowWidth="32475" windowHeight="16875" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
+    <workbookView xWindow="24450" yWindow="3390" windowWidth="32475" windowHeight="16875" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
   </bookViews>
   <sheets>
     <sheet name="Landmark" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="636">
   <si>
     <t>BoroughCode</t>
   </si>
@@ -898,740 +898,1061 @@
     <t>LP-01194</t>
   </si>
   <si>
-    <t>64a71f99fc95c50bc98dcfaf</t>
-  </si>
-  <si>
-    <t>6483595e3ee0be6578226173</t>
-  </si>
-  <si>
-    <t>64a7205afc95c50bc98dcfb0</t>
-  </si>
-  <si>
-    <t>64488bd5e7abb0665474a255</t>
-  </si>
-  <si>
-    <t>6448b237e7abb0665474a261</t>
-  </si>
-  <si>
-    <t>643a0e624ac6203737fd6e3a</t>
-  </si>
-  <si>
-    <t>647d5b55426b0f007933de0f</t>
-  </si>
-  <si>
-    <t>6455b3a64673c82a34f4ecc6</t>
-  </si>
-  <si>
-    <t>6455b2aa4673c82a34f4ecc5</t>
-  </si>
-  <si>
-    <t>6455b49f4673c82a34f4ecc7</t>
-  </si>
-  <si>
-    <t>64a596effc95c50bc98dcfa2</t>
-  </si>
-  <si>
-    <t>55fa102bf58614cf075b768b</t>
-  </si>
-  <si>
-    <t>64420d5394494a7b43e48345</t>
-  </si>
-  <si>
-    <t>64570add4673c82a34f4ece0</t>
-  </si>
-  <si>
-    <t>646c195a9e866c1d68eb57af</t>
-  </si>
-  <si>
-    <t>643a0f2b4ac6203737fd6e3b</t>
-  </si>
-  <si>
-    <t>645bee96e6fcaf3f17faafdf</t>
-  </si>
-  <si>
-    <t>648b5d1f7c55b27c2c70802d</t>
-  </si>
-  <si>
-    <t>6463489f6117d262815b1067</t>
-  </si>
-  <si>
-    <t>6440b83e4ac6203737fd6e98</t>
-  </si>
-  <si>
-    <t>6470d3579e866c1d68eb5878</t>
-  </si>
-  <si>
-    <t>6482016dc57c9f5a476e2bd6</t>
-  </si>
-  <si>
-    <t>6448a7aae7abb0665474a25a</t>
-  </si>
-  <si>
-    <t>64484b50e7abb0665474a243</t>
-  </si>
-  <si>
-    <t>6457048d4673c82a34f4ecdd</t>
-  </si>
-  <si>
-    <t>64827cdcc57c9f5a476e2c0a</t>
-  </si>
-  <si>
-    <t>645efbc1e6fcaf3f17fab04b</t>
-  </si>
-  <si>
-    <t>646336016117d262815b1061</t>
-  </si>
-  <si>
-    <t>64330af0a90bce6b6c83badf</t>
-  </si>
-  <si>
-    <t>64342572a90bce6b6c83bb1c</t>
-  </si>
-  <si>
-    <t>646353eb6117d262815b1072</t>
-  </si>
-  <si>
-    <t>645be772e6fcaf3f17faafd2</t>
-  </si>
-  <si>
-    <t>55f26488f58614cf075b75f8</t>
-  </si>
-  <si>
-    <t>55f701a4f58614cf075b7635</t>
-  </si>
-  <si>
-    <t>645bec21e6fcaf3f17faafda</t>
-  </si>
-  <si>
-    <t>645b14c44673c82a34f4ed7b</t>
-  </si>
-  <si>
-    <t>6445dacde7abb0665474a21d</t>
-  </si>
-  <si>
-    <t>6446e3c6e7abb0665474a223</t>
-  </si>
-  <si>
-    <t>64471fa9e7abb0665474a230</t>
-  </si>
-  <si>
-    <t>561dd2a1f89701aedbaebc8c</t>
-  </si>
-  <si>
-    <t>64697c2a9e866c1d68eb5770</t>
-  </si>
-  <si>
-    <t>6446e215e7abb0665474a222</t>
-  </si>
-  <si>
-    <t>646813a09e866c1d68eb5709</t>
-  </si>
-  <si>
-    <t>6451d7be3879cf70e53ff078</t>
-  </si>
-  <si>
-    <t>644f2fed3879cf70e53ff039</t>
-  </si>
-  <si>
-    <t>6448bc7de7abb0665474a263</t>
-  </si>
-  <si>
-    <t>645be81ae6fcaf3f17faafd3</t>
-  </si>
-  <si>
-    <t>645711d94673c82a34f4ece1</t>
-  </si>
-  <si>
-    <t>647d20e4426b0f007933ddfc</t>
-  </si>
-  <si>
-    <t>6449859be7abb0665474a280</t>
-  </si>
-  <si>
-    <t>644b1d58e7abb0665474a294</t>
-  </si>
-  <si>
-    <t>646facda9e866c1d68eb5845</t>
-  </si>
-  <si>
-    <t>646832ed9e866c1d68eb570d</t>
-  </si>
-  <si>
-    <t>64496b72e7abb0665474a272</t>
-  </si>
-  <si>
-    <t>6451d8543879cf70e53ff079</t>
-  </si>
-  <si>
-    <t>645bee00e6fcaf3f17faafde</t>
-  </si>
-  <si>
-    <t>6448b139e7abb0665474a260</t>
-  </si>
-  <si>
-    <t>6461b9f4e6fcaf3f17fab0b5</t>
-  </si>
-  <si>
-    <t>645b18344673c82a34f4ed81</t>
-  </si>
-  <si>
-    <t>648000a0426b0f007933de3e</t>
-  </si>
-  <si>
-    <t>6472a9ca426b0f007933dca0</t>
-  </si>
-  <si>
-    <t>646c4a209e866c1d68eb57cb</t>
-  </si>
-  <si>
-    <t>646c4b1d9e866c1d68eb57cd</t>
-  </si>
-  <si>
-    <t>646c4ba09e866c1d68eb57ce</t>
-  </si>
-  <si>
-    <t>646c4c3e9e866c1d68eb57cf</t>
-  </si>
-  <si>
-    <t>644720e1e7abb0665474a231</t>
-  </si>
-  <si>
-    <t>646c4cd19e866c1d68eb57d0</t>
-  </si>
-  <si>
-    <t>6452dcfd3879cf70e53ff092</t>
-  </si>
-  <si>
-    <t>6461bbe0e6fcaf3f17fab0b7</t>
-  </si>
-  <si>
-    <t>6473a355426b0f007933dcb3</t>
-  </si>
-  <si>
-    <t>6473a1c6426b0f007933dcb2</t>
-  </si>
-  <si>
-    <t>6472e76b426b0f007933dcb1</t>
-  </si>
-  <si>
-    <t>6473ae92426b0f007933dcbd</t>
-  </si>
-  <si>
-    <t>648ff55b13f51e5a4696f25a</t>
-  </si>
-  <si>
-    <t>6477fc44426b0f007933dcef</t>
-  </si>
-  <si>
-    <t>644065504ac6203737fd6e93</t>
-  </si>
-  <si>
-    <t>64330c6ba90bce6b6c83bae1</t>
-  </si>
-  <si>
-    <t>64619668e6fcaf3f17fab096</t>
-  </si>
-  <si>
-    <t>646199abe6fcaf3f17fab097</t>
-  </si>
-  <si>
-    <t>6471b2b7426b0f007933dc87</t>
-  </si>
-  <si>
-    <t>646986ef9e866c1d68eb5776</t>
-  </si>
-  <si>
-    <t>64484f2ae7abb0665474a247</t>
-  </si>
-  <si>
-    <t>64477c17e7abb0665474a240</t>
-  </si>
-  <si>
-    <t>5608b1e8f89701aedbaebbb2</t>
-  </si>
-  <si>
-    <t>556d067e083cd88a44265da9</t>
-  </si>
-  <si>
-    <t>64a121c4fc95c50bc98dcf75</t>
-  </si>
-  <si>
-    <t>64a122c1fc95c50bc98dcf76</t>
-  </si>
-  <si>
-    <t>6473aa71426b0f007933dcb9</t>
-  </si>
-  <si>
-    <t>646fd41e9e866c1d68eb585a</t>
-  </si>
-  <si>
-    <t>646e2aef9e866c1d68eb5826</t>
-  </si>
-  <si>
-    <t>646d015f9e866c1d68eb57df</t>
-  </si>
-  <si>
-    <t>6463daac6117d262815b1074</t>
-  </si>
-  <si>
-    <t>64a7219afc95c50bc98dcfb1</t>
-  </si>
-  <si>
-    <t>64333382a90bce6b6c83baf3</t>
-  </si>
-  <si>
-    <t>56020f28f58614cf075b771b</t>
-  </si>
-  <si>
-    <t>64488ae0e7abb0665474a254</t>
-  </si>
-  <si>
-    <t>645f044ce6fcaf3f17fab052</t>
-  </si>
-  <si>
-    <t>645f0532e6fcaf3f17fab053</t>
-  </si>
-  <si>
-    <t>645f05d1e6fcaf3f17fab054</t>
-  </si>
-  <si>
-    <t>6445dbfae7abb0665474a21e</t>
-  </si>
-  <si>
-    <t>645bf00be6fcaf3f17faafe1</t>
-  </si>
-  <si>
-    <t>6491f6ee13f51e5a4696f267</t>
-  </si>
-  <si>
-    <t>6491f75d13f51e5a4696f268</t>
-  </si>
-  <si>
-    <t>645effb6e6fcaf3f17fab050</t>
-  </si>
-  <si>
-    <t>6461ab4ee6fcaf3f17fab0a6</t>
-  </si>
-  <si>
-    <t>6461abe1e6fcaf3f17fab0a8</t>
-  </si>
-  <si>
-    <t>6461ac82e6fcaf3f17fab0a9</t>
-  </si>
-  <si>
-    <t>6461ae0de6fcaf3f17fab0aa</t>
-  </si>
-  <si>
-    <t>6473ad20426b0f007933dcbb</t>
-  </si>
-  <si>
-    <t>6472e60f426b0f007933dcaf</t>
-  </si>
-  <si>
-    <t>6472e5b0426b0f007933dcae</t>
-  </si>
-  <si>
-    <t>6472e517426b0f007933dcad</t>
-  </si>
-  <si>
-    <t>6472e492426b0f007933dcac</t>
-  </si>
-  <si>
-    <t>6472e3b1426b0f007933dcab</t>
-  </si>
-  <si>
-    <t>6472e355426b0f007933dcaa</t>
-  </si>
-  <si>
-    <t>6472e2d0426b0f007933dca9</t>
-  </si>
-  <si>
-    <t>6472df3c426b0f007933dca7</t>
-  </si>
-  <si>
-    <t>6472dda3426b0f007933dca6</t>
-  </si>
-  <si>
-    <t>6472dd2c426b0f007933dca5</t>
-  </si>
-  <si>
-    <t>6472dc49426b0f007933dca3</t>
-  </si>
-  <si>
-    <t>6473afb3426b0f007933dcbe</t>
-  </si>
-  <si>
-    <t>LP-01401</t>
-  </si>
-  <si>
-    <t>LP-01402</t>
-  </si>
-  <si>
-    <t>LP-01407</t>
-  </si>
-  <si>
-    <t>LP-01412</t>
-  </si>
-  <si>
-    <t>LP-01415</t>
-  </si>
-  <si>
-    <t>LP-01419</t>
-  </si>
-  <si>
-    <t>LP-01423</t>
-  </si>
-  <si>
-    <t>LP-01431</t>
-  </si>
-  <si>
-    <t>LP-01432</t>
-  </si>
-  <si>
-    <t>LP-01433</t>
-  </si>
-  <si>
-    <t>LP-01436</t>
-  </si>
-  <si>
-    <t>LP-01437</t>
-  </si>
-  <si>
-    <t>LP-01438</t>
-  </si>
-  <si>
-    <t>LP-01439</t>
-  </si>
-  <si>
-    <t>LP-01440</t>
-  </si>
-  <si>
-    <t>LP-01446</t>
-  </si>
-  <si>
-    <t>LP-01447</t>
-  </si>
-  <si>
-    <t>LP-01455</t>
-  </si>
-  <si>
-    <t>LP-01458</t>
-  </si>
-  <si>
-    <t>LP-01460</t>
-  </si>
-  <si>
-    <t>LP-01504</t>
-  </si>
-  <si>
-    <t>LP-01505</t>
-  </si>
-  <si>
-    <t>LP-01506</t>
-  </si>
-  <si>
-    <t>LP-01507</t>
-  </si>
-  <si>
-    <t>LP-01512</t>
-  </si>
-  <si>
-    <t>LP-01516</t>
-  </si>
-  <si>
-    <t>LP-01517</t>
-  </si>
-  <si>
-    <t>LP-01518</t>
-  </si>
-  <si>
-    <t>LP-01519</t>
-  </si>
-  <si>
-    <t>LP-01520</t>
-  </si>
-  <si>
-    <t>LP-01521</t>
-  </si>
-  <si>
-    <t>LP-01523</t>
-  </si>
-  <si>
-    <t>LP-01529</t>
-  </si>
-  <si>
-    <t>LP-01530</t>
-  </si>
-  <si>
-    <t>LP-01533</t>
-  </si>
-  <si>
-    <t>LP-01534</t>
-  </si>
-  <si>
-    <t>LP-01536</t>
-  </si>
-  <si>
-    <t>LP-01537</t>
-  </si>
-  <si>
-    <t>LP-01538</t>
-  </si>
-  <si>
-    <t>LP-01539</t>
-  </si>
-  <si>
-    <t>LP-01540</t>
-  </si>
-  <si>
-    <t>LP-01541</t>
-  </si>
-  <si>
-    <t>LP-01542</t>
-  </si>
-  <si>
-    <t>LP-01545</t>
-  </si>
-  <si>
-    <t>LP-01546</t>
-  </si>
-  <si>
-    <t>LP-01547</t>
-  </si>
-  <si>
-    <t>LP-01552</t>
-  </si>
-  <si>
-    <t>LP-01553</t>
-  </si>
-  <si>
-    <t>LP-01555</t>
-  </si>
-  <si>
-    <t>LP-01556</t>
-  </si>
-  <si>
-    <t>LP-01557</t>
-  </si>
-  <si>
-    <t>LP-01558</t>
-  </si>
-  <si>
-    <t>LP-01561</t>
-  </si>
-  <si>
-    <t>LP-01562</t>
-  </si>
-  <si>
-    <t>LP-01563</t>
-  </si>
-  <si>
-    <t>LP-01564</t>
-  </si>
-  <si>
-    <t>LP-01566</t>
-  </si>
-  <si>
-    <t>LP-01568</t>
-  </si>
-  <si>
-    <t>LP-01571</t>
-  </si>
-  <si>
-    <t>LP-01575</t>
-  </si>
-  <si>
-    <t>LP-01578</t>
-  </si>
-  <si>
-    <t>LP-01581</t>
-  </si>
-  <si>
-    <t>LP-01582</t>
-  </si>
-  <si>
-    <t>LP-01583</t>
-  </si>
-  <si>
-    <t>LP-01585</t>
-  </si>
-  <si>
-    <t>LP-01586</t>
-  </si>
-  <si>
-    <t>LP-01587</t>
-  </si>
-  <si>
-    <t>LP-01616</t>
-  </si>
-  <si>
-    <t>LP-01618</t>
-  </si>
-  <si>
-    <t>LP-01619</t>
-  </si>
-  <si>
-    <t>LP-01620</t>
-  </si>
-  <si>
-    <t>LP-01621</t>
-  </si>
-  <si>
-    <t>LP-01622</t>
-  </si>
-  <si>
-    <t>LP-01623</t>
-  </si>
-  <si>
-    <t>LP-01624</t>
-  </si>
-  <si>
-    <t>LP-01625</t>
-  </si>
-  <si>
-    <t>LP-01627</t>
-  </si>
-  <si>
-    <t>LP-01628</t>
-  </si>
-  <si>
-    <t>LP-01629</t>
-  </si>
-  <si>
-    <t>LP-01630</t>
-  </si>
-  <si>
-    <t>LP-01632</t>
-  </si>
-  <si>
-    <t>LP-01633</t>
-  </si>
-  <si>
-    <t>LP-01634</t>
-  </si>
-  <si>
-    <t>LP-01636</t>
-  </si>
-  <si>
-    <t>LP-01638</t>
-  </si>
-  <si>
-    <t>LP-01639</t>
-  </si>
-  <si>
-    <t>LP-01640</t>
-  </si>
-  <si>
-    <t>LP-01644</t>
-  </si>
-  <si>
-    <t>LP-01645</t>
-  </si>
-  <si>
-    <t>LP-01648</t>
-  </si>
-  <si>
-    <t>LP-01649</t>
-  </si>
-  <si>
-    <t>LP-01650</t>
-  </si>
-  <si>
-    <t>LP-01651</t>
-  </si>
-  <si>
-    <t>LP-01652</t>
-  </si>
-  <si>
-    <t>LP-01653</t>
-  </si>
-  <si>
-    <t>LP-01654</t>
-  </si>
-  <si>
-    <t>LP-01658</t>
-  </si>
-  <si>
-    <t>LP-01659</t>
-  </si>
-  <si>
-    <t>LP-01660</t>
-  </si>
-  <si>
-    <t>LP-01661</t>
-  </si>
-  <si>
-    <t>LP-01664</t>
-  </si>
-  <si>
-    <t>LP-01667</t>
-  </si>
-  <si>
-    <t>LP-01668</t>
-  </si>
-  <si>
-    <t>LP-01669</t>
-  </si>
-  <si>
-    <t>LP-01670</t>
-  </si>
-  <si>
-    <t>LP-01672</t>
-  </si>
-  <si>
-    <t>LP-01673</t>
-  </si>
-  <si>
-    <t>LP-01674</t>
-  </si>
-  <si>
-    <t>LP-01675</t>
-  </si>
-  <si>
-    <t>LP-01676</t>
-  </si>
-  <si>
-    <t>LP-01677</t>
-  </si>
-  <si>
-    <t>LP-01678</t>
-  </si>
-  <si>
-    <t>LP-01679</t>
-  </si>
-  <si>
-    <t>LP-01680</t>
-  </si>
-  <si>
-    <t>LP-01681</t>
-  </si>
-  <si>
-    <t>LP-01682</t>
-  </si>
-  <si>
-    <t>LP-01683</t>
-  </si>
-  <si>
-    <t>LP-01684</t>
-  </si>
-  <si>
-    <t>LP-01685</t>
-  </si>
-  <si>
-    <t>LP-01686</t>
-  </si>
-  <si>
-    <t>LP-01687</t>
-  </si>
-  <si>
-    <t>LP-01689</t>
+    <t>6451daad3879cf70e53ff07d</t>
+  </si>
+  <si>
+    <t>560dd46ef89701aedbaebbf2</t>
+  </si>
+  <si>
+    <t>64876a723ee0be65782261a2</t>
+  </si>
+  <si>
+    <t>644592b4e7abb0665474a217</t>
+  </si>
+  <si>
+    <t>648677a63ee0be657822618d</t>
+  </si>
+  <si>
+    <t>648a89d57c55b27c2c708023</t>
+  </si>
+  <si>
+    <t>645bf5b4e6fcaf3f17faafe6</t>
+  </si>
+  <si>
+    <t>645bea9fe6fcaf3f17faafd7</t>
+  </si>
+  <si>
+    <t>645b154d4673c82a34f4ed7c</t>
+  </si>
+  <si>
+    <t>645bd9abe6fcaf3f17faafbc</t>
+  </si>
+  <si>
+    <t>6487fcf73ee0be65782261b9</t>
+  </si>
+  <si>
+    <t>643eb2154ac6203737fd6e6f</t>
+  </si>
+  <si>
+    <t>6470d1da9e866c1d68eb5877</t>
+  </si>
+  <si>
+    <t>64c43b1354ab1c604a34d33d</t>
+  </si>
+  <si>
+    <t>64457fa9e7abb0665474a214</t>
+  </si>
+  <si>
+    <t>6462ba7ae6fcaf3f17fab0c4</t>
+  </si>
+  <si>
+    <t>644b4b723879cf70e53ff009</t>
+  </si>
+  <si>
+    <t>646ee8c99e866c1d68eb5840</t>
+  </si>
+  <si>
+    <t>648fef3913f51e5a4696f256</t>
+  </si>
+  <si>
+    <t>64342721a90bce6b6c83bb1f</t>
+  </si>
+  <si>
+    <t>6450bd673879cf70e53ff040</t>
+  </si>
+  <si>
+    <t>646e32299e866c1d68eb5830</t>
+  </si>
+  <si>
+    <t>646da0d99e866c1d68eb5821</t>
+  </si>
+  <si>
+    <t>646da16b9e866c1d68eb5822</t>
+  </si>
+  <si>
+    <t>646da1d09e866c1d68eb5823</t>
+  </si>
+  <si>
+    <t>646c22ed9e866c1d68eb57b3</t>
+  </si>
+  <si>
+    <t>6497c2c3d4762e2149e238bb</t>
+  </si>
+  <si>
+    <t>645836e44673c82a34f4ecf1</t>
+  </si>
+  <si>
+    <t>646192eae6fcaf3f17fab093</t>
+  </si>
+  <si>
+    <t>648fae4713f51e5a4696f238</t>
+  </si>
+  <si>
+    <t>6451f9f73879cf70e53ff089</t>
+  </si>
+  <si>
+    <t>646fd2ad9e866c1d68eb5858</t>
+  </si>
+  <si>
+    <t>5600baa0f58614cf075b7703</t>
+  </si>
+  <si>
+    <t>649a5b17d4762e2149e238de</t>
+  </si>
+  <si>
+    <t>649a5cdcd4762e2149e238e0</t>
+  </si>
+  <si>
+    <t>6470cd1b9e866c1d68eb5876</t>
+  </si>
+  <si>
+    <t>6455b0be4673c82a34f4ecc3</t>
+  </si>
+  <si>
+    <t>6455b1a94673c82a34f4ecc4</t>
+  </si>
+  <si>
+    <t>6470d4539e866c1d68eb5879</t>
+  </si>
+  <si>
+    <t>6455aed84673c82a34f4ecc0</t>
+  </si>
+  <si>
+    <t>6455ae0c4673c82a34f4ecbf</t>
+  </si>
+  <si>
+    <t>6470ea5c9e866c1d68eb5887</t>
+  </si>
+  <si>
+    <t>6455f1974673c82a34f4ecd6</t>
+  </si>
+  <si>
+    <t>6455efbd4673c82a34f4ecd4</t>
+  </si>
+  <si>
+    <t>6455afa64673c82a34f4ecc2</t>
+  </si>
+  <si>
+    <t>6470e7059e866c1d68eb5880</t>
+  </si>
+  <si>
+    <t>643ecea74ac6203737fd6e79</t>
+  </si>
+  <si>
+    <t>645342f03879cf70e53ff0b3</t>
+  </si>
+  <si>
+    <t>648cb8ea7c55b27c2c708065</t>
+  </si>
+  <si>
+    <t>64a070b419d97124a7a9d360</t>
+  </si>
+  <si>
+    <t>64a06e4119d97124a7a9d35e</t>
+  </si>
+  <si>
+    <t>64330d7da90bce6b6c83bae2</t>
+  </si>
+  <si>
+    <t>644b1e51e7abb0665474a295</t>
+  </si>
+  <si>
+    <t>64550d943879cf70e53ff0d0</t>
+  </si>
+  <si>
+    <t>64781919426b0f007933dcfd</t>
+  </si>
+  <si>
+    <t>646977e29e866c1d68eb576c</t>
+  </si>
+  <si>
+    <t>646aee8d9e866c1d68eb579e</t>
+  </si>
+  <si>
+    <t>648d5d577c55b27c2c70807d</t>
+  </si>
+  <si>
+    <t>648cbede7c55b27c2c70806d</t>
+  </si>
+  <si>
+    <t>6456fd6f4673c82a34f4ecda</t>
+  </si>
+  <si>
+    <t>64550a1b3879cf70e53ff0ce</t>
+  </si>
+  <si>
+    <t>645343793879cf70e53ff0b4</t>
+  </si>
+  <si>
+    <t>647d2284426b0f007933ddfe</t>
+  </si>
+  <si>
+    <t>643a13a64ac6203737fd6e40</t>
+  </si>
+  <si>
+    <t>5600d1e0f58614cf075b7707</t>
+  </si>
+  <si>
+    <t>645920494673c82a34f4ecfb</t>
+  </si>
+  <si>
+    <t>647e355a426b0f007933de1a</t>
+  </si>
+  <si>
+    <t>647e36d4426b0f007933de1c</t>
+  </si>
+  <si>
+    <t>647e3651426b0f007933de1b</t>
+  </si>
+  <si>
+    <t>64a49ee6fc95c50bc98dcf97</t>
+  </si>
+  <si>
+    <t>645ddd03e6fcaf3f17fab015</t>
+  </si>
+  <si>
+    <t>6482535fc57c9f5a476e2bff</t>
+  </si>
+  <si>
+    <t>64684c469e866c1d68eb571f</t>
+  </si>
+  <si>
+    <t>646433946117d262815b107f</t>
+  </si>
+  <si>
+    <t>6451da263879cf70e53ff07c</t>
+  </si>
+  <si>
+    <t>648690643ee0be6578226192</t>
+  </si>
+  <si>
+    <t>6461c017e6fcaf3f17fab0bb</t>
+  </si>
+  <si>
+    <t>64c1d4d254ab1c604a34d2ab</t>
+  </si>
+  <si>
+    <t>647036519e866c1d68eb586d</t>
+  </si>
+  <si>
+    <t>64c0596f54ab1c604a34d255</t>
+  </si>
+  <si>
+    <t>64457dd4e7abb0665474a213</t>
+  </si>
+  <si>
+    <t>648fd2f113f51e5a4696f241</t>
+  </si>
+  <si>
+    <t>648fd38613f51e5a4696f242</t>
+  </si>
+  <si>
+    <t>64b04ad954ab1c604a34d07a</t>
+  </si>
+  <si>
+    <t>6452de093879cf70e53ff093</t>
+  </si>
+  <si>
+    <t>646e36d19e866c1d68eb5836</t>
+  </si>
+  <si>
+    <t>64a4bbd4fc95c50bc98dcf9e</t>
+  </si>
+  <si>
+    <t>6483de4c3ee0be657822617c</t>
+  </si>
+  <si>
+    <t>646984839e866c1d68eb5773</t>
+  </si>
+  <si>
+    <t>64a9bfb0fc95c50bc98dcfbc</t>
+  </si>
+  <si>
+    <t>6468a5c19e866c1d68eb5748</t>
+  </si>
+  <si>
+    <t>64a71aa1fc95c50bc98dcfab</t>
+  </si>
+  <si>
+    <t>647abaaa426b0f007933dd18</t>
+  </si>
+  <si>
+    <t>647cf99e426b0f007933ddee</t>
+  </si>
+  <si>
+    <t>6473b0d5426b0f007933dcbf</t>
+  </si>
+  <si>
+    <t>648fd4e913f51e5a4696f244</t>
+  </si>
+  <si>
+    <t>648d59897c55b27c2c708079</t>
+  </si>
+  <si>
+    <t>648d5b567c55b27c2c70807b</t>
+  </si>
+  <si>
+    <t>646831429e866c1d68eb570b</t>
+  </si>
+  <si>
+    <t>645be4a7e6fcaf3f17faafcd</t>
+  </si>
+  <si>
+    <t>645be596e6fcaf3f17faafcf</t>
+  </si>
+  <si>
+    <t>645be513e6fcaf3f17faafce</t>
+  </si>
+  <si>
+    <t>64668c356117d262815b10af</t>
+  </si>
+  <si>
+    <t>64800356426b0f007933de3f</t>
+  </si>
+  <si>
+    <t>64418d7094494a7b43e48335</t>
+  </si>
+  <si>
+    <t>647e29ef426b0f007933de10</t>
+  </si>
+  <si>
+    <t>645beb27e6fcaf3f17faafd8</t>
+  </si>
+  <si>
+    <t>5609c0b9f89701aedbaebbcc</t>
+  </si>
+  <si>
+    <t>64ada247fc95c50bc98dd030</t>
+  </si>
+  <si>
+    <t>64b35a2c54ab1c604a34d0fc</t>
+  </si>
+  <si>
+    <t>6499b8a2d4762e2149e238cf</t>
+  </si>
+  <si>
+    <t>64825682c57c9f5a476e2c01</t>
+  </si>
+  <si>
+    <t>645be2dae6fcaf3f17faafca</t>
+  </si>
+  <si>
+    <t>64a06bf019d97124a7a9d35d</t>
+  </si>
+  <si>
+    <t>649b956ad4762e2149e238f5</t>
+  </si>
+  <si>
+    <t>648678b23ee0be657822618e</t>
+  </si>
+  <si>
+    <t>6452ded73879cf70e53ff094</t>
+  </si>
+  <si>
+    <t>6455ac364673c82a34f4ecbe</t>
+  </si>
+  <si>
+    <t>645b15cb4673c82a34f4ed7d</t>
+  </si>
+  <si>
+    <t>646899249e866c1d68eb5744</t>
+  </si>
+  <si>
+    <t>64a4b36ffc95c50bc98dcf99</t>
+  </si>
+  <si>
+    <t>647ba3d6426b0f007933dd66</t>
+  </si>
+  <si>
+    <t>648ff76613f51e5a4696f25b</t>
+  </si>
+  <si>
+    <t>6465541e6117d262815b1095</t>
+  </si>
+  <si>
+    <t>648ffc7f13f51e5a4696f25f</t>
+  </si>
+  <si>
+    <t>646e2f279e866c1d68eb582b</t>
+  </si>
+  <si>
+    <t>648691243ee0be6578226194</t>
+  </si>
+  <si>
+    <t>647811e2426b0f007933dcf8</t>
+  </si>
+  <si>
+    <t>6483781c3ee0be657822617a</t>
+  </si>
+  <si>
+    <t>645bef3de6fcaf3f17faafe0</t>
+  </si>
+  <si>
+    <t>6445e11ee7abb0665474a221</t>
+  </si>
+  <si>
+    <t>6447185fe7abb0665474a22a</t>
+  </si>
+  <si>
+    <t>648fad9713f51e5a4696f237</t>
+  </si>
+  <si>
+    <t>645344323879cf70e53ff0b5</t>
+  </si>
+  <si>
+    <t>648cb98f7c55b27c2c708066</t>
+  </si>
+  <si>
+    <t>645bf66be6fcaf3f17faafe7</t>
+  </si>
+  <si>
+    <t>645bdfb4e6fcaf3f17faafc6</t>
+  </si>
+  <si>
+    <t>64a496a5fc95c50bc98dcf91</t>
+  </si>
+  <si>
+    <t>64332232a90bce6b6c83baed</t>
+  </si>
+  <si>
+    <t>5606bfc4f89701aedbaebb77</t>
+  </si>
+  <si>
+    <t>64aafc46fc95c50bc98dcfeb</t>
+  </si>
+  <si>
+    <t>64698d049e866c1d68eb577c</t>
+  </si>
+  <si>
+    <t>645723304673c82a34f4ece2</t>
+  </si>
+  <si>
+    <t>64bf361e54ab1c604a34d1ec</t>
+  </si>
+  <si>
+    <t>64583b524673c82a34f4ecf4</t>
+  </si>
+  <si>
+    <t>6485228f3ee0be6578226180</t>
+  </si>
+  <si>
+    <t>646c1a8b9e866c1d68eb57b1</t>
+  </si>
+  <si>
+    <t>6499ba22d4762e2149e238d0</t>
+  </si>
+  <si>
+    <t>64962fc113f51e5a4696f270</t>
+  </si>
+  <si>
+    <t>64582b934673c82a34f4ece3</t>
+  </si>
+  <si>
+    <t>648cb6b97c55b27c2c708062</t>
+  </si>
+  <si>
+    <t>648cb62f7c55b27c2c708061</t>
+  </si>
+  <si>
+    <t>648cb5947c55b27c2c708060</t>
+  </si>
+  <si>
+    <t>6470d62b9e866c1d68eb587b</t>
+  </si>
+  <si>
+    <t>64689ef69e866c1d68eb5746</t>
+  </si>
+  <si>
+    <t>64a49840fc95c50bc98dcf92</t>
+  </si>
+  <si>
+    <t>6499bb28d4762e2149e238d1</t>
+  </si>
+  <si>
+    <t>649b94bfd4762e2149e238f4</t>
+  </si>
+  <si>
+    <t>6455d4854673c82a34f4ecd0</t>
+  </si>
+  <si>
+    <t>6498d119d4762e2149e238c4</t>
+  </si>
+  <si>
+    <t>645835cf4673c82a34f4ecef</t>
+  </si>
+  <si>
+    <t>646aedb89e866c1d68eb579d</t>
+  </si>
+  <si>
+    <t>648cb0c37c55b27c2c70805a</t>
+  </si>
+  <si>
+    <t>648a8b297c55b27c2c708024</t>
+  </si>
+  <si>
+    <t>648d5de97c55b27c2c70807e</t>
+  </si>
+  <si>
+    <t>645315243879cf70e53ff0aa</t>
+  </si>
+  <si>
+    <t>64a04eaf19d97124a7a9d34f</t>
+  </si>
+  <si>
+    <t>649a5f91d4762e2149e238e4</t>
+  </si>
+  <si>
+    <t>649a6118d4762e2149e238e6</t>
+  </si>
+  <si>
+    <t>645be028e6fcaf3f17faafc8</t>
+  </si>
+  <si>
+    <t>64825b0ac57c9f5a476e2c04</t>
+  </si>
+  <si>
+    <t>64a12606fc95c50bc98dcf79</t>
+  </si>
+  <si>
+    <t>645bdc31e6fcaf3f17faafc0</t>
+  </si>
+  <si>
+    <t>648d53467c55b27c2c708071</t>
+  </si>
+  <si>
+    <t>648fcdf213f51e5a4696f23b</t>
+  </si>
+  <si>
+    <t>LP-01962</t>
+  </si>
+  <si>
+    <t>LP-01963</t>
+  </si>
+  <si>
+    <t>LP-01964</t>
+  </si>
+  <si>
+    <t>LP-01965</t>
+  </si>
+  <si>
+    <t>LP-01966</t>
+  </si>
+  <si>
+    <t>LP-01967</t>
+  </si>
+  <si>
+    <t>LP-01968</t>
+  </si>
+  <si>
+    <t>LP-01969</t>
+  </si>
+  <si>
+    <t>LP-01971</t>
+  </si>
+  <si>
+    <t>LP-01972</t>
+  </si>
+  <si>
+    <t>LP-01973</t>
+  </si>
+  <si>
+    <t>LP-01975</t>
+  </si>
+  <si>
+    <t>LP-01977</t>
+  </si>
+  <si>
+    <t>LP-01978</t>
+  </si>
+  <si>
+    <t>LP-01980</t>
+  </si>
+  <si>
+    <t>LP-01981</t>
+  </si>
+  <si>
+    <t>LP-01983</t>
+  </si>
+  <si>
+    <t>LP-01984</t>
+  </si>
+  <si>
+    <t>LP-01986</t>
+  </si>
+  <si>
+    <t>LP-01987</t>
+  </si>
+  <si>
+    <t>LP-01988</t>
+  </si>
+  <si>
+    <t>LP-01989</t>
+  </si>
+  <si>
+    <t>LP-01990</t>
+  </si>
+  <si>
+    <t>LP-01991</t>
+  </si>
+  <si>
+    <t>LP-01992</t>
+  </si>
+  <si>
+    <t>LP-01993</t>
+  </si>
+  <si>
+    <t>LP-01994</t>
+  </si>
+  <si>
+    <t>LP-01995</t>
+  </si>
+  <si>
+    <t>LP-01996</t>
+  </si>
+  <si>
+    <t>LP-01997</t>
+  </si>
+  <si>
+    <t>LP-01998</t>
+  </si>
+  <si>
+    <t>LP-01999</t>
+  </si>
+  <si>
+    <t>LP-02000</t>
+  </si>
+  <si>
+    <t>LP-02004</t>
+  </si>
+  <si>
+    <t>LP-02005</t>
+  </si>
+  <si>
+    <t>LP-02006</t>
+  </si>
+  <si>
+    <t>LP-02007</t>
+  </si>
+  <si>
+    <t>LP-02008</t>
+  </si>
+  <si>
+    <t>LP-02009</t>
+  </si>
+  <si>
+    <t>LP-02010</t>
+  </si>
+  <si>
+    <t>LP-02011</t>
+  </si>
+  <si>
+    <t>LP-02012</t>
+  </si>
+  <si>
+    <t>LP-02013</t>
+  </si>
+  <si>
+    <t>LP-02014</t>
+  </si>
+  <si>
+    <t>LP-02015</t>
+  </si>
+  <si>
+    <t>LP-02016</t>
+  </si>
+  <si>
+    <t>LP-02018</t>
+  </si>
+  <si>
+    <t>LP-02019</t>
+  </si>
+  <si>
+    <t>LP-02020</t>
+  </si>
+  <si>
+    <t>LP-02021</t>
+  </si>
+  <si>
+    <t>LP-02022</t>
+  </si>
+  <si>
+    <t>LP-02023</t>
+  </si>
+  <si>
+    <t>LP-02024</t>
+  </si>
+  <si>
+    <t>LP-02025</t>
+  </si>
+  <si>
+    <t>LP-02026</t>
+  </si>
+  <si>
+    <t>LP-02027</t>
+  </si>
+  <si>
+    <t>LP-02028</t>
+  </si>
+  <si>
+    <t>LP-02029</t>
+  </si>
+  <si>
+    <t>LP-02030</t>
+  </si>
+  <si>
+    <t>LP-02031</t>
+  </si>
+  <si>
+    <t>LP-02032</t>
+  </si>
+  <si>
+    <t>LP-02034</t>
+  </si>
+  <si>
+    <t>LP-02035</t>
+  </si>
+  <si>
+    <t>LP-02036</t>
+  </si>
+  <si>
+    <t>LP-02037</t>
+  </si>
+  <si>
+    <t>LP-02038</t>
+  </si>
+  <si>
+    <t>LP-02041</t>
+  </si>
+  <si>
+    <t>LP-02042</t>
+  </si>
+  <si>
+    <t>LP-02043</t>
+  </si>
+  <si>
+    <t>LP-02045</t>
+  </si>
+  <si>
+    <t>LP-02046</t>
+  </si>
+  <si>
+    <t>LP-02047</t>
+  </si>
+  <si>
+    <t>LP-02048</t>
+  </si>
+  <si>
+    <t>LP-02049</t>
+  </si>
+  <si>
+    <t>LP-02050</t>
+  </si>
+  <si>
+    <t>LP-02051</t>
+  </si>
+  <si>
+    <t>LP-02052</t>
+  </si>
+  <si>
+    <t>LP-02053</t>
+  </si>
+  <si>
+    <t>LP-02054</t>
+  </si>
+  <si>
+    <t>LP-02055</t>
+  </si>
+  <si>
+    <t>LP-02056</t>
+  </si>
+  <si>
+    <t>LP-02057</t>
+  </si>
+  <si>
+    <t>LP-02058</t>
+  </si>
+  <si>
+    <t>LP-02059</t>
+  </si>
+  <si>
+    <t>LP-02060</t>
+  </si>
+  <si>
+    <t>LP-02061</t>
+  </si>
+  <si>
+    <t>LP-02062</t>
+  </si>
+  <si>
+    <t>LP-02063</t>
+  </si>
+  <si>
+    <t>LP-02065</t>
+  </si>
+  <si>
+    <t>LP-02066</t>
+  </si>
+  <si>
+    <t>LP-02067</t>
+  </si>
+  <si>
+    <t>LP-02068</t>
+  </si>
+  <si>
+    <t>LP-02069</t>
+  </si>
+  <si>
+    <t>LP-02071</t>
+  </si>
+  <si>
+    <t>LP-02072</t>
+  </si>
+  <si>
+    <t>LP-02073</t>
+  </si>
+  <si>
+    <t>LP-02074</t>
+  </si>
+  <si>
+    <t>LP-02075</t>
+  </si>
+  <si>
+    <t>LP-02076</t>
+  </si>
+  <si>
+    <t>LP-02077</t>
+  </si>
+  <si>
+    <t>LP-02078</t>
+  </si>
+  <si>
+    <t>LP-02079</t>
+  </si>
+  <si>
+    <t>LP-02080</t>
+  </si>
+  <si>
+    <t>LP-02082</t>
+  </si>
+  <si>
+    <t>LP-02083</t>
+  </si>
+  <si>
+    <t>LP-02084</t>
+  </si>
+  <si>
+    <t>LP-02085</t>
+  </si>
+  <si>
+    <t>LP-02086</t>
+  </si>
+  <si>
+    <t>LP-02087</t>
+  </si>
+  <si>
+    <t>LP-02088</t>
+  </si>
+  <si>
+    <t>LP-02089</t>
+  </si>
+  <si>
+    <t>LP-02090</t>
+  </si>
+  <si>
+    <t>LP-02091</t>
+  </si>
+  <si>
+    <t>LP-02093</t>
+  </si>
+  <si>
+    <t>LP-02094</t>
+  </si>
+  <si>
+    <t>LP-02096</t>
+  </si>
+  <si>
+    <t>LP-02098</t>
+  </si>
+  <si>
+    <t>LP-02099</t>
+  </si>
+  <si>
+    <t>LP-02100</t>
+  </si>
+  <si>
+    <t>LP-02101</t>
+  </si>
+  <si>
+    <t>LP-02106</t>
+  </si>
+  <si>
+    <t>LP-02107</t>
+  </si>
+  <si>
+    <t>LP-02108</t>
+  </si>
+  <si>
+    <t>LP-02109</t>
+  </si>
+  <si>
+    <t>LP-02110</t>
+  </si>
+  <si>
+    <t>LP-02112</t>
+  </si>
+  <si>
+    <t>LP-02113</t>
+  </si>
+  <si>
+    <t>LP-02114</t>
+  </si>
+  <si>
+    <t>LP-02115</t>
+  </si>
+  <si>
+    <t>LP-02116</t>
+  </si>
+  <si>
+    <t>LP-02117</t>
+  </si>
+  <si>
+    <t>LP-02118</t>
+  </si>
+  <si>
+    <t>LP-02120</t>
+  </si>
+  <si>
+    <t>LP-02121</t>
+  </si>
+  <si>
+    <t>LP-02123</t>
+  </si>
+  <si>
+    <t>LP-02124</t>
+  </si>
+  <si>
+    <t>LP-02125</t>
+  </si>
+  <si>
+    <t>LP-02126</t>
+  </si>
+  <si>
+    <t>LP-02128</t>
+  </si>
+  <si>
+    <t>LP-02130</t>
+  </si>
+  <si>
+    <t>LP-02131</t>
+  </si>
+  <si>
+    <t>LP-02133</t>
+  </si>
+  <si>
+    <t>LP-02135</t>
+  </si>
+  <si>
+    <t>LP-02137</t>
+  </si>
+  <si>
+    <t>LP-02139</t>
+  </si>
+  <si>
+    <t>LP-02141</t>
+  </si>
+  <si>
+    <t>LP-02143</t>
+  </si>
+  <si>
+    <t>LP-02144</t>
+  </si>
+  <si>
+    <t>LP-02145</t>
+  </si>
+  <si>
+    <t>LP-02146</t>
+  </si>
+  <si>
+    <t>LP-02149</t>
+  </si>
+  <si>
+    <t>LP-02150</t>
+  </si>
+  <si>
+    <t>LP-02151</t>
+  </si>
+  <si>
+    <t>LP-02152</t>
+  </si>
+  <si>
+    <t>LP-02153</t>
+  </si>
+  <si>
+    <t>LP-02154</t>
+  </si>
+  <si>
+    <t>LP-02156</t>
+  </si>
+  <si>
+    <t>LP-02157</t>
+  </si>
+  <si>
+    <t>LP-02158</t>
+  </si>
+  <si>
+    <t>LP-02160</t>
+  </si>
+  <si>
+    <t>LP-02161</t>
+  </si>
+  <si>
+    <t>LP-02162</t>
+  </si>
+  <si>
+    <t>LP-02164</t>
+  </si>
+  <si>
+    <t>LP-02165</t>
+  </si>
+  <si>
+    <t>LP-02166</t>
+  </si>
+  <si>
+    <t>LP-02167</t>
+  </si>
+  <si>
+    <t>LP-02168</t>
+  </si>
+  <si>
+    <t>LP-02169</t>
+  </si>
+  <si>
+    <t>LP-02170</t>
+  </si>
+  <si>
+    <t>LP-02171</t>
+  </si>
+  <si>
+    <t>LP-02172</t>
+  </si>
+  <si>
+    <t>LP-02175</t>
+  </si>
+  <si>
+    <t>LP-02176</t>
+  </si>
+  <si>
+    <t>LP-02178</t>
+  </si>
+  <si>
+    <t>LP-02179</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1666,8 +1987,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1699,6 +2027,11 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1722,14 +2055,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -1743,14 +2077,19 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="4" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Accent4" xfId="2" builtinId="41"/>
+    <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2086,10 +2425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8DF20D-43B8-4F50-BD73-629D07637EE7}">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+      <selection activeCell="C2" sqref="C2:C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,83 +2455,83 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="B2" t="s">
         <v>203</v>
       </c>
       <c r="C2" s="8">
-        <v>31818</v>
-      </c>
-      <c r="D2" s="12" t="s">
+        <v>35598</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s">
         <v>203</v>
       </c>
       <c r="C3" s="8">
-        <v>31818</v>
-      </c>
-      <c r="D3" s="6" t="s">
+        <v>35598</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="B4" t="s">
         <v>203</v>
       </c>
       <c r="C4" s="8">
-        <v>31818</v>
-      </c>
-      <c r="D4" s="7" t="s">
+        <v>35689</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="B5" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="8">
-        <v>31237</v>
-      </c>
-      <c r="D5" s="11" t="s">
+        <v>35899</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="B6" t="s">
         <v>203</v>
       </c>
       <c r="C6" s="8">
-        <v>31489</v>
-      </c>
-      <c r="D6" s="11" t="s">
+        <v>36375</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s">
         <v>203</v>
       </c>
       <c r="C7" s="8">
-        <v>31489</v>
+        <v>35836</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>291</v>
@@ -2200,167 +2539,167 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="B8" t="s">
         <v>203</v>
       </c>
       <c r="C8" s="8">
-        <v>32189</v>
-      </c>
-      <c r="D8" s="7" t="s">
+        <v>35724</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="B9" t="s">
         <v>203</v>
       </c>
       <c r="C9" s="8">
-        <v>31489</v>
-      </c>
-      <c r="D9" s="6" t="s">
+        <v>35724</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="B10" t="s">
         <v>203</v>
       </c>
       <c r="C10" s="8">
-        <v>31489</v>
-      </c>
-      <c r="D10" s="6" t="s">
+        <v>35724</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="B11" t="s">
         <v>203</v>
       </c>
       <c r="C11" s="8">
-        <v>31489</v>
-      </c>
-      <c r="D11" s="6" t="s">
+        <v>35829</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="B12" t="s">
         <v>203</v>
       </c>
       <c r="C12" s="8">
-        <v>31608</v>
-      </c>
-      <c r="D12" s="11" t="s">
+        <v>35836</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="B13" t="s">
         <v>203</v>
       </c>
       <c r="C13" s="8">
-        <v>30971</v>
-      </c>
-      <c r="D13" s="6" t="s">
+        <v>37432</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="B14" t="s">
         <v>203</v>
       </c>
       <c r="C14" s="8">
-        <v>31237</v>
-      </c>
-      <c r="D14" s="6" t="s">
+        <v>35808</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="B15" t="s">
         <v>203</v>
       </c>
       <c r="C15" s="8">
-        <v>31692</v>
-      </c>
-      <c r="D15" s="11" t="s">
+        <v>35808</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="B16" t="s">
         <v>203</v>
       </c>
       <c r="C16" s="8">
-        <v>31818</v>
-      </c>
-      <c r="D16" s="7" t="s">
+        <v>35836</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="B17" t="s">
         <v>203</v>
       </c>
       <c r="C17" s="8">
-        <v>31160</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>35934</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="B18" t="s">
         <v>203</v>
       </c>
       <c r="C18" s="8">
-        <v>31160</v>
-      </c>
-      <c r="D18" s="7" t="s">
+        <v>35920</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="B19" t="s">
         <v>203</v>
       </c>
       <c r="C19" s="8">
-        <v>30936</v>
+        <v>35934</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>303</v>
@@ -2368,69 +2707,69 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="B20" t="s">
         <v>203</v>
       </c>
       <c r="C20" s="8">
-        <v>31118</v>
-      </c>
-      <c r="D20" s="6" t="s">
+        <v>36053</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="B21" t="s">
         <v>203</v>
       </c>
       <c r="C21" s="8">
-        <v>31489</v>
-      </c>
-      <c r="D21" s="6" t="s">
+        <v>36081</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="B22" t="s">
         <v>203</v>
       </c>
       <c r="C22" s="8">
-        <v>42717</v>
-      </c>
-      <c r="D22" s="6" t="s">
+        <v>35962</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="B23" t="s">
         <v>203</v>
       </c>
       <c r="C23" s="8">
-        <v>31692</v>
-      </c>
-      <c r="D23" s="7" t="s">
+        <v>35976</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="B24" t="s">
         <v>203</v>
       </c>
       <c r="C24" s="8">
-        <v>30936</v>
+        <v>35976</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>308</v>
@@ -2438,55 +2777,55 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="B25" t="s">
         <v>203</v>
       </c>
       <c r="C25" s="8">
-        <v>31818</v>
-      </c>
-      <c r="D25" s="6" t="s">
+        <v>35976</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="B26" t="s">
         <v>203</v>
       </c>
       <c r="C26" s="8">
-        <v>31818</v>
-      </c>
-      <c r="D26" s="11" t="s">
+        <v>35976</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="B27" t="s">
         <v>203</v>
       </c>
       <c r="C27" s="8">
-        <v>31237</v>
-      </c>
-      <c r="D27" s="6" t="s">
+        <v>35976</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="B28" t="s">
         <v>203</v>
       </c>
       <c r="C28" s="8">
-        <v>31237</v>
+        <v>36081</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>312</v>
@@ -2494,69 +2833,69 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="B29" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="8">
-        <v>32210</v>
-      </c>
-      <c r="D29" s="11" t="s">
+        <v>36326</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="B30" t="s">
         <v>203</v>
       </c>
       <c r="C30" s="8">
-        <v>31867</v>
-      </c>
-      <c r="D30" s="6" t="s">
+        <v>35962</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="B31" t="s">
         <v>203</v>
       </c>
       <c r="C31" s="8">
-        <v>32035</v>
-      </c>
-      <c r="D31" s="6" t="s">
+        <v>36081</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="B32" t="s">
         <v>203</v>
       </c>
       <c r="C32" s="8">
-        <v>31237</v>
-      </c>
-      <c r="D32" s="6" t="s">
+        <v>36298</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="B33" t="s">
         <v>203</v>
       </c>
       <c r="C33" s="8">
-        <v>31036</v>
+        <v>35962</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>317</v>
@@ -2564,111 +2903,111 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="B34" t="s">
         <v>203</v>
       </c>
       <c r="C34" s="8">
-        <v>31237</v>
-      </c>
-      <c r="D34" s="6" t="s">
+        <v>29725</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="B35" t="s">
         <v>203</v>
       </c>
       <c r="C35" s="8">
-        <v>32672</v>
-      </c>
-      <c r="D35" s="6" t="s">
+        <v>29914</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="B36" t="s">
         <v>203</v>
       </c>
       <c r="C36" s="8">
-        <v>31076</v>
-      </c>
-      <c r="D36" s="11" t="s">
+        <v>29886</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="B37" t="s">
         <v>203</v>
       </c>
       <c r="C37" s="8">
-        <v>31076</v>
-      </c>
-      <c r="D37" s="11" t="s">
+        <v>29620</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="B38" t="s">
         <v>203</v>
       </c>
       <c r="C38" s="8">
-        <v>32336</v>
-      </c>
-      <c r="D38" s="11" t="s">
+        <v>29620</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="B39" t="s">
         <v>203</v>
       </c>
       <c r="C39" s="8">
-        <v>32336</v>
-      </c>
-      <c r="D39" s="6" t="s">
+        <v>29620</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="B40" t="s">
         <v>203</v>
       </c>
       <c r="C40" s="8">
-        <v>32336</v>
-      </c>
-      <c r="D40" s="6" t="s">
+        <v>29914</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="B41" t="s">
         <v>203</v>
       </c>
       <c r="C41" s="8">
-        <v>31692</v>
+        <v>29942</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>325</v>
@@ -2676,27 +3015,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="B42" t="s">
         <v>203</v>
       </c>
       <c r="C42" s="8">
-        <v>32392</v>
-      </c>
-      <c r="D42" s="11" t="s">
+        <v>29942</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="B43" t="s">
         <v>203</v>
       </c>
       <c r="C43" s="8">
-        <v>32392</v>
+        <v>29942</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>327</v>
@@ -2704,41 +3043,41 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="B44" t="s">
         <v>203</v>
       </c>
       <c r="C44" s="8">
-        <v>32490</v>
-      </c>
-      <c r="D44" s="7" t="s">
+        <v>29886</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="B45" t="s">
         <v>203</v>
       </c>
       <c r="C45" s="8">
-        <v>33148</v>
-      </c>
-      <c r="D45" s="7" t="s">
+        <v>29718</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="B46" t="s">
         <v>203</v>
       </c>
       <c r="C46" s="8">
-        <v>32434</v>
+        <v>29718</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>330</v>
@@ -2746,27 +3085,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="B47" t="s">
         <v>203</v>
       </c>
       <c r="C47" s="8">
-        <v>32035</v>
-      </c>
-      <c r="D47" s="11" t="s">
+        <v>29942</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="B48" t="s">
         <v>203</v>
       </c>
       <c r="C48" s="8">
-        <v>32448</v>
+        <v>36214</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>332</v>
@@ -2774,41 +3113,41 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="B49" t="s">
         <v>203</v>
       </c>
       <c r="C49" s="8">
-        <v>32049</v>
-      </c>
-      <c r="D49" s="6" t="s">
+        <v>36144</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="B50" t="s">
         <v>203</v>
       </c>
       <c r="C50" s="8">
-        <v>32490</v>
-      </c>
-      <c r="D50" s="6" t="s">
+        <v>36053</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="B51" t="s">
         <v>203</v>
       </c>
       <c r="C51" s="8">
-        <v>32434</v>
+        <v>36053</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>335</v>
@@ -2816,69 +3155,69 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="B52" t="s">
         <v>203</v>
       </c>
       <c r="C52" s="8">
-        <v>32301</v>
-      </c>
-      <c r="D52" s="11" t="s">
+        <v>36305</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="B53" t="s">
         <v>203</v>
       </c>
       <c r="C53" s="8">
-        <v>32301</v>
-      </c>
-      <c r="D53" s="7" t="s">
+        <v>36340</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="B54" t="s">
         <v>203</v>
       </c>
       <c r="C54" s="8">
-        <v>32434</v>
-      </c>
-      <c r="D54" s="7" t="s">
+        <v>36326</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="B55" t="s">
         <v>203</v>
       </c>
       <c r="C55" s="8">
-        <v>32861</v>
-      </c>
-      <c r="D55" s="11" t="s">
+        <v>36081</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="B56" t="s">
         <v>203</v>
       </c>
       <c r="C56" s="8">
-        <v>32749</v>
+        <v>36116</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>340</v>
@@ -2886,41 +3225,41 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="B57" t="s">
         <v>203</v>
       </c>
       <c r="C57" s="8">
-        <v>32749</v>
-      </c>
-      <c r="D57" s="9" t="s">
+        <v>36144</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="B58" t="s">
         <v>203</v>
       </c>
       <c r="C58" s="8">
-        <v>32448</v>
-      </c>
-      <c r="D58" s="11" t="s">
+        <v>36116</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="B59" t="s">
         <v>203</v>
       </c>
       <c r="C59" s="8">
-        <v>31363</v>
+        <v>36956</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>343</v>
@@ -2928,27 +3267,27 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="B60" t="s">
         <v>203</v>
       </c>
       <c r="C60" s="8">
-        <v>32189</v>
-      </c>
-      <c r="D60" s="11" t="s">
+        <v>36172</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="B61" t="s">
         <v>203</v>
       </c>
       <c r="C61" s="8">
-        <v>32665</v>
+        <v>36235</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>345</v>
@@ -2956,83 +3295,83 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="B62" t="s">
         <v>203</v>
       </c>
       <c r="C62" s="8">
-        <v>32700</v>
-      </c>
-      <c r="D62" s="9" t="s">
+        <v>36298</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="B63" t="s">
         <v>203</v>
       </c>
       <c r="C63" s="8">
-        <v>32994</v>
-      </c>
-      <c r="D63" s="7" t="s">
+        <v>36214</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="B64" t="s">
         <v>203</v>
       </c>
       <c r="C64" s="8">
-        <v>32994</v>
-      </c>
-      <c r="D64" s="7" t="s">
+        <v>36333</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="B65" t="s">
         <v>203</v>
       </c>
       <c r="C65" s="8">
-        <v>32994</v>
-      </c>
-      <c r="D65" s="9" t="s">
+        <v>36305</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="B66" t="s">
         <v>203</v>
       </c>
       <c r="C66" s="8">
-        <v>32994</v>
-      </c>
-      <c r="D66" s="7" t="s">
+        <v>36662</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="B67" t="s">
         <v>203</v>
       </c>
       <c r="C67" s="8">
-        <v>32994</v>
+        <v>36326</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>351</v>
@@ -3040,55 +3379,55 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="B68" t="s">
         <v>203</v>
       </c>
       <c r="C68" s="8">
-        <v>32994</v>
-      </c>
-      <c r="D68" s="7" t="s">
+        <v>36452</v>
+      </c>
+      <c r="D68" s="13" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="B69" t="s">
         <v>203</v>
       </c>
       <c r="C69" s="8">
-        <v>32749</v>
-      </c>
-      <c r="D69" s="11" t="s">
+        <v>36452</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="B70" t="s">
         <v>203</v>
       </c>
       <c r="C70" s="8">
-        <v>33288</v>
-      </c>
-      <c r="D70" s="7" t="s">
+        <v>36452</v>
+      </c>
+      <c r="D70" s="18" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="B71" t="s">
         <v>203</v>
       </c>
       <c r="C71" s="8">
-        <v>33099</v>
+        <v>36676</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>355</v>
@@ -3096,69 +3435,69 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="B72" t="s">
         <v>203</v>
       </c>
       <c r="C72" s="8">
-        <v>33099</v>
-      </c>
-      <c r="D72" s="6" t="s">
+        <v>36697</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="B73" t="s">
         <v>203</v>
       </c>
       <c r="C73" s="8">
-        <v>33099</v>
-      </c>
-      <c r="D73" s="11" t="s">
+        <v>36564</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="B74" t="s">
         <v>203</v>
       </c>
       <c r="C74" s="8">
-        <v>33099</v>
-      </c>
-      <c r="D74" s="9" t="s">
+        <v>36564</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="B75" t="s">
         <v>203</v>
       </c>
       <c r="C75" s="8">
-        <v>32210</v>
-      </c>
-      <c r="D75" s="11" t="s">
+        <v>36613</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="B76" t="s">
         <v>203</v>
       </c>
       <c r="C76" s="8">
-        <v>32189</v>
+        <v>36949</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>360</v>
@@ -3166,660 +3505,1402 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="B77" t="s">
         <v>203</v>
       </c>
       <c r="C77" s="8">
-        <v>32189</v>
-      </c>
-      <c r="D77" s="11" t="s">
+        <v>36613</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="B78" t="s">
         <v>203</v>
       </c>
       <c r="C78" s="8">
-        <v>32224</v>
-      </c>
-      <c r="D78" s="11" t="s">
+        <v>36564</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="B79" t="s">
         <v>203</v>
       </c>
       <c r="C79" s="8">
-        <v>33218</v>
-      </c>
-      <c r="D79" s="6" t="s">
+        <v>36564</v>
+      </c>
+      <c r="D79" s="11" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="B80" t="s">
         <v>203</v>
       </c>
       <c r="C80" s="8">
-        <v>33617</v>
-      </c>
-      <c r="D80" s="11" t="s">
+        <v>38125</v>
+      </c>
+      <c r="D80" s="13" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="B81" t="s">
         <v>203</v>
       </c>
       <c r="C81" s="8">
-        <v>32301</v>
-      </c>
-      <c r="D81" s="11" t="s">
+        <v>36662</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="B82" t="s">
         <v>203</v>
       </c>
       <c r="C82" s="8">
-        <v>33148</v>
-      </c>
-      <c r="D82" s="7" t="s">
+        <v>36816</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="B83" t="s">
         <v>203</v>
       </c>
       <c r="C83" s="8">
-        <v>32301</v>
-      </c>
-      <c r="D83" s="12" t="s">
+        <v>36921</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="B84" t="s">
         <v>203</v>
       </c>
       <c r="C84" s="8">
-        <v>32302</v>
-      </c>
-      <c r="D84" s="11" t="s">
+        <v>36704</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="B85" t="s">
         <v>203</v>
       </c>
       <c r="C85" s="8">
-        <v>32336</v>
-      </c>
-      <c r="D85" s="11" t="s">
+        <v>36697</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="B86" t="s">
         <v>203</v>
       </c>
       <c r="C86" s="8">
-        <v>32651</v>
-      </c>
-      <c r="D86" s="11" t="s">
+        <v>36921</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="B87" t="s">
         <v>203</v>
       </c>
       <c r="C87" s="8">
-        <v>32056</v>
-      </c>
-      <c r="D87" s="7" t="s">
+        <v>36662</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="B88" t="s">
         <v>203</v>
       </c>
       <c r="C88" s="8">
-        <v>32056</v>
-      </c>
-      <c r="D88" s="9" t="s">
+        <v>36697</v>
+      </c>
+      <c r="D88" s="11" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
       <c r="B89" t="s">
         <v>203</v>
       </c>
       <c r="C89" s="8">
-        <v>32091</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>355</v>
+        <v>36697</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="B90" t="s">
         <v>203</v>
       </c>
       <c r="C90" s="8">
-        <v>32091</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>373</v>
+        <v>36697</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
       <c r="B91" t="s">
         <v>203</v>
       </c>
       <c r="C91" s="8">
-        <v>32721</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>374</v>
+        <v>36676</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>497</v>
+        <v>551</v>
       </c>
       <c r="B92" t="s">
         <v>203</v>
       </c>
       <c r="C92" s="8">
-        <v>32749</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>375</v>
+        <v>36823</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="B93" t="s">
         <v>203</v>
       </c>
       <c r="C93" s="8">
-        <v>32749</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>376</v>
+        <v>42717</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="B94" t="s">
         <v>203</v>
       </c>
       <c r="C94" s="8">
-        <v>32224</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>377</v>
+        <v>36921</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="B95" t="s">
         <v>203</v>
       </c>
       <c r="C95" s="8">
-        <v>32588</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>378</v>
+        <v>36697</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="B96" t="s">
         <v>203</v>
       </c>
       <c r="C96" s="8">
-        <v>42472</v>
+        <v>36704</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="B97" t="s">
         <v>203</v>
       </c>
       <c r="C97" s="8">
-        <v>33372</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>380</v>
+        <v>36921</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
       <c r="B98" t="s">
         <v>203</v>
       </c>
       <c r="C98" s="8">
-        <v>33099</v>
+        <v>36704</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>504</v>
+        <v>558</v>
       </c>
       <c r="B99" t="s">
         <v>203</v>
       </c>
       <c r="C99" s="8">
-        <v>32721</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>382</v>
+        <v>36844</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
       <c r="B100" t="s">
         <v>203</v>
       </c>
       <c r="C100" s="8">
-        <v>33148</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>383</v>
+        <v>36921</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>506</v>
+        <v>560</v>
       </c>
       <c r="B101" t="s">
         <v>203</v>
       </c>
       <c r="C101" s="8">
-        <v>32847</v>
+        <v>36949</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>507</v>
+        <v>561</v>
       </c>
       <c r="B102" t="s">
         <v>203</v>
       </c>
       <c r="C102" s="8">
-        <v>32784</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>385</v>
+        <v>36879</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>508</v>
+        <v>562</v>
       </c>
       <c r="B103" t="s">
         <v>203</v>
       </c>
       <c r="C103" s="8">
-        <v>32378</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>386</v>
+        <v>36865</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>509</v>
+        <v>563</v>
       </c>
       <c r="B104" t="s">
         <v>203</v>
       </c>
       <c r="C104" s="8">
-        <v>32700</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>387</v>
+        <v>36858</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>510</v>
+        <v>564</v>
       </c>
       <c r="B105" t="s">
         <v>203</v>
       </c>
       <c r="C105" s="8">
-        <v>32700</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>388</v>
+        <v>36879</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>511</v>
+        <v>565</v>
       </c>
       <c r="B106" t="s">
         <v>203</v>
       </c>
       <c r="C106" s="8">
-        <v>32721</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>389</v>
+        <v>36879</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>512</v>
+        <v>566</v>
       </c>
       <c r="B107" t="s">
         <v>203</v>
       </c>
       <c r="C107" s="8">
-        <v>33344</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>390</v>
+        <v>37012</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>513</v>
+        <v>567</v>
       </c>
       <c r="B108" t="s">
         <v>203</v>
       </c>
       <c r="C108" s="8">
-        <v>33344</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>391</v>
+        <v>37012</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>514</v>
+        <v>568</v>
       </c>
       <c r="B109" t="s">
         <v>203</v>
       </c>
       <c r="C109" s="8">
-        <v>33344</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>392</v>
+        <v>37117</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>515</v>
+        <v>569</v>
       </c>
       <c r="B110" t="s">
         <v>203</v>
       </c>
       <c r="C110" s="8">
-        <v>33344</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>393</v>
+        <v>41135</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>516</v>
+        <v>570</v>
       </c>
       <c r="B111" t="s">
         <v>203</v>
       </c>
       <c r="C111" s="8">
-        <v>33344</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>394</v>
+        <v>36956</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>517</v>
+        <v>571</v>
       </c>
       <c r="B112" t="s">
         <v>203</v>
       </c>
       <c r="C112" s="8">
-        <v>33344</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>395</v>
+        <v>37005</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>518</v>
+        <v>572</v>
       </c>
       <c r="B113" t="s">
         <v>203</v>
       </c>
       <c r="C113" s="8">
-        <v>33344</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>396</v>
+        <v>37005</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>519</v>
+        <v>573</v>
       </c>
       <c r="B114" t="s">
         <v>203</v>
       </c>
       <c r="C114" s="8">
-        <v>33344</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>397</v>
+        <v>37005</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>520</v>
+        <v>574</v>
       </c>
       <c r="B115" t="s">
         <v>203</v>
       </c>
       <c r="C115" s="8">
-        <v>33344</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>398</v>
+        <v>37068</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>521</v>
+        <v>575</v>
       </c>
       <c r="B116" t="s">
         <v>203</v>
       </c>
       <c r="C116" s="8">
-        <v>33344</v>
+        <v>37068</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>522</v>
+        <v>576</v>
       </c>
       <c r="B117" t="s">
         <v>203</v>
       </c>
       <c r="C117" s="8">
-        <v>33344</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>400</v>
+        <v>37068</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>523</v>
+        <v>577</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
       </c>
       <c r="C118" s="8">
-        <v>33344</v>
+        <v>37208</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>524</v>
+        <v>578</v>
       </c>
       <c r="B119" t="s">
         <v>203</v>
       </c>
       <c r="C119" s="8">
-        <v>33344</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>402</v>
+        <v>37208</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>525</v>
+        <v>579</v>
       </c>
       <c r="B120" t="s">
         <v>203</v>
       </c>
       <c r="C120" s="8">
-        <v>33344</v>
+        <v>37208</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>526</v>
+        <v>580</v>
       </c>
       <c r="B121" t="s">
         <v>203</v>
       </c>
       <c r="C121" s="8">
-        <v>33344</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>404</v>
+        <v>37208</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>527</v>
+        <v>581</v>
       </c>
       <c r="B122" t="s">
         <v>203</v>
       </c>
       <c r="C122" s="8">
-        <v>33344</v>
+        <v>37656</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>528</v>
+        <v>582</v>
       </c>
       <c r="B123" t="s">
         <v>203</v>
       </c>
       <c r="C123" s="8">
-        <v>33288</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>406</v>
+        <v>37243</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>583</v>
+      </c>
+      <c r="B124" t="s">
+        <v>203</v>
+      </c>
+      <c r="C124" s="8">
+        <v>37243</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>584</v>
+      </c>
+      <c r="B125" t="s">
+        <v>203</v>
+      </c>
+      <c r="C125" s="8">
+        <v>39490</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>585</v>
+      </c>
+      <c r="B126" t="s">
+        <v>203</v>
+      </c>
+      <c r="C126" s="8">
+        <v>37264</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>586</v>
+      </c>
+      <c r="B127" t="s">
+        <v>203</v>
+      </c>
+      <c r="C127" s="8">
+        <v>37481</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>587</v>
+      </c>
+      <c r="B128" t="s">
+        <v>203</v>
+      </c>
+      <c r="C128" s="8">
+        <v>37425</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>588</v>
+      </c>
+      <c r="B129" t="s">
+        <v>203</v>
+      </c>
+      <c r="C129" s="8">
+        <v>37313</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>589</v>
+      </c>
+      <c r="B130" t="s">
+        <v>203</v>
+      </c>
+      <c r="C130" s="8">
+        <v>37558</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>590</v>
+      </c>
+      <c r="B131" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" s="8">
+        <v>37432</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>591</v>
+      </c>
+      <c r="B132" t="s">
+        <v>203</v>
+      </c>
+      <c r="C132" s="8">
+        <v>37677</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>592</v>
+      </c>
+      <c r="B133" t="s">
+        <v>203</v>
+      </c>
+      <c r="C133" s="8">
+        <v>37558</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>593</v>
+      </c>
+      <c r="B134" t="s">
+        <v>203</v>
+      </c>
+      <c r="C134" s="8">
+        <v>37607</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="B135" t="s">
+        <v>203</v>
+      </c>
+      <c r="C135" s="8">
+        <v>37481</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>595</v>
+      </c>
+      <c r="B136" t="s">
+        <v>203</v>
+      </c>
+      <c r="C136" s="8">
+        <v>39770</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>596</v>
+      </c>
+      <c r="B137" t="s">
+        <v>203</v>
+      </c>
+      <c r="C137" s="8">
+        <v>37789</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>597</v>
+      </c>
+      <c r="B138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C138" s="8">
+        <v>37600</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>598</v>
+      </c>
+      <c r="B139" t="s">
+        <v>203</v>
+      </c>
+      <c r="C139" s="8">
+        <v>37607</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>599</v>
+      </c>
+      <c r="B140" t="s">
+        <v>203</v>
+      </c>
+      <c r="C140" s="8">
+        <v>37705</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>600</v>
+      </c>
+      <c r="B141" t="s">
+        <v>203</v>
+      </c>
+      <c r="C141" s="8">
+        <v>37796</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>601</v>
+      </c>
+      <c r="B142" t="s">
+        <v>203</v>
+      </c>
+      <c r="C142" s="8">
+        <v>37796</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>602</v>
+      </c>
+      <c r="B143" t="s">
+        <v>203</v>
+      </c>
+      <c r="C143" s="8">
+        <v>38559</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>603</v>
+      </c>
+      <c r="B144" t="s">
+        <v>203</v>
+      </c>
+      <c r="C144" s="8">
+        <v>37796</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>604</v>
+      </c>
+      <c r="B145" t="s">
+        <v>203</v>
+      </c>
+      <c r="C145" s="8">
+        <v>42717</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>605</v>
+      </c>
+      <c r="B146" t="s">
+        <v>203</v>
+      </c>
+      <c r="C146" s="8">
+        <v>38027</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>606</v>
+      </c>
+      <c r="B147" t="s">
+        <v>203</v>
+      </c>
+      <c r="C147" s="8">
+        <v>38076</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>607</v>
+      </c>
+      <c r="B148" t="s">
+        <v>203</v>
+      </c>
+      <c r="C148" s="8">
+        <v>38118</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>608</v>
+      </c>
+      <c r="B149" t="s">
+        <v>203</v>
+      </c>
+      <c r="C149" s="8">
+        <v>38251</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>609</v>
+      </c>
+      <c r="B150" t="s">
+        <v>203</v>
+      </c>
+      <c r="C150" s="8">
+        <v>42472</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>610</v>
+      </c>
+      <c r="B151" t="s">
+        <v>203</v>
+      </c>
+      <c r="C151" s="8">
+        <v>38146</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>611</v>
+      </c>
+      <c r="B152" t="s">
+        <v>203</v>
+      </c>
+      <c r="C152" s="8">
+        <v>38146</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>612</v>
+      </c>
+      <c r="B153" t="s">
+        <v>203</v>
+      </c>
+      <c r="C153" s="8">
+        <v>38146</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>613</v>
+      </c>
+      <c r="B154" t="s">
+        <v>203</v>
+      </c>
+      <c r="C154" s="8">
+        <v>38146</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>614</v>
+      </c>
+      <c r="B155" t="s">
+        <v>203</v>
+      </c>
+      <c r="C155" s="8">
+        <v>38118</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>615</v>
+      </c>
+      <c r="B156" t="s">
+        <v>203</v>
+      </c>
+      <c r="C156" s="8">
+        <v>38146</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>616</v>
+      </c>
+      <c r="B157" t="s">
+        <v>203</v>
+      </c>
+      <c r="C157" s="8">
+        <v>38279</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>617</v>
+      </c>
+      <c r="B158" t="s">
+        <v>203</v>
+      </c>
+      <c r="C158" s="8">
+        <v>38167</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>618</v>
+      </c>
+      <c r="B159" t="s">
+        <v>203</v>
+      </c>
+      <c r="C159" s="8">
+        <v>38279</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>619</v>
+      </c>
+      <c r="B160" t="s">
+        <v>203</v>
+      </c>
+      <c r="C160" s="8">
+        <v>38167</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>620</v>
+      </c>
+      <c r="B161" t="s">
+        <v>203</v>
+      </c>
+      <c r="C161" s="8">
+        <v>38615</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>621</v>
+      </c>
+      <c r="B162" t="s">
+        <v>203</v>
+      </c>
+      <c r="C162" s="8">
+        <v>38510</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>622</v>
+      </c>
+      <c r="B163" t="s">
+        <v>203</v>
+      </c>
+      <c r="C163" s="8">
+        <v>38440</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>623</v>
+      </c>
+      <c r="B164" t="s">
+        <v>203</v>
+      </c>
+      <c r="C164" s="8">
+        <v>39112</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>624</v>
+      </c>
+      <c r="B165" t="s">
+        <v>203</v>
+      </c>
+      <c r="C165" s="8">
+        <v>39112</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>625</v>
+      </c>
+      <c r="B166" t="s">
+        <v>203</v>
+      </c>
+      <c r="C166" s="8">
+        <v>38531</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>626</v>
+      </c>
+      <c r="B167" t="s">
+        <v>203</v>
+      </c>
+      <c r="C167" s="8">
+        <v>40008</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>627</v>
+      </c>
+      <c r="B168" t="s">
+        <v>203</v>
+      </c>
+      <c r="C168" s="8">
+        <v>38699</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>628</v>
+      </c>
+      <c r="B169" t="s">
+        <v>203</v>
+      </c>
+      <c r="C169" s="8">
+        <v>38426</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>629</v>
+      </c>
+      <c r="B170" t="s">
+        <v>203</v>
+      </c>
+      <c r="C170" s="8">
+        <v>38426</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>630</v>
+      </c>
+      <c r="B171" t="s">
+        <v>203</v>
+      </c>
+      <c r="C171" s="8">
+        <v>38531</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>631</v>
+      </c>
+      <c r="B172" t="s">
+        <v>203</v>
+      </c>
+      <c r="C172" s="8">
+        <v>39140</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>632</v>
+      </c>
+      <c r="B173" t="s">
+        <v>203</v>
+      </c>
+      <c r="C173" s="8">
+        <v>38489</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>633</v>
+      </c>
+      <c r="B174" t="s">
+        <v>203</v>
+      </c>
+      <c r="C174" s="8">
+        <v>38489</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>634</v>
+      </c>
+      <c r="B175" t="s">
+        <v>203</v>
+      </c>
+      <c r="C175" s="8">
+        <v>38468</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>635</v>
+      </c>
+      <c r="B176" t="s">
+        <v>203</v>
+      </c>
+      <c r="C176" s="8">
+        <v>38531</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -3882,7 +4963,7 @@
       <c r="F139" s="8">
         <v>29809</v>
       </c>
-      <c r="G139" s="14" t="s">
+      <c r="G139" s="16" t="s">
         <v>206</v>
       </c>
     </row>

--- a/data/raw/Location-Import.xlsx
+++ b/data/raw/Location-Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A7E85B-E218-466A-8C3F-30FEF08F1BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690CCD10-35BD-4C89-BE3F-B57D5422D82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24450" yWindow="3390" windowWidth="32475" windowHeight="16875" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
+    <workbookView xWindow="20220" yWindow="2850" windowWidth="32475" windowHeight="16875" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
   </bookViews>
   <sheets>
     <sheet name="Landmark" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="827">
   <si>
     <t>BoroughCode</t>
   </si>
@@ -898,1061 +898,1634 @@
     <t>LP-01194</t>
   </si>
   <si>
-    <t>6451daad3879cf70e53ff07d</t>
-  </si>
-  <si>
-    <t>560dd46ef89701aedbaebbf2</t>
-  </si>
-  <si>
-    <t>64876a723ee0be65782261a2</t>
-  </si>
-  <si>
-    <t>644592b4e7abb0665474a217</t>
-  </si>
-  <si>
-    <t>648677a63ee0be657822618d</t>
-  </si>
-  <si>
-    <t>648a89d57c55b27c2c708023</t>
-  </si>
-  <si>
-    <t>645bf5b4e6fcaf3f17faafe6</t>
-  </si>
-  <si>
-    <t>645bea9fe6fcaf3f17faafd7</t>
-  </si>
-  <si>
-    <t>645b154d4673c82a34f4ed7c</t>
-  </si>
-  <si>
-    <t>645bd9abe6fcaf3f17faafbc</t>
-  </si>
-  <si>
-    <t>6487fcf73ee0be65782261b9</t>
-  </si>
-  <si>
-    <t>643eb2154ac6203737fd6e6f</t>
-  </si>
-  <si>
-    <t>6470d1da9e866c1d68eb5877</t>
-  </si>
-  <si>
-    <t>64c43b1354ab1c604a34d33d</t>
-  </si>
-  <si>
-    <t>64457fa9e7abb0665474a214</t>
-  </si>
-  <si>
-    <t>6462ba7ae6fcaf3f17fab0c4</t>
-  </si>
-  <si>
-    <t>644b4b723879cf70e53ff009</t>
-  </si>
-  <si>
-    <t>646ee8c99e866c1d68eb5840</t>
-  </si>
-  <si>
-    <t>648fef3913f51e5a4696f256</t>
-  </si>
-  <si>
-    <t>64342721a90bce6b6c83bb1f</t>
-  </si>
-  <si>
-    <t>6450bd673879cf70e53ff040</t>
-  </si>
-  <si>
-    <t>646e32299e866c1d68eb5830</t>
-  </si>
-  <si>
-    <t>646da0d99e866c1d68eb5821</t>
-  </si>
-  <si>
-    <t>646da16b9e866c1d68eb5822</t>
-  </si>
-  <si>
-    <t>646da1d09e866c1d68eb5823</t>
-  </si>
-  <si>
-    <t>646c22ed9e866c1d68eb57b3</t>
-  </si>
-  <si>
-    <t>6497c2c3d4762e2149e238bb</t>
-  </si>
-  <si>
-    <t>645836e44673c82a34f4ecf1</t>
-  </si>
-  <si>
-    <t>646192eae6fcaf3f17fab093</t>
-  </si>
-  <si>
-    <t>648fae4713f51e5a4696f238</t>
-  </si>
-  <si>
-    <t>6451f9f73879cf70e53ff089</t>
-  </si>
-  <si>
-    <t>646fd2ad9e866c1d68eb5858</t>
-  </si>
-  <si>
-    <t>5600baa0f58614cf075b7703</t>
-  </si>
-  <si>
-    <t>649a5b17d4762e2149e238de</t>
-  </si>
-  <si>
-    <t>649a5cdcd4762e2149e238e0</t>
-  </si>
-  <si>
-    <t>6470cd1b9e866c1d68eb5876</t>
-  </si>
-  <si>
-    <t>6455b0be4673c82a34f4ecc3</t>
-  </si>
-  <si>
-    <t>6455b1a94673c82a34f4ecc4</t>
-  </si>
-  <si>
-    <t>6470d4539e866c1d68eb5879</t>
-  </si>
-  <si>
-    <t>6455aed84673c82a34f4ecc0</t>
-  </si>
-  <si>
-    <t>6455ae0c4673c82a34f4ecbf</t>
-  </si>
-  <si>
-    <t>6470ea5c9e866c1d68eb5887</t>
-  </si>
-  <si>
-    <t>6455f1974673c82a34f4ecd6</t>
-  </si>
-  <si>
-    <t>6455efbd4673c82a34f4ecd4</t>
-  </si>
-  <si>
-    <t>6455afa64673c82a34f4ecc2</t>
-  </si>
-  <si>
-    <t>6470e7059e866c1d68eb5880</t>
-  </si>
-  <si>
-    <t>643ecea74ac6203737fd6e79</t>
-  </si>
-  <si>
-    <t>645342f03879cf70e53ff0b3</t>
-  </si>
-  <si>
-    <t>648cb8ea7c55b27c2c708065</t>
-  </si>
-  <si>
-    <t>64a070b419d97124a7a9d360</t>
-  </si>
-  <si>
-    <t>64a06e4119d97124a7a9d35e</t>
-  </si>
-  <si>
-    <t>64330d7da90bce6b6c83bae2</t>
-  </si>
-  <si>
-    <t>644b1e51e7abb0665474a295</t>
-  </si>
-  <si>
-    <t>64550d943879cf70e53ff0d0</t>
-  </si>
-  <si>
-    <t>64781919426b0f007933dcfd</t>
-  </si>
-  <si>
-    <t>646977e29e866c1d68eb576c</t>
-  </si>
-  <si>
-    <t>646aee8d9e866c1d68eb579e</t>
-  </si>
-  <si>
-    <t>648d5d577c55b27c2c70807d</t>
-  </si>
-  <si>
-    <t>648cbede7c55b27c2c70806d</t>
-  </si>
-  <si>
-    <t>6456fd6f4673c82a34f4ecda</t>
-  </si>
-  <si>
-    <t>64550a1b3879cf70e53ff0ce</t>
-  </si>
-  <si>
-    <t>645343793879cf70e53ff0b4</t>
-  </si>
-  <si>
-    <t>647d2284426b0f007933ddfe</t>
-  </si>
-  <si>
-    <t>643a13a64ac6203737fd6e40</t>
-  </si>
-  <si>
-    <t>5600d1e0f58614cf075b7707</t>
-  </si>
-  <si>
-    <t>645920494673c82a34f4ecfb</t>
-  </si>
-  <si>
-    <t>647e355a426b0f007933de1a</t>
-  </si>
-  <si>
-    <t>647e36d4426b0f007933de1c</t>
-  </si>
-  <si>
-    <t>647e3651426b0f007933de1b</t>
-  </si>
-  <si>
-    <t>64a49ee6fc95c50bc98dcf97</t>
-  </si>
-  <si>
-    <t>645ddd03e6fcaf3f17fab015</t>
-  </si>
-  <si>
-    <t>6482535fc57c9f5a476e2bff</t>
-  </si>
-  <si>
-    <t>64684c469e866c1d68eb571f</t>
-  </si>
-  <si>
-    <t>646433946117d262815b107f</t>
-  </si>
-  <si>
-    <t>6451da263879cf70e53ff07c</t>
-  </si>
-  <si>
-    <t>648690643ee0be6578226192</t>
-  </si>
-  <si>
-    <t>6461c017e6fcaf3f17fab0bb</t>
-  </si>
-  <si>
-    <t>64c1d4d254ab1c604a34d2ab</t>
-  </si>
-  <si>
-    <t>647036519e866c1d68eb586d</t>
-  </si>
-  <si>
-    <t>64c0596f54ab1c604a34d255</t>
-  </si>
-  <si>
-    <t>64457dd4e7abb0665474a213</t>
-  </si>
-  <si>
-    <t>648fd2f113f51e5a4696f241</t>
-  </si>
-  <si>
-    <t>648fd38613f51e5a4696f242</t>
-  </si>
-  <si>
-    <t>64b04ad954ab1c604a34d07a</t>
-  </si>
-  <si>
-    <t>6452de093879cf70e53ff093</t>
-  </si>
-  <si>
-    <t>646e36d19e866c1d68eb5836</t>
-  </si>
-  <si>
-    <t>64a4bbd4fc95c50bc98dcf9e</t>
-  </si>
-  <si>
-    <t>6483de4c3ee0be657822617c</t>
-  </si>
-  <si>
-    <t>646984839e866c1d68eb5773</t>
-  </si>
-  <si>
-    <t>64a9bfb0fc95c50bc98dcfbc</t>
-  </si>
-  <si>
-    <t>6468a5c19e866c1d68eb5748</t>
-  </si>
-  <si>
-    <t>64a71aa1fc95c50bc98dcfab</t>
-  </si>
-  <si>
-    <t>647abaaa426b0f007933dd18</t>
-  </si>
-  <si>
-    <t>647cf99e426b0f007933ddee</t>
-  </si>
-  <si>
-    <t>6473b0d5426b0f007933dcbf</t>
-  </si>
-  <si>
-    <t>648fd4e913f51e5a4696f244</t>
-  </si>
-  <si>
-    <t>648d59897c55b27c2c708079</t>
-  </si>
-  <si>
-    <t>648d5b567c55b27c2c70807b</t>
-  </si>
-  <si>
-    <t>646831429e866c1d68eb570b</t>
-  </si>
-  <si>
-    <t>645be4a7e6fcaf3f17faafcd</t>
-  </si>
-  <si>
-    <t>645be596e6fcaf3f17faafcf</t>
-  </si>
-  <si>
-    <t>645be513e6fcaf3f17faafce</t>
-  </si>
-  <si>
-    <t>64668c356117d262815b10af</t>
-  </si>
-  <si>
-    <t>64800356426b0f007933de3f</t>
-  </si>
-  <si>
-    <t>64418d7094494a7b43e48335</t>
-  </si>
-  <si>
-    <t>647e29ef426b0f007933de10</t>
-  </si>
-  <si>
-    <t>645beb27e6fcaf3f17faafd8</t>
-  </si>
-  <si>
-    <t>5609c0b9f89701aedbaebbcc</t>
-  </si>
-  <si>
-    <t>64ada247fc95c50bc98dd030</t>
-  </si>
-  <si>
-    <t>64b35a2c54ab1c604a34d0fc</t>
-  </si>
-  <si>
-    <t>6499b8a2d4762e2149e238cf</t>
-  </si>
-  <si>
-    <t>64825682c57c9f5a476e2c01</t>
-  </si>
-  <si>
-    <t>645be2dae6fcaf3f17faafca</t>
-  </si>
-  <si>
-    <t>64a06bf019d97124a7a9d35d</t>
-  </si>
-  <si>
-    <t>649b956ad4762e2149e238f5</t>
-  </si>
-  <si>
-    <t>648678b23ee0be657822618e</t>
-  </si>
-  <si>
-    <t>6452ded73879cf70e53ff094</t>
-  </si>
-  <si>
-    <t>6455ac364673c82a34f4ecbe</t>
-  </si>
-  <si>
-    <t>645b15cb4673c82a34f4ed7d</t>
-  </si>
-  <si>
-    <t>646899249e866c1d68eb5744</t>
-  </si>
-  <si>
-    <t>64a4b36ffc95c50bc98dcf99</t>
-  </si>
-  <si>
-    <t>647ba3d6426b0f007933dd66</t>
-  </si>
-  <si>
-    <t>648ff76613f51e5a4696f25b</t>
-  </si>
-  <si>
-    <t>6465541e6117d262815b1095</t>
-  </si>
-  <si>
-    <t>648ffc7f13f51e5a4696f25f</t>
-  </si>
-  <si>
-    <t>646e2f279e866c1d68eb582b</t>
-  </si>
-  <si>
-    <t>648691243ee0be6578226194</t>
-  </si>
-  <si>
-    <t>647811e2426b0f007933dcf8</t>
-  </si>
-  <si>
-    <t>6483781c3ee0be657822617a</t>
-  </si>
-  <si>
-    <t>645bef3de6fcaf3f17faafe0</t>
-  </si>
-  <si>
-    <t>6445e11ee7abb0665474a221</t>
-  </si>
-  <si>
-    <t>6447185fe7abb0665474a22a</t>
-  </si>
-  <si>
     <t>648fad9713f51e5a4696f237</t>
   </si>
   <si>
-    <t>645344323879cf70e53ff0b5</t>
-  </si>
-  <si>
-    <t>648cb98f7c55b27c2c708066</t>
-  </si>
-  <si>
-    <t>645bf66be6fcaf3f17faafe7</t>
-  </si>
-  <si>
-    <t>645bdfb4e6fcaf3f17faafc6</t>
-  </si>
-  <si>
-    <t>64a496a5fc95c50bc98dcf91</t>
-  </si>
-  <si>
-    <t>64332232a90bce6b6c83baed</t>
-  </si>
-  <si>
-    <t>5606bfc4f89701aedbaebb77</t>
-  </si>
-  <si>
-    <t>64aafc46fc95c50bc98dcfeb</t>
-  </si>
-  <si>
-    <t>64698d049e866c1d68eb577c</t>
-  </si>
-  <si>
-    <t>645723304673c82a34f4ece2</t>
-  </si>
-  <si>
-    <t>64bf361e54ab1c604a34d1ec</t>
-  </si>
-  <si>
-    <t>64583b524673c82a34f4ecf4</t>
-  </si>
-  <si>
-    <t>6485228f3ee0be6578226180</t>
-  </si>
-  <si>
-    <t>646c1a8b9e866c1d68eb57b1</t>
-  </si>
-  <si>
-    <t>6499ba22d4762e2149e238d0</t>
-  </si>
-  <si>
-    <t>64962fc113f51e5a4696f270</t>
-  </si>
-  <si>
-    <t>64582b934673c82a34f4ece3</t>
-  </si>
-  <si>
-    <t>648cb6b97c55b27c2c708062</t>
-  </si>
-  <si>
-    <t>648cb62f7c55b27c2c708061</t>
-  </si>
-  <si>
-    <t>648cb5947c55b27c2c708060</t>
-  </si>
-  <si>
-    <t>6470d62b9e866c1d68eb587b</t>
-  </si>
-  <si>
-    <t>64689ef69e866c1d68eb5746</t>
-  </si>
-  <si>
-    <t>64a49840fc95c50bc98dcf92</t>
-  </si>
-  <si>
-    <t>6499bb28d4762e2149e238d1</t>
-  </si>
-  <si>
-    <t>649b94bfd4762e2149e238f4</t>
-  </si>
-  <si>
-    <t>6455d4854673c82a34f4ecd0</t>
-  </si>
-  <si>
-    <t>6498d119d4762e2149e238c4</t>
-  </si>
-  <si>
-    <t>645835cf4673c82a34f4ecef</t>
-  </si>
-  <si>
-    <t>646aedb89e866c1d68eb579d</t>
-  </si>
-  <si>
-    <t>648cb0c37c55b27c2c70805a</t>
-  </si>
-  <si>
-    <t>648a8b297c55b27c2c708024</t>
-  </si>
-  <si>
-    <t>648d5de97c55b27c2c70807e</t>
-  </si>
-  <si>
-    <t>645315243879cf70e53ff0aa</t>
-  </si>
-  <si>
-    <t>64a04eaf19d97124a7a9d34f</t>
-  </si>
-  <si>
-    <t>649a5f91d4762e2149e238e4</t>
-  </si>
-  <si>
-    <t>649a6118d4762e2149e238e6</t>
-  </si>
-  <si>
-    <t>645be028e6fcaf3f17faafc8</t>
-  </si>
-  <si>
-    <t>64825b0ac57c9f5a476e2c04</t>
-  </si>
-  <si>
-    <t>64a12606fc95c50bc98dcf79</t>
-  </si>
-  <si>
-    <t>645bdc31e6fcaf3f17faafc0</t>
-  </si>
-  <si>
-    <t>648d53467c55b27c2c708071</t>
-  </si>
-  <si>
-    <t>648fcdf213f51e5a4696f23b</t>
-  </si>
-  <si>
-    <t>LP-01962</t>
-  </si>
-  <si>
-    <t>LP-01963</t>
-  </si>
-  <si>
-    <t>LP-01964</t>
-  </si>
-  <si>
-    <t>LP-01965</t>
-  </si>
-  <si>
-    <t>LP-01966</t>
-  </si>
-  <si>
-    <t>LP-01967</t>
-  </si>
-  <si>
-    <t>LP-01968</t>
-  </si>
-  <si>
-    <t>LP-01969</t>
-  </si>
-  <si>
-    <t>LP-01971</t>
-  </si>
-  <si>
-    <t>LP-01972</t>
-  </si>
-  <si>
-    <t>LP-01973</t>
-  </si>
-  <si>
-    <t>LP-01975</t>
-  </si>
-  <si>
-    <t>LP-01977</t>
-  </si>
-  <si>
-    <t>LP-01978</t>
-  </si>
-  <si>
-    <t>LP-01980</t>
-  </si>
-  <si>
-    <t>LP-01981</t>
-  </si>
-  <si>
-    <t>LP-01983</t>
-  </si>
-  <si>
-    <t>LP-01984</t>
-  </si>
-  <si>
-    <t>LP-01986</t>
-  </si>
-  <si>
-    <t>LP-01987</t>
-  </si>
-  <si>
-    <t>LP-01988</t>
-  </si>
-  <si>
-    <t>LP-01989</t>
-  </si>
-  <si>
-    <t>LP-01990</t>
-  </si>
-  <si>
-    <t>LP-01991</t>
-  </si>
-  <si>
-    <t>LP-01992</t>
-  </si>
-  <si>
-    <t>LP-01993</t>
-  </si>
-  <si>
-    <t>LP-01994</t>
-  </si>
-  <si>
-    <t>LP-01995</t>
-  </si>
-  <si>
-    <t>LP-01996</t>
-  </si>
-  <si>
-    <t>LP-01997</t>
-  </si>
-  <si>
-    <t>LP-01998</t>
-  </si>
-  <si>
-    <t>LP-01999</t>
-  </si>
-  <si>
-    <t>LP-02000</t>
-  </si>
-  <si>
-    <t>LP-02004</t>
-  </si>
-  <si>
-    <t>LP-02005</t>
-  </si>
-  <si>
-    <t>LP-02006</t>
-  </si>
-  <si>
-    <t>LP-02007</t>
-  </si>
-  <si>
-    <t>LP-02008</t>
-  </si>
-  <si>
-    <t>LP-02009</t>
-  </si>
-  <si>
-    <t>LP-02010</t>
-  </si>
-  <si>
-    <t>LP-02011</t>
-  </si>
-  <si>
-    <t>LP-02012</t>
-  </si>
-  <si>
-    <t>LP-02013</t>
-  </si>
-  <si>
-    <t>LP-02014</t>
-  </si>
-  <si>
-    <t>LP-02015</t>
-  </si>
-  <si>
-    <t>LP-02016</t>
-  </si>
-  <si>
-    <t>LP-02018</t>
-  </si>
-  <si>
-    <t>LP-02019</t>
-  </si>
-  <si>
-    <t>LP-02020</t>
-  </si>
-  <si>
-    <t>LP-02021</t>
-  </si>
-  <si>
-    <t>LP-02022</t>
-  </si>
-  <si>
-    <t>LP-02023</t>
-  </si>
-  <si>
-    <t>LP-02024</t>
-  </si>
-  <si>
-    <t>LP-02025</t>
-  </si>
-  <si>
-    <t>LP-02026</t>
-  </si>
-  <si>
-    <t>LP-02027</t>
-  </si>
-  <si>
-    <t>LP-02028</t>
-  </si>
-  <si>
-    <t>LP-02029</t>
-  </si>
-  <si>
-    <t>LP-02030</t>
-  </si>
-  <si>
-    <t>LP-02031</t>
-  </si>
-  <si>
-    <t>LP-02032</t>
-  </si>
-  <si>
-    <t>LP-02034</t>
-  </si>
-  <si>
-    <t>LP-02035</t>
-  </si>
-  <si>
-    <t>LP-02036</t>
-  </si>
-  <si>
-    <t>LP-02037</t>
-  </si>
-  <si>
-    <t>LP-02038</t>
-  </si>
-  <si>
-    <t>LP-02041</t>
-  </si>
-  <si>
-    <t>LP-02042</t>
-  </si>
-  <si>
-    <t>LP-02043</t>
-  </si>
-  <si>
-    <t>LP-02045</t>
-  </si>
-  <si>
-    <t>LP-02046</t>
-  </si>
-  <si>
-    <t>LP-02047</t>
-  </si>
-  <si>
-    <t>LP-02048</t>
-  </si>
-  <si>
-    <t>LP-02049</t>
-  </si>
-  <si>
-    <t>LP-02050</t>
-  </si>
-  <si>
-    <t>LP-02051</t>
-  </si>
-  <si>
-    <t>LP-02052</t>
-  </si>
-  <si>
-    <t>LP-02053</t>
-  </si>
-  <si>
-    <t>LP-02054</t>
-  </si>
-  <si>
-    <t>LP-02055</t>
-  </si>
-  <si>
-    <t>LP-02056</t>
-  </si>
-  <si>
-    <t>LP-02057</t>
-  </si>
-  <si>
-    <t>LP-02058</t>
-  </si>
-  <si>
-    <t>LP-02059</t>
-  </si>
-  <si>
-    <t>LP-02060</t>
-  </si>
-  <si>
-    <t>LP-02061</t>
-  </si>
-  <si>
-    <t>LP-02062</t>
-  </si>
-  <si>
-    <t>LP-02063</t>
-  </si>
-  <si>
-    <t>LP-02065</t>
-  </si>
-  <si>
-    <t>LP-02066</t>
-  </si>
-  <si>
-    <t>LP-02067</t>
-  </si>
-  <si>
-    <t>LP-02068</t>
-  </si>
-  <si>
-    <t>LP-02069</t>
-  </si>
-  <si>
-    <t>LP-02071</t>
-  </si>
-  <si>
-    <t>LP-02072</t>
-  </si>
-  <si>
-    <t>LP-02073</t>
-  </si>
-  <si>
-    <t>LP-02074</t>
-  </si>
-  <si>
-    <t>LP-02075</t>
-  </si>
-  <si>
-    <t>LP-02076</t>
-  </si>
-  <si>
-    <t>LP-02077</t>
-  </si>
-  <si>
-    <t>LP-02078</t>
-  </si>
-  <si>
-    <t>LP-02079</t>
-  </si>
-  <si>
-    <t>LP-02080</t>
-  </si>
-  <si>
-    <t>LP-02082</t>
-  </si>
-  <si>
-    <t>LP-02083</t>
-  </si>
-  <si>
-    <t>LP-02084</t>
-  </si>
-  <si>
-    <t>LP-02085</t>
-  </si>
-  <si>
-    <t>LP-02086</t>
-  </si>
-  <si>
-    <t>LP-02087</t>
-  </si>
-  <si>
-    <t>LP-02088</t>
-  </si>
-  <si>
-    <t>LP-02089</t>
-  </si>
-  <si>
-    <t>LP-02090</t>
-  </si>
-  <si>
-    <t>LP-02091</t>
-  </si>
-  <si>
-    <t>LP-02093</t>
-  </si>
-  <si>
-    <t>LP-02094</t>
-  </si>
-  <si>
-    <t>LP-02096</t>
-  </si>
-  <si>
-    <t>LP-02098</t>
-  </si>
-  <si>
-    <t>LP-02099</t>
-  </si>
-  <si>
-    <t>LP-02100</t>
-  </si>
-  <si>
-    <t>LP-02101</t>
-  </si>
-  <si>
-    <t>LP-02106</t>
-  </si>
-  <si>
-    <t>LP-02107</t>
-  </si>
-  <si>
-    <t>LP-02108</t>
-  </si>
-  <si>
-    <t>LP-02109</t>
-  </si>
-  <si>
-    <t>LP-02110</t>
-  </si>
-  <si>
-    <t>LP-02112</t>
-  </si>
-  <si>
-    <t>LP-02113</t>
-  </si>
-  <si>
-    <t>LP-02114</t>
-  </si>
-  <si>
-    <t>LP-02115</t>
-  </si>
-  <si>
-    <t>LP-02116</t>
-  </si>
-  <si>
-    <t>LP-02117</t>
-  </si>
-  <si>
-    <t>LP-02118</t>
-  </si>
-  <si>
-    <t>LP-02120</t>
-  </si>
-  <si>
-    <t>LP-02121</t>
-  </si>
-  <si>
-    <t>LP-02123</t>
-  </si>
-  <si>
-    <t>LP-02124</t>
-  </si>
-  <si>
-    <t>LP-02125</t>
-  </si>
-  <si>
-    <t>LP-02126</t>
-  </si>
-  <si>
-    <t>LP-02128</t>
-  </si>
-  <si>
-    <t>LP-02130</t>
-  </si>
-  <si>
-    <t>LP-02131</t>
-  </si>
-  <si>
-    <t>LP-02133</t>
-  </si>
-  <si>
-    <t>LP-02135</t>
-  </si>
-  <si>
-    <t>LP-02137</t>
-  </si>
-  <si>
-    <t>LP-02139</t>
-  </si>
-  <si>
-    <t>LP-02141</t>
-  </si>
-  <si>
-    <t>LP-02143</t>
-  </si>
-  <si>
-    <t>LP-02144</t>
-  </si>
-  <si>
-    <t>LP-02145</t>
-  </si>
-  <si>
-    <t>LP-02146</t>
-  </si>
-  <si>
-    <t>LP-02149</t>
-  </si>
-  <si>
-    <t>LP-02150</t>
-  </si>
-  <si>
-    <t>LP-02151</t>
-  </si>
-  <si>
-    <t>LP-02152</t>
-  </si>
-  <si>
-    <t>LP-02153</t>
-  </si>
-  <si>
-    <t>LP-02154</t>
-  </si>
-  <si>
-    <t>LP-02156</t>
-  </si>
-  <si>
-    <t>LP-02157</t>
-  </si>
-  <si>
-    <t>LP-02158</t>
-  </si>
-  <si>
-    <t>LP-02160</t>
-  </si>
-  <si>
-    <t>LP-02161</t>
-  </si>
-  <si>
-    <t>LP-02162</t>
-  </si>
-  <si>
-    <t>LP-02164</t>
-  </si>
-  <si>
-    <t>LP-02165</t>
-  </si>
-  <si>
-    <t>LP-02166</t>
-  </si>
-  <si>
-    <t>LP-02167</t>
-  </si>
-  <si>
-    <t>LP-02168</t>
-  </si>
-  <si>
-    <t>LP-02169</t>
-  </si>
-  <si>
-    <t>LP-02170</t>
-  </si>
-  <si>
-    <t>LP-02171</t>
-  </si>
-  <si>
-    <t>LP-02172</t>
-  </si>
-  <si>
-    <t>LP-02175</t>
-  </si>
-  <si>
-    <t>LP-02176</t>
-  </si>
-  <si>
-    <t>LP-02178</t>
-  </si>
-  <si>
-    <t>LP-02179</t>
+    <t>646841c99e866c1d68eb5710</t>
+  </si>
+  <si>
+    <t>646808f39e866c1d68eb56fc</t>
+  </si>
+  <si>
+    <t>64794de4426b0f007933dd03</t>
+  </si>
+  <si>
+    <t>6477aee6426b0f007933dce8</t>
+  </si>
+  <si>
+    <t>648fcf2913f51e5a4696f23d</t>
+  </si>
+  <si>
+    <t>646eda609e866c1d68eb583f</t>
+  </si>
+  <si>
+    <t>645efdcce6fcaf3f17fab04e</t>
+  </si>
+  <si>
+    <t>644b4fc83879cf70e53ff010</t>
+  </si>
+  <si>
+    <t>6433114aa90bce6b6c83bae5</t>
+  </si>
+  <si>
+    <t>649a5a18d4762e2149e238dc</t>
+  </si>
+  <si>
+    <t>64331043a90bce6b6c83bae4</t>
+  </si>
+  <si>
+    <t>6461bea0e6fcaf3f17fab0ba</t>
+  </si>
+  <si>
+    <t>64a49c48fc95c50bc98dcf95</t>
+  </si>
+  <si>
+    <t>647ab91b426b0f007933dd17</t>
+  </si>
+  <si>
+    <t>648ffa7d13f51e5a4696f25e</t>
+  </si>
+  <si>
+    <t>645446003879cf70e53ff0c6</t>
+  </si>
+  <si>
+    <t>64876b283ee0be65782261a3</t>
+  </si>
+  <si>
+    <t>645be8a4e6fcaf3f17faafd4</t>
+  </si>
+  <si>
+    <t>64668aa26117d262815b10ac</t>
+  </si>
+  <si>
+    <t>646685a46117d262815b10ab</t>
+  </si>
+  <si>
+    <t>646684bd6117d262815b10a8</t>
+  </si>
+  <si>
+    <t>64700b3e9e866c1d68eb5860</t>
+  </si>
+  <si>
+    <t>64471a76e7abb0665474a22d</t>
+  </si>
+  <si>
+    <t>6470ec359e866c1d68eb5889</t>
+  </si>
+  <si>
+    <t>646fab3a9e866c1d68eb5843</t>
+  </si>
+  <si>
+    <t>648d54347c55b27c2c708072</t>
+  </si>
+  <si>
+    <t>646faa769e866c1d68eb5842</t>
+  </si>
+  <si>
+    <t>646e30939e866c1d68eb582d</t>
+  </si>
+  <si>
+    <t>646e31559e866c1d68eb582f</t>
+  </si>
+  <si>
+    <t>647e395f426b0f007933de1e</t>
+  </si>
+  <si>
+    <t>64a71b96fc95c50bc98dcfac</t>
+  </si>
+  <si>
+    <t>646191a9e6fcaf3f17fab092</t>
+  </si>
+  <si>
+    <t>647abd16426b0f007933dd19</t>
+  </si>
+  <si>
+    <t>64a4891ffc95c50bc98dcf8f</t>
+  </si>
+  <si>
+    <t>648b5c4f7c55b27c2c70802c</t>
+  </si>
+  <si>
+    <t>644b226ce7abb0665474a298</t>
+  </si>
+  <si>
+    <t>64acb1a4fc95c50bc98dd01d</t>
+  </si>
+  <si>
+    <t>64acb57efc95c50bc98dd01e</t>
+  </si>
+  <si>
+    <t>6496449613f51e5a4696f279</t>
+  </si>
+  <si>
+    <t>64333f6ea90bce6b6c83bafd</t>
+  </si>
+  <si>
+    <t>64813e81c57c9f5a476e2bbc</t>
+  </si>
+  <si>
+    <t>646987d89e866c1d68eb5777</t>
+  </si>
+  <si>
+    <t>64c44ea654ab1c604a34d354</t>
+  </si>
+  <si>
+    <t>648faa6213f51e5a4696f233</t>
+  </si>
+  <si>
+    <t>64794b59426b0f007933dd01</t>
+  </si>
+  <si>
+    <t>64a0741619d97124a7a9d363</t>
+  </si>
+  <si>
+    <t>64698dcb9e866c1d68eb577d</t>
+  </si>
+  <si>
+    <t>6473b541426b0f007933dcc2</t>
+  </si>
+  <si>
+    <t>647950fd426b0f007933dd05</t>
+  </si>
+  <si>
+    <t>64795281426b0f007933dd06</t>
+  </si>
+  <si>
+    <t>648a4e2e7c55b27c2c708011</t>
+  </si>
+  <si>
+    <t>647e325f426b0f007933de19</t>
+  </si>
+  <si>
+    <t>6433127aa90bce6b6c83bae6</t>
+  </si>
+  <si>
+    <t>646c296f9e866c1d68eb57b8</t>
+  </si>
+  <si>
+    <t>646c29e59e866c1d68eb57b9</t>
+  </si>
+  <si>
+    <t>644b4c5d3879cf70e53ff00a</t>
+  </si>
+  <si>
+    <t>6499b379d4762e2149e238cb</t>
+  </si>
+  <si>
+    <t>645427353879cf70e53ff0c2</t>
+  </si>
+  <si>
+    <t>6454a13a3879cf70e53ff0cb</t>
+  </si>
+  <si>
+    <t>64701f449e866c1d68eb5868</t>
+  </si>
+  <si>
+    <t>6473bad2426b0f007933dccb</t>
+  </si>
+  <si>
+    <t>647d1faa426b0f007933ddfb</t>
+  </si>
+  <si>
+    <t>6451d97e3879cf70e53ff07b</t>
+  </si>
+  <si>
+    <t>6496407b13f51e5a4696f278</t>
+  </si>
+  <si>
+    <t>6477f728426b0f007933dcec</t>
+  </si>
+  <si>
+    <t>6455ecf64673c82a34f4ecd1</t>
+  </si>
+  <si>
+    <t>648d56607c55b27c2c708074</t>
+  </si>
+  <si>
+    <t>64780cf4426b0f007933dcf4</t>
+  </si>
+  <si>
+    <t>645bf716e6fcaf3f17faafe8</t>
+  </si>
+  <si>
+    <t>64a4b9a0fc95c50bc98dcf9c</t>
+  </si>
+  <si>
+    <t>6451d8f53879cf70e53ff07a</t>
+  </si>
+  <si>
+    <t>6459df104673c82a34f4ed17</t>
+  </si>
+  <si>
+    <t>6452dfb33879cf70e53ff095</t>
+  </si>
+  <si>
+    <t>6452e0523879cf70e53ff096</t>
+  </si>
+  <si>
+    <t>64668b806117d262815b10ad</t>
+  </si>
+  <si>
+    <t>6433146da90bce6b6c83bae7</t>
+  </si>
+  <si>
+    <t>648a8c6c7c55b27c2c708025</t>
+  </si>
+  <si>
+    <t>6447411de7abb0665474a234</t>
+  </si>
+  <si>
+    <t>648d6d597c55b27c2c708087</t>
+  </si>
+  <si>
+    <t>64ad87f6fc95c50bc98dd02c</t>
+  </si>
+  <si>
+    <t>6482509ec57c9f5a476e2bfd</t>
+  </si>
+  <si>
+    <t>6462cb57e6fcaf3f17fab0c5</t>
+  </si>
+  <si>
+    <t>6487feaa3ee0be65782261bc</t>
+  </si>
+  <si>
+    <t>64a9cc54fc95c50bc98dcfbd</t>
+  </si>
+  <si>
+    <t>64618feae6fcaf3f17fab090</t>
+  </si>
+  <si>
+    <t>646190b2e6fcaf3f17fab091</t>
+  </si>
+  <si>
+    <t>64a49a01fc95c50bc98dcf93</t>
+  </si>
+  <si>
+    <t>6477fd0e426b0f007933dcf0</t>
+  </si>
+  <si>
+    <t>647e2f39426b0f007933de16</t>
+  </si>
+  <si>
+    <t>64794f23426b0f007933dd04</t>
+  </si>
+  <si>
+    <t>645bea00e6fcaf3f17faafd6</t>
+  </si>
+  <si>
+    <t>647e37e9426b0f007933de1d</t>
+  </si>
+  <si>
+    <t>64794943426b0f007933dd00</t>
+  </si>
+  <si>
+    <t>649a5ea2d4762e2149e238e3</t>
+  </si>
+  <si>
+    <t>648b5bbe7c55b27c2c70802b</t>
+  </si>
+  <si>
+    <t>64471c00e7abb0665474a22e</t>
+  </si>
+  <si>
+    <t>647e3aa2426b0f007933de1f</t>
+  </si>
+  <si>
+    <t>64af528c54ab1c604a34d052</t>
+  </si>
+  <si>
+    <t>645bdce0e6fcaf3f17faafc1</t>
+  </si>
+  <si>
+    <t>646e2e5d9e866c1d68eb582a</t>
+  </si>
+  <si>
+    <t>645bfd3de6fcaf3f17faaff2</t>
+  </si>
+  <si>
+    <t>64688b659e866c1d68eb573b</t>
+  </si>
+  <si>
+    <t>64688c1f9e866c1d68eb573c</t>
+  </si>
+  <si>
+    <t>648fd45913f51e5a4696f243</t>
+  </si>
+  <si>
+    <t>646c19f79e866c1d68eb57b0</t>
+  </si>
+  <si>
+    <t>646d039a9e866c1d68eb57e2</t>
+  </si>
+  <si>
+    <t>64794c46426b0f007933dd02</t>
+  </si>
+  <si>
+    <t>646c307f9e866c1d68eb57c0</t>
+  </si>
+  <si>
+    <t>648524493ee0be6578226181</t>
+  </si>
+  <si>
+    <t>646c2ffc9e866c1d68eb57bf</t>
+  </si>
+  <si>
+    <t>64a4b626fc95c50bc98dcf9a</t>
+  </si>
+  <si>
+    <t>645dde31e6fcaf3f17fab017</t>
+  </si>
+  <si>
+    <t>643a142c4ac6203737fd6e41</t>
+  </si>
+  <si>
+    <t>64484a6ee7abb0665474a242</t>
+  </si>
+  <si>
+    <t>648fdb6513f51e5a4696f246</t>
+  </si>
+  <si>
+    <t>648fdc1213f51e5a4696f247</t>
+  </si>
+  <si>
+    <t>645be424e6fcaf3f17faafcc</t>
+  </si>
+  <si>
+    <t>645bed70e6fcaf3f17faafdc</t>
+  </si>
+  <si>
+    <t>648fdc9013f51e5a4696f248</t>
+  </si>
+  <si>
+    <t>648fde3b13f51e5a4696f24c</t>
+  </si>
+  <si>
+    <t>6477aff9426b0f007933dce9</t>
+  </si>
+  <si>
+    <t>6441bab494494a7b43e4833e</t>
+  </si>
+  <si>
+    <t>6468340b9e866c1d68eb570f</t>
+  </si>
+  <si>
+    <t>646561e46117d262815b1099</t>
+  </si>
+  <si>
+    <t>645bdd62e6fcaf3f17faafc2</t>
+  </si>
+  <si>
+    <t>645ddec0e6fcaf3f17fab018</t>
+  </si>
+  <si>
+    <t>64488f03e7abb0665474a259</t>
+  </si>
+  <si>
+    <t>645becebe6fcaf3f17faafdb</t>
+  </si>
+  <si>
+    <t>6453036b3879cf70e53ff0a5</t>
+  </si>
+  <si>
+    <t>64ae0cf0fc95c50bc98dd03c</t>
+  </si>
+  <si>
+    <t>64adef33fc95c50bc98dd036</t>
+  </si>
+  <si>
+    <t>64ae37f7fc95c50bc98dd040</t>
+  </si>
+  <si>
+    <t>646c31a39e866c1d68eb57c2</t>
+  </si>
+  <si>
+    <t>647947df426b0f007933dcff</t>
+  </si>
+  <si>
+    <t>64ae374bfc95c50bc98dd03f</t>
+  </si>
+  <si>
+    <t>646434786117d262815b1080</t>
+  </si>
+  <si>
+    <t>6464352a6117d262815b1081</t>
+  </si>
+  <si>
+    <t>64af647f54ab1c604a34d055</t>
+  </si>
+  <si>
+    <t>644850fce7abb0665474a24a</t>
+  </si>
+  <si>
+    <t>64a4a021fc95c50bc98dcf98</t>
+  </si>
+  <si>
+    <t>646d02b49e866c1d68eb57e1</t>
+  </si>
+  <si>
+    <t>646af1aa9e866c1d68eb57a1</t>
+  </si>
+  <si>
+    <t>646af09c9e866c1d68eb57a0</t>
+  </si>
+  <si>
+    <t>646af2549e866c1d68eb57a2</t>
+  </si>
+  <si>
+    <t>64c4606154ab1c604a34d371</t>
+  </si>
+  <si>
+    <t>64c45fb554ab1c604a34d370</t>
+  </si>
+  <si>
+    <t>64c45eb754ab1c604a34d36f</t>
+  </si>
+  <si>
+    <t>6468322c9e866c1d68eb570c</t>
+  </si>
+  <si>
+    <t>6470d7789e866c1d68eb587d</t>
+  </si>
+  <si>
+    <t>648d6c827c55b27c2c708086</t>
+  </si>
+  <si>
+    <t>645bddeee6fcaf3f17faafc3</t>
+  </si>
+  <si>
+    <t>64680b839e866c1d68eb56fe</t>
+  </si>
+  <si>
+    <t>646842859e866c1d68eb5711</t>
+  </si>
+  <si>
+    <t>646976359e866c1d68eb5769</t>
+  </si>
+  <si>
+    <t>645be645e6fcaf3f17faafd0</t>
+  </si>
+  <si>
+    <t>64697a309e866c1d68eb576e</t>
+  </si>
+  <si>
+    <t>644b217be7abb0665474a297</t>
+  </si>
+  <si>
+    <t>6463e0276117d262815b1079</t>
+  </si>
+  <si>
+    <t>6463e0b46117d262815b107a</t>
+  </si>
+  <si>
+    <t>646c1b4d9e866c1d68eb57b2</t>
+  </si>
+  <si>
+    <t>645e71cce6fcaf3f17fab03a</t>
+  </si>
+  <si>
+    <t>644b237ae7abb0665474a299</t>
+  </si>
+  <si>
+    <t>64a12777fc95c50bc98dcf7a</t>
+  </si>
+  <si>
+    <t>64405a594ac6203737fd6e88</t>
+  </si>
+  <si>
+    <t>64330f0ba90bce6b6c83bae3</t>
+  </si>
+  <si>
+    <t>645838214673c82a34f4ecf2</t>
+  </si>
+  <si>
+    <t>6444d848e7abb0665474a210</t>
+  </si>
+  <si>
+    <t>64ae0a8ffc95c50bc98dd03a</t>
+  </si>
+  <si>
+    <t>648cbd827c55b27c2c70806c</t>
+  </si>
+  <si>
+    <t>6470efbe9e866c1d68eb588d</t>
+  </si>
+  <si>
+    <t>64667ba46117d262815b10a3</t>
+  </si>
+  <si>
+    <t>64667c396117d262815b10a4</t>
+  </si>
+  <si>
+    <t>64667c756117d262815b10a5</t>
+  </si>
+  <si>
+    <t>645bf812e6fcaf3f17faafe9</t>
+  </si>
+  <si>
+    <t>6483e04b3ee0be657822617d</t>
+  </si>
+  <si>
+    <t>64697d6b9e866c1d68eb5772</t>
+  </si>
+  <si>
+    <t>643a15b84ac6203737fd6e43</t>
+  </si>
+  <si>
+    <t>64591e354673c82a34f4ecf9</t>
+  </si>
+  <si>
+    <t>64816c9cc57c9f5a476e2bc4</t>
+  </si>
+  <si>
+    <t>55f71b86f58614cf075b763c</t>
+  </si>
+  <si>
+    <t>645bde86e6fcaf3f17faafc4</t>
+  </si>
+  <si>
+    <t>646aed1c9e866c1d68eb579c</t>
+  </si>
+  <si>
+    <t>6470ee539e866c1d68eb588a</t>
+  </si>
+  <si>
+    <t>645ddf5ce6fcaf3f17fab019</t>
+  </si>
+  <si>
+    <t>645ddfece6fcaf3f17fab01a</t>
+  </si>
+  <si>
+    <t>64a49debfc95c50bc98dcf96</t>
+  </si>
+  <si>
+    <t>64a4bcc6fc95c50bc98dcf9f</t>
+  </si>
+  <si>
+    <t>64618ec0e6fcaf3f17fab08f</t>
+  </si>
+  <si>
+    <t>648ff89a13f51e5a4696f25d</t>
+  </si>
+  <si>
+    <t>6497c175d4762e2149e238ba</t>
+  </si>
+  <si>
+    <t>6498d8dcd4762e2149e238c8</t>
+  </si>
+  <si>
+    <t>560dfe0bf89701aedbaebc05</t>
+  </si>
+  <si>
+    <t>646c2cc89e866c1d68eb57be</t>
+  </si>
+  <si>
+    <t>646fafc49e866c1d68eb5847</t>
+  </si>
+  <si>
+    <t>6452e1653879cf70e53ff097</t>
+  </si>
+  <si>
+    <t>646977319e866c1d68eb576b</t>
+  </si>
+  <si>
+    <t>6463df776117d262815b1078</t>
+  </si>
+  <si>
+    <t>64ad890ffc95c50bc98dd02d</t>
+  </si>
+  <si>
+    <t>646e34909e866c1d68eb5832</t>
+  </si>
+  <si>
+    <t>646e35389e866c1d68eb5833</t>
+  </si>
+  <si>
+    <t>6470370f9e866c1d68eb586e</t>
+  </si>
+  <si>
+    <t>647045bd9e866c1d68eb586f</t>
+  </si>
+  <si>
+    <t>6470eb3d9e866c1d68eb5888</t>
+  </si>
+  <si>
+    <t>6470d5039e866c1d68eb587a</t>
+  </si>
+  <si>
+    <t>6461b952e6fcaf3f17fab0b3</t>
+  </si>
+  <si>
+    <t>647020489e866c1d68eb5869</t>
+  </si>
+  <si>
+    <t>647035c49e866c1d68eb586c</t>
+  </si>
+  <si>
+    <t>645bdf16e6fcaf3f17faafc5</t>
+  </si>
+  <si>
+    <t>647e2ca6426b0f007933de12</t>
+  </si>
+  <si>
+    <t>6477f65e426b0f007933dceb</t>
+  </si>
+  <si>
+    <t>645b16654673c82a34f4ed7e</t>
+  </si>
+  <si>
+    <t>645b16f44673c82a34f4ed7f</t>
+  </si>
+  <si>
+    <t>6470e9b19e866c1d68eb5886</t>
+  </si>
+  <si>
+    <t>6451dc383879cf70e53ff07f</t>
+  </si>
+  <si>
+    <t>648d6e1c7c55b27c2c708088</t>
+  </si>
+  <si>
+    <t>6455b9b74673c82a34f4eccb</t>
+  </si>
+  <si>
+    <t>645313d73879cf70e53ff0a9</t>
+  </si>
+  <si>
+    <t>6483657b3ee0be6578226177</t>
+  </si>
+  <si>
+    <t>6462cec8e6fcaf3f17fab0c7</t>
+  </si>
+  <si>
+    <t>64ad8021fc95c50bc98dd02a</t>
+  </si>
+  <si>
+    <t>647e31a3426b0f007933de18</t>
+  </si>
+  <si>
+    <t>645be6cbe6fcaf3f17faafd1</t>
+  </si>
+  <si>
+    <t>645be360e6fcaf3f17faafcb</t>
+  </si>
+  <si>
+    <t>645b17934673c82a34f4ed80</t>
+  </si>
+  <si>
+    <t>6477f54a426b0f007933dcea</t>
+  </si>
+  <si>
+    <t>64471cf9e7abb0665474a22f</t>
+  </si>
+  <si>
+    <t>643315caa90bce6b6c83bae8</t>
+  </si>
+  <si>
+    <t>64488e23e7abb0665474a258</t>
+  </si>
+  <si>
+    <t>6496633213f51e5a4696f27c</t>
+  </si>
+  <si>
+    <t>6499b4acd4762e2149e238cc</t>
+  </si>
+  <si>
+    <t>648cba147c55b27c2c708067</t>
+  </si>
+  <si>
+    <t>64aafe62fc95c50bc98dcfec</t>
+  </si>
+  <si>
+    <t>64ab036ffc95c50bc98dcfef</t>
+  </si>
+  <si>
+    <t>64ab00b8fc95c50bc98dcfed</t>
+  </si>
+  <si>
+    <t>648ff10f13f51e5a4696f258</t>
+  </si>
+  <si>
+    <t>647ffd8e426b0f007933de3d</t>
+  </si>
+  <si>
+    <t>64a9be73fc95c50bc98dcfbb</t>
+  </si>
+  <si>
+    <t>64550bd43879cf70e53ff0cf</t>
+  </si>
+  <si>
+    <t>644a043be7abb0665474a288</t>
+  </si>
+  <si>
+    <t>64b045f354ab1c604a34d075</t>
+  </si>
+  <si>
+    <t>6496466c13f51e5a4696f27a</t>
+  </si>
+  <si>
+    <t>6498d6add4762e2149e238c7</t>
+  </si>
+  <si>
+    <t>648367573ee0be6578226178</t>
+  </si>
+  <si>
+    <t>64583e714673c82a34f4ecf5</t>
+  </si>
+  <si>
+    <t>645833bb4673c82a34f4eced</t>
+  </si>
+  <si>
+    <t>64bd638a54ab1c604a34d1d2</t>
+  </si>
+  <si>
+    <t>64bb517f54ab1c604a34d199</t>
+  </si>
+  <si>
+    <t>64bb4fc054ab1c604a34d197</t>
+  </si>
+  <si>
+    <t>64bb4ea954ab1c604a34d196</t>
+  </si>
+  <si>
+    <t>64bb4dc154ab1c604a34d195</t>
+  </si>
+  <si>
+    <t>64bb4c5954ab1c604a34d193</t>
+  </si>
+  <si>
+    <t>64bb4b0d54ab1c604a34d192</t>
+  </si>
+  <si>
+    <t>649b933ed4762e2149e238f3</t>
+  </si>
+  <si>
+    <t>649c66a2d4762e2149e238f8</t>
+  </si>
+  <si>
+    <t>649c68a9d4762e2149e238fa</t>
+  </si>
+  <si>
+    <t>649c69a5d4762e2149e238fb</t>
+  </si>
+  <si>
+    <t>649c6aa1d4762e2149e238fd</t>
+  </si>
+  <si>
+    <t>649c6bbad4762e2149e238ff</t>
+  </si>
+  <si>
+    <t>64b8aefb54ab1c604a34d141</t>
+  </si>
+  <si>
+    <t>649dcf56d4762e2149e23905</t>
+  </si>
+  <si>
+    <t>649de4bcd4762e2149e2390b</t>
+  </si>
+  <si>
+    <t>649de547d4762e2149e2390c</t>
+  </si>
+  <si>
+    <t>64b443d254ab1c604a34d101</t>
+  </si>
+  <si>
+    <t>64a2f841fc95c50bc98dcf7b</t>
+  </si>
+  <si>
+    <t>64a2f99afc95c50bc98dcf7c</t>
+  </si>
+  <si>
+    <t>64a30238fc95c50bc98dcf82</t>
+  </si>
+  <si>
+    <t>64a300b5fc95c50bc98dcf81</t>
+  </si>
+  <si>
+    <t>64a2fd9dfc95c50bc98dcf7e</t>
+  </si>
+  <si>
+    <t>647ab69e426b0f007933dd15</t>
+  </si>
+  <si>
+    <t>LP-02185</t>
+  </si>
+  <si>
+    <t>LP-02186</t>
+  </si>
+  <si>
+    <t>LP-02188</t>
+  </si>
+  <si>
+    <t>LP-02189</t>
+  </si>
+  <si>
+    <t>LP-02190</t>
+  </si>
+  <si>
+    <t>LP-02191</t>
+  </si>
+  <si>
+    <t>LP-02192</t>
+  </si>
+  <si>
+    <t>LP-02194</t>
+  </si>
+  <si>
+    <t>LP-02195</t>
+  </si>
+  <si>
+    <t>LP-02196</t>
+  </si>
+  <si>
+    <t>LP-02197</t>
+  </si>
+  <si>
+    <t>LP-02198</t>
+  </si>
+  <si>
+    <t>LP-02200</t>
+  </si>
+  <si>
+    <t>LP-02201</t>
+  </si>
+  <si>
+    <t>LP-02202</t>
+  </si>
+  <si>
+    <t>LP-02205</t>
+  </si>
+  <si>
+    <t>LP-02207</t>
+  </si>
+  <si>
+    <t>LP-02209</t>
+  </si>
+  <si>
+    <t>LP-02210</t>
+  </si>
+  <si>
+    <t>LP-02211</t>
+  </si>
+  <si>
+    <t>LP-02212</t>
+  </si>
+  <si>
+    <t>LP-02213</t>
+  </si>
+  <si>
+    <t>LP-02214</t>
+  </si>
+  <si>
+    <t>LP-02215</t>
+  </si>
+  <si>
+    <t>LP-02217</t>
+  </si>
+  <si>
+    <t>LP-02218</t>
+  </si>
+  <si>
+    <t>LP-02223</t>
+  </si>
+  <si>
+    <t>LP-02224</t>
+  </si>
+  <si>
+    <t>LP-02225</t>
+  </si>
+  <si>
+    <t>LP-02226</t>
+  </si>
+  <si>
+    <t>LP-02227</t>
+  </si>
+  <si>
+    <t>LP-02231</t>
+  </si>
+  <si>
+    <t>LP-02232</t>
+  </si>
+  <si>
+    <t>LP-02234</t>
+  </si>
+  <si>
+    <t>LP-02236</t>
+  </si>
+  <si>
+    <t>LP-02237</t>
+  </si>
+  <si>
+    <t>LP-02238</t>
+  </si>
+  <si>
+    <t>LP-02240</t>
+  </si>
+  <si>
+    <t>LP-02241</t>
+  </si>
+  <si>
+    <t>LP-02242</t>
+  </si>
+  <si>
+    <t>LP-02244</t>
+  </si>
+  <si>
+    <t>LP-02246</t>
+  </si>
+  <si>
+    <t>LP-02247</t>
+  </si>
+  <si>
+    <t>LP-02249</t>
+  </si>
+  <si>
+    <t>LP-02250</t>
+  </si>
+  <si>
+    <t>LP-02252</t>
+  </si>
+  <si>
+    <t>LP-02253</t>
+  </si>
+  <si>
+    <t>LP-02259</t>
+  </si>
+  <si>
+    <t>LP-02260</t>
+  </si>
+  <si>
+    <t>LP-02261</t>
+  </si>
+  <si>
+    <t>LP-02262</t>
+  </si>
+  <si>
+    <t>LP-02263</t>
+  </si>
+  <si>
+    <t>LP-02267</t>
+  </si>
+  <si>
+    <t>LP-02268</t>
+  </si>
+  <si>
+    <t>LP-02269</t>
+  </si>
+  <si>
+    <t>LP-02270</t>
+  </si>
+  <si>
+    <t>LP-02271</t>
+  </si>
+  <si>
+    <t>LP-02272</t>
+  </si>
+  <si>
+    <t>LP-02273</t>
+  </si>
+  <si>
+    <t>LP-02274</t>
+  </si>
+  <si>
+    <t>LP-02280</t>
+  </si>
+  <si>
+    <t>LP-02281</t>
+  </si>
+  <si>
+    <t>LP-02283</t>
+  </si>
+  <si>
+    <t>LP-02284</t>
+  </si>
+  <si>
+    <t>LP-02285</t>
+  </si>
+  <si>
+    <t>LP-02286</t>
+  </si>
+  <si>
+    <t>LP-02292</t>
+  </si>
+  <si>
+    <t>LP-02294</t>
+  </si>
+  <si>
+    <t>LP-02296</t>
+  </si>
+  <si>
+    <t>LP-02297</t>
+  </si>
+  <si>
+    <t>LP-02298</t>
+  </si>
+  <si>
+    <t>LP-02299</t>
+  </si>
+  <si>
+    <t>LP-02300</t>
+  </si>
+  <si>
+    <t>LP-02304</t>
+  </si>
+  <si>
+    <t>LP-02305</t>
+  </si>
+  <si>
+    <t>LP-02308</t>
+  </si>
+  <si>
+    <t>LP-02311</t>
+  </si>
+  <si>
+    <t>LP-02312</t>
+  </si>
+  <si>
+    <t>LP-02313</t>
+  </si>
+  <si>
+    <t>LP-02315</t>
+  </si>
+  <si>
+    <t>LP-02316</t>
+  </si>
+  <si>
+    <t>LP-02317</t>
+  </si>
+  <si>
+    <t>LP-02318</t>
+  </si>
+  <si>
+    <t>LP-02320</t>
+  </si>
+  <si>
+    <t>LP-02321</t>
+  </si>
+  <si>
+    <t>LP-02322</t>
+  </si>
+  <si>
+    <t>LP-02323</t>
+  </si>
+  <si>
+    <t>LP-02325</t>
+  </si>
+  <si>
+    <t>LP-02326</t>
+  </si>
+  <si>
+    <t>LP-02327</t>
+  </si>
+  <si>
+    <t>LP-02328</t>
+  </si>
+  <si>
+    <t>LP-02329</t>
+  </si>
+  <si>
+    <t>LP-02330</t>
+  </si>
+  <si>
+    <t>LP-02331</t>
+  </si>
+  <si>
+    <t>LP-02336</t>
+  </si>
+  <si>
+    <t>LP-02337</t>
+  </si>
+  <si>
+    <t>LP-02338</t>
+  </si>
+  <si>
+    <t>LP-02340</t>
+  </si>
+  <si>
+    <t>LP-02341</t>
+  </si>
+  <si>
+    <t>LP-02342</t>
+  </si>
+  <si>
+    <t>LP-02343</t>
+  </si>
+  <si>
+    <t>LP-02344</t>
+  </si>
+  <si>
+    <t>LP-02345</t>
+  </si>
+  <si>
+    <t>LP-02346</t>
+  </si>
+  <si>
+    <t>LP-02349</t>
+  </si>
+  <si>
+    <t>LP-02350</t>
+  </si>
+  <si>
+    <t>LP-02353</t>
+  </si>
+  <si>
+    <t>LP-02354</t>
+  </si>
+  <si>
+    <t>LP-02363</t>
+  </si>
+  <si>
+    <t>LP-02367</t>
+  </si>
+  <si>
+    <t>LP-02368</t>
+  </si>
+  <si>
+    <t>LP-02369</t>
+  </si>
+  <si>
+    <t>LP-02370</t>
+  </si>
+  <si>
+    <t>LP-02374</t>
+  </si>
+  <si>
+    <t>LP-02376</t>
+  </si>
+  <si>
+    <t>LP-02377</t>
+  </si>
+  <si>
+    <t>LP-02378</t>
+  </si>
+  <si>
+    <t>LP-02379</t>
+  </si>
+  <si>
+    <t>LP-02380</t>
+  </si>
+  <si>
+    <t>LP-02381</t>
+  </si>
+  <si>
+    <t>LP-02382</t>
+  </si>
+  <si>
+    <t>LP-02383</t>
+  </si>
+  <si>
+    <t>LP-02384</t>
+  </si>
+  <si>
+    <t>LP-02385</t>
+  </si>
+  <si>
+    <t>LP-02386</t>
+  </si>
+  <si>
+    <t>LP-02387</t>
+  </si>
+  <si>
+    <t>LP-02388</t>
+  </si>
+  <si>
+    <t>LP-02389</t>
+  </si>
+  <si>
+    <t>LP-02390</t>
+  </si>
+  <si>
+    <t>LP-02391</t>
+  </si>
+  <si>
+    <t>LP-02393</t>
+  </si>
+  <si>
+    <t>LP-02395</t>
+  </si>
+  <si>
+    <t>LP-02396</t>
+  </si>
+  <si>
+    <t>LP-02397</t>
+  </si>
+  <si>
+    <t>LP-02398</t>
+  </si>
+  <si>
+    <t>LP-02399</t>
+  </si>
+  <si>
+    <t>LP-02400</t>
+  </si>
+  <si>
+    <t>LP-02401</t>
+  </si>
+  <si>
+    <t>LP-02404</t>
+  </si>
+  <si>
+    <t>LP-02406</t>
+  </si>
+  <si>
+    <t>LP-02408</t>
+  </si>
+  <si>
+    <t>LP-02410</t>
+  </si>
+  <si>
+    <t>LP-02411</t>
+  </si>
+  <si>
+    <t>LP-02412</t>
+  </si>
+  <si>
+    <t>LP-02413</t>
+  </si>
+  <si>
+    <t>LP-02414</t>
+  </si>
+  <si>
+    <t>LP-02415</t>
+  </si>
+  <si>
+    <t>LP-02416</t>
+  </si>
+  <si>
+    <t>LP-02417</t>
+  </si>
+  <si>
+    <t>LP-02418</t>
+  </si>
+  <si>
+    <t>LP-02419</t>
+  </si>
+  <si>
+    <t>LP-02420</t>
+  </si>
+  <si>
+    <t>LP-02423</t>
+  </si>
+  <si>
+    <t>LP-02424</t>
+  </si>
+  <si>
+    <t>LP-02425</t>
+  </si>
+  <si>
+    <t>LP-02427</t>
+  </si>
+  <si>
+    <t>LP-02428</t>
+  </si>
+  <si>
+    <t>LP-02429</t>
+  </si>
+  <si>
+    <t>LP-02431</t>
+  </si>
+  <si>
+    <t>LP-02432</t>
+  </si>
+  <si>
+    <t>LP-02433</t>
+  </si>
+  <si>
+    <t>LP-02435</t>
+  </si>
+  <si>
+    <t>LP-02441</t>
+  </si>
+  <si>
+    <t>LP-02447</t>
+  </si>
+  <si>
+    <t>LP-02461</t>
+  </si>
+  <si>
+    <t>LP-02466</t>
+  </si>
+  <si>
+    <t>LP-02469</t>
+  </si>
+  <si>
+    <t>LP-02471</t>
+  </si>
+  <si>
+    <t>LP-02472</t>
+  </si>
+  <si>
+    <t>LP-02473</t>
+  </si>
+  <si>
+    <t>LP-02474</t>
+  </si>
+  <si>
+    <t>LP-02476</t>
+  </si>
+  <si>
+    <t>LP-02480</t>
+  </si>
+  <si>
+    <t>LP-02481</t>
+  </si>
+  <si>
+    <t>LP-02482</t>
+  </si>
+  <si>
+    <t>LP-02486</t>
+  </si>
+  <si>
+    <t>LP-02487</t>
+  </si>
+  <si>
+    <t>LP-02490</t>
+  </si>
+  <si>
+    <t>LP-02494</t>
+  </si>
+  <si>
+    <t>LP-02495</t>
+  </si>
+  <si>
+    <t>LP-02510</t>
+  </si>
+  <si>
+    <t>LP-02515</t>
+  </si>
+  <si>
+    <t>LP-02517</t>
+  </si>
+  <si>
+    <t>LP-02518</t>
+  </si>
+  <si>
+    <t>LP-02519</t>
+  </si>
+  <si>
+    <t>LP-02520</t>
+  </si>
+  <si>
+    <t>LP-02521</t>
+  </si>
+  <si>
+    <t>LP-02522</t>
+  </si>
+  <si>
+    <t>LP-02523</t>
+  </si>
+  <si>
+    <t>LP-02524</t>
+  </si>
+  <si>
+    <t>LP-02525</t>
+  </si>
+  <si>
+    <t>LP-02526</t>
+  </si>
+  <si>
+    <t>LP-02527</t>
+  </si>
+  <si>
+    <t>LP-02528</t>
+  </si>
+  <si>
+    <t>LP-02529</t>
+  </si>
+  <si>
+    <t>LP-02530</t>
+  </si>
+  <si>
+    <t>LP-02531</t>
+  </si>
+  <si>
+    <t>LP-02533</t>
+  </si>
+  <si>
+    <t>LP-02537</t>
+  </si>
+  <si>
+    <t>LP-02538</t>
+  </si>
+  <si>
+    <t>LP-02539</t>
+  </si>
+  <si>
+    <t>LP-02540</t>
+  </si>
+  <si>
+    <t>LP-02541</t>
+  </si>
+  <si>
+    <t>LP-02542</t>
+  </si>
+  <si>
+    <t>LP-02543</t>
+  </si>
+  <si>
+    <t>LP-02544</t>
+  </si>
+  <si>
+    <t>LP-02545</t>
+  </si>
+  <si>
+    <t>LP-02548</t>
+  </si>
+  <si>
+    <t>LP-02549</t>
+  </si>
+  <si>
+    <t>LP-02554</t>
+  </si>
+  <si>
+    <t>LP-02555</t>
+  </si>
+  <si>
+    <t>LP-02556</t>
+  </si>
+  <si>
+    <t>LP-02557</t>
+  </si>
+  <si>
+    <t>LP-02559</t>
+  </si>
+  <si>
+    <t>LP-02562</t>
+  </si>
+  <si>
+    <t>LP-02564</t>
+  </si>
+  <si>
+    <t>LP-02565</t>
+  </si>
+  <si>
+    <t>LP-02568</t>
+  </si>
+  <si>
+    <t>LP-02569</t>
+  </si>
+  <si>
+    <t>LP-02570</t>
+  </si>
+  <si>
+    <t>LP-02574</t>
+  </si>
+  <si>
+    <t>LP-02575</t>
+  </si>
+  <si>
+    <t>LP-02576</t>
+  </si>
+  <si>
+    <t>LP-02577</t>
+  </si>
+  <si>
+    <t>LP-02579</t>
+  </si>
+  <si>
+    <t>LP-02580</t>
+  </si>
+  <si>
+    <t>LP-02581</t>
+  </si>
+  <si>
+    <t>LP-02582</t>
+  </si>
+  <si>
+    <t>LP-02585</t>
+  </si>
+  <si>
+    <t>LP-02586</t>
+  </si>
+  <si>
+    <t>LP-02587</t>
+  </si>
+  <si>
+    <t>LP-02593</t>
+  </si>
+  <si>
+    <t>LP-02594</t>
+  </si>
+  <si>
+    <t>LP-02595</t>
+  </si>
+  <si>
+    <t>LP-02596</t>
+  </si>
+  <si>
+    <t>LP-02597</t>
+  </si>
+  <si>
+    <t>LP-02598</t>
+  </si>
+  <si>
+    <t>LP-02600</t>
+  </si>
+  <si>
+    <t>LP-02601</t>
+  </si>
+  <si>
+    <t>LP-02602</t>
+  </si>
+  <si>
+    <t>LP-02603</t>
+  </si>
+  <si>
+    <t>LP-02605</t>
+  </si>
+  <si>
+    <t>LP-02608</t>
+  </si>
+  <si>
+    <t>LP-02609</t>
+  </si>
+  <si>
+    <t>LP-02610</t>
+  </si>
+  <si>
+    <t>LP-02611</t>
+  </si>
+  <si>
+    <t>LP-02612</t>
+  </si>
+  <si>
+    <t>LP-02613</t>
+  </si>
+  <si>
+    <t>LP-02614</t>
+  </si>
+  <si>
+    <t>LP-02615</t>
+  </si>
+  <si>
+    <t>LP-02616</t>
+  </si>
+  <si>
+    <t>LP-02617</t>
+  </si>
+  <si>
+    <t>LP-02618</t>
+  </si>
+  <si>
+    <t>LP-02619</t>
+  </si>
+  <si>
+    <t>LP-02620</t>
+  </si>
+  <si>
+    <t>LP-02626</t>
+  </si>
+  <si>
+    <t>LP-02627</t>
+  </si>
+  <si>
+    <t>LP-02628</t>
+  </si>
+  <si>
+    <t>LP-02629</t>
+  </si>
+  <si>
+    <t>LP-02630</t>
+  </si>
+  <si>
+    <t>LP-02632</t>
+  </si>
+  <si>
+    <t>LP-02633</t>
+  </si>
+  <si>
+    <t>LP-02634</t>
+  </si>
+  <si>
+    <t>LP-02635</t>
+  </si>
+  <si>
+    <t>LP-02636</t>
+  </si>
+  <si>
+    <t>LP-02637</t>
+  </si>
+  <si>
+    <t>LP-02638</t>
+  </si>
+  <si>
+    <t>LP-02639</t>
+  </si>
+  <si>
+    <t>LP-02640</t>
+  </si>
+  <si>
+    <t>LP-02641</t>
+  </si>
+  <si>
+    <t>LP-02642</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1987,15 +2560,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2027,13 +2593,8 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2054,16 +2615,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -2083,13 +2693,17 @@
     <xf numFmtId="11" fontId="4" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Accent4" xfId="2" builtinId="41"/>
-    <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2425,10 +3039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8DF20D-43B8-4F50-BD73-629D07637EE7}">
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C176"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="A226" sqref="A226:XFD226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,559 +3069,559 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>556</v>
       </c>
       <c r="B2" t="s">
         <v>203</v>
       </c>
       <c r="C2" s="8">
-        <v>35598</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>286</v>
+        <v>38825</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>462</v>
+        <v>557</v>
       </c>
       <c r="B3" t="s">
         <v>203</v>
       </c>
       <c r="C3" s="8">
-        <v>35598</v>
+        <v>38825</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>558</v>
       </c>
       <c r="B4" t="s">
         <v>203</v>
       </c>
       <c r="C4" s="8">
-        <v>35689</v>
+        <v>38888</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>464</v>
+        <v>559</v>
       </c>
       <c r="B5" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="8">
-        <v>35899</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>289</v>
+        <v>38790</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>465</v>
+        <v>560</v>
       </c>
       <c r="B6" t="s">
         <v>203</v>
       </c>
       <c r="C6" s="8">
-        <v>36375</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>290</v>
+        <v>38881</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>561</v>
       </c>
       <c r="B7" t="s">
         <v>203</v>
       </c>
       <c r="C7" s="8">
-        <v>35836</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>291</v>
+        <v>38979</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>562</v>
       </c>
       <c r="B8" t="s">
         <v>203</v>
       </c>
       <c r="C8" s="8">
-        <v>35724</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>292</v>
+        <v>39112</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>563</v>
       </c>
       <c r="B9" t="s">
         <v>203</v>
       </c>
       <c r="C9" s="8">
-        <v>35724</v>
+        <v>38923</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>564</v>
       </c>
       <c r="B10" t="s">
         <v>203</v>
       </c>
       <c r="C10" s="8">
-        <v>35724</v>
+        <v>38853</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>470</v>
+        <v>565</v>
       </c>
       <c r="B11" t="s">
         <v>203</v>
       </c>
       <c r="C11" s="8">
-        <v>35829</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>295</v>
+        <v>38888</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>471</v>
+        <v>566</v>
       </c>
       <c r="B12" t="s">
         <v>203</v>
       </c>
       <c r="C12" s="8">
-        <v>35836</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>296</v>
+        <v>38888</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>472</v>
+        <v>567</v>
       </c>
       <c r="B13" t="s">
         <v>203</v>
       </c>
       <c r="C13" s="8">
-        <v>37432</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>297</v>
+        <v>38874</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>473</v>
+        <v>568</v>
       </c>
       <c r="B14" t="s">
         <v>203</v>
       </c>
       <c r="C14" s="8">
-        <v>35808</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>298</v>
+        <v>38888</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>474</v>
+        <v>569</v>
       </c>
       <c r="B15" t="s">
         <v>203</v>
       </c>
       <c r="C15" s="8">
-        <v>35808</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>299</v>
+        <v>38979</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>475</v>
+        <v>570</v>
       </c>
       <c r="B16" t="s">
         <v>203</v>
       </c>
       <c r="C16" s="8">
-        <v>35836</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>300</v>
+        <v>40932</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>476</v>
+        <v>571</v>
       </c>
       <c r="B17" t="s">
         <v>203</v>
       </c>
       <c r="C17" s="8">
-        <v>35934</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>301</v>
+        <v>41044</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>477</v>
+        <v>572</v>
       </c>
       <c r="B18" t="s">
         <v>203</v>
       </c>
       <c r="C18" s="8">
-        <v>35920</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>302</v>
+        <v>39014</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>478</v>
+        <v>573</v>
       </c>
       <c r="B19" t="s">
         <v>203</v>
       </c>
       <c r="C19" s="8">
-        <v>35934</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>303</v>
+        <v>39035</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>479</v>
+        <v>574</v>
       </c>
       <c r="B20" t="s">
         <v>203</v>
       </c>
       <c r="C20" s="8">
-        <v>36053</v>
+        <v>39147</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>480</v>
+        <v>575</v>
       </c>
       <c r="B21" t="s">
         <v>203</v>
       </c>
       <c r="C21" s="8">
-        <v>36081</v>
+        <v>39147</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>481</v>
+        <v>576</v>
       </c>
       <c r="B22" t="s">
         <v>203</v>
       </c>
       <c r="C22" s="8">
-        <v>35962</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>306</v>
+        <v>39147</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>482</v>
+        <v>577</v>
       </c>
       <c r="B23" t="s">
         <v>203</v>
       </c>
       <c r="C23" s="8">
-        <v>35976</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>307</v>
+        <v>39217</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>483</v>
+        <v>578</v>
       </c>
       <c r="B24" t="s">
         <v>203</v>
       </c>
       <c r="C24" s="8">
-        <v>35976</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>308</v>
+        <v>39154</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>484</v>
+        <v>579</v>
       </c>
       <c r="B25" t="s">
         <v>203</v>
       </c>
       <c r="C25" s="8">
-        <v>35976</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>309</v>
+        <v>39063</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>485</v>
+        <v>580</v>
       </c>
       <c r="B26" t="s">
         <v>203</v>
       </c>
       <c r="C26" s="8">
-        <v>35976</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>310</v>
+        <v>39154</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>486</v>
+        <v>581</v>
       </c>
       <c r="B27" t="s">
         <v>203</v>
       </c>
       <c r="C27" s="8">
-        <v>35976</v>
+        <v>39987</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>487</v>
+        <v>582</v>
       </c>
       <c r="B28" t="s">
         <v>203</v>
       </c>
       <c r="C28" s="8">
-        <v>36081</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>312</v>
+        <v>39154</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>488</v>
+        <v>583</v>
       </c>
       <c r="B29" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="8">
-        <v>36326</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>313</v>
+        <v>39287</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>489</v>
+        <v>584</v>
       </c>
       <c r="B30" t="s">
         <v>203</v>
       </c>
       <c r="C30" s="8">
-        <v>35962</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>314</v>
+        <v>39287</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>490</v>
+        <v>585</v>
       </c>
       <c r="B31" t="s">
         <v>203</v>
       </c>
       <c r="C31" s="8">
-        <v>36081</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>315</v>
+        <v>39287</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>491</v>
+        <v>586</v>
       </c>
       <c r="B32" t="s">
         <v>203</v>
       </c>
       <c r="C32" s="8">
-        <v>36298</v>
+        <v>39287</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>492</v>
+        <v>587</v>
       </c>
       <c r="B33" t="s">
         <v>203</v>
       </c>
       <c r="C33" s="8">
-        <v>35962</v>
-      </c>
-      <c r="D33" s="7" t="s">
+        <v>39385</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>493</v>
+        <v>588</v>
       </c>
       <c r="B34" t="s">
         <v>203</v>
       </c>
       <c r="C34" s="8">
-        <v>29725</v>
-      </c>
-      <c r="D34" s="11" t="s">
+        <v>39259</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>494</v>
+        <v>589</v>
       </c>
       <c r="B35" t="s">
         <v>203</v>
       </c>
       <c r="C35" s="8">
-        <v>29914</v>
-      </c>
-      <c r="D35" s="11" t="s">
+        <v>39707</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>495</v>
+        <v>590</v>
       </c>
       <c r="B36" t="s">
         <v>203</v>
       </c>
       <c r="C36" s="8">
-        <v>29886</v>
-      </c>
-      <c r="D36" s="9" t="s">
+        <v>39287</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>496</v>
+        <v>591</v>
       </c>
       <c r="B37" t="s">
         <v>203</v>
       </c>
       <c r="C37" s="8">
-        <v>29620</v>
-      </c>
-      <c r="D37" s="6" t="s">
+        <v>39308</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>497</v>
+        <v>592</v>
       </c>
       <c r="B38" t="s">
         <v>203</v>
       </c>
       <c r="C38" s="8">
-        <v>29620</v>
-      </c>
-      <c r="D38" s="6" t="s">
+        <v>39182</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>498</v>
+        <v>593</v>
       </c>
       <c r="B39" t="s">
         <v>203</v>
       </c>
       <c r="C39" s="8">
-        <v>29620</v>
-      </c>
-      <c r="D39" s="11" t="s">
+        <v>39707</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>499</v>
+        <v>594</v>
       </c>
       <c r="B40" t="s">
         <v>203</v>
       </c>
       <c r="C40" s="8">
-        <v>29914</v>
-      </c>
-      <c r="D40" s="11" t="s">
+        <v>39770</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>500</v>
+        <v>595</v>
       </c>
       <c r="B41" t="s">
         <v>203</v>
       </c>
       <c r="C41" s="8">
-        <v>29942</v>
+        <v>39287</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>325</v>
@@ -3015,55 +3629,55 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>501</v>
+        <v>596</v>
       </c>
       <c r="B42" t="s">
         <v>203</v>
       </c>
       <c r="C42" s="8">
-        <v>29942</v>
-      </c>
-      <c r="D42" s="6" t="s">
+        <v>39287</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>502</v>
+        <v>597</v>
       </c>
       <c r="B43" t="s">
         <v>203</v>
       </c>
       <c r="C43" s="8">
-        <v>29942</v>
-      </c>
-      <c r="D43" s="6" t="s">
+        <v>39385</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>503</v>
+        <v>598</v>
       </c>
       <c r="B44" t="s">
         <v>203</v>
       </c>
       <c r="C44" s="8">
-        <v>29886</v>
-      </c>
-      <c r="D44" s="6" t="s">
+        <v>39770</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>504</v>
+        <v>599</v>
       </c>
       <c r="B45" t="s">
         <v>203</v>
       </c>
       <c r="C45" s="8">
-        <v>29718</v>
+        <v>39826</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>329</v>
@@ -3071,83 +3685,83 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>505</v>
+        <v>600</v>
       </c>
       <c r="B46" t="s">
         <v>203</v>
       </c>
       <c r="C46" s="8">
-        <v>29718</v>
-      </c>
-      <c r="D46" s="6" t="s">
+        <v>39385</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>506</v>
+        <v>601</v>
       </c>
       <c r="B47" t="s">
         <v>203</v>
       </c>
       <c r="C47" s="8">
-        <v>29942</v>
-      </c>
-      <c r="D47" s="13" t="s">
+        <v>39525</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>507</v>
+        <v>602</v>
       </c>
       <c r="B48" t="s">
         <v>203</v>
       </c>
       <c r="C48" s="8">
-        <v>36214</v>
-      </c>
-      <c r="D48" s="11" t="s">
+        <v>39217</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>508</v>
+        <v>603</v>
       </c>
       <c r="B49" t="s">
         <v>203</v>
       </c>
       <c r="C49" s="8">
-        <v>36144</v>
-      </c>
-      <c r="D49" s="11" t="s">
+        <v>39749</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>509</v>
+        <v>604</v>
       </c>
       <c r="B50" t="s">
         <v>203</v>
       </c>
       <c r="C50" s="8">
-        <v>36053</v>
-      </c>
-      <c r="D50" s="9" t="s">
+        <v>41450</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>510</v>
+        <v>605</v>
       </c>
       <c r="B51" t="s">
         <v>203</v>
       </c>
       <c r="C51" s="8">
-        <v>36053</v>
+        <v>39525</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>335</v>
@@ -3155,153 +3769,153 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>511</v>
+        <v>606</v>
       </c>
       <c r="B52" t="s">
         <v>203</v>
       </c>
       <c r="C52" s="8">
-        <v>36305</v>
-      </c>
-      <c r="D52" s="9" t="s">
+        <v>39707</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>512</v>
+        <v>607</v>
       </c>
       <c r="B53" t="s">
         <v>203</v>
       </c>
       <c r="C53" s="8">
-        <v>36340</v>
-      </c>
-      <c r="D53" s="6" t="s">
+        <v>39707</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>513</v>
+        <v>608</v>
       </c>
       <c r="B54" t="s">
         <v>203</v>
       </c>
       <c r="C54" s="8">
-        <v>36326</v>
-      </c>
-      <c r="D54" s="12" t="s">
+        <v>39770</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>514</v>
+        <v>609</v>
       </c>
       <c r="B55" t="s">
         <v>203</v>
       </c>
       <c r="C55" s="8">
-        <v>36081</v>
-      </c>
-      <c r="D55" s="6" t="s">
+        <v>39350</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>515</v>
+        <v>610</v>
       </c>
       <c r="B56" t="s">
         <v>203</v>
       </c>
       <c r="C56" s="8">
-        <v>36116</v>
-      </c>
-      <c r="D56" s="9" t="s">
+        <v>39385</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>516</v>
+        <v>611</v>
       </c>
       <c r="B57" t="s">
         <v>203</v>
       </c>
       <c r="C57" s="8">
-        <v>36144</v>
-      </c>
-      <c r="D57" s="7" t="s">
+        <v>39385</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>517</v>
+        <v>612</v>
       </c>
       <c r="B58" t="s">
         <v>203</v>
       </c>
       <c r="C58" s="8">
-        <v>36116</v>
-      </c>
-      <c r="D58" s="7" t="s">
+        <v>39385</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>518</v>
+        <v>613</v>
       </c>
       <c r="B59" t="s">
         <v>203</v>
       </c>
       <c r="C59" s="8">
-        <v>36956</v>
-      </c>
-      <c r="D59" s="9" t="s">
+        <v>39385</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>519</v>
+        <v>614</v>
       </c>
       <c r="B60" t="s">
         <v>203</v>
       </c>
       <c r="C60" s="8">
-        <v>36172</v>
-      </c>
-      <c r="D60" s="9" t="s">
+        <v>39525</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>520</v>
+        <v>615</v>
       </c>
       <c r="B61" t="s">
         <v>203</v>
       </c>
       <c r="C61" s="8">
-        <v>36235</v>
-      </c>
-      <c r="D61" s="11" t="s">
+        <v>39525</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>521</v>
+        <v>616</v>
       </c>
       <c r="B62" t="s">
         <v>203</v>
       </c>
       <c r="C62" s="8">
-        <v>36298</v>
+        <v>40309</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>346</v>
@@ -3309,13 +3923,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>522</v>
+        <v>617</v>
       </c>
       <c r="B63" t="s">
         <v>203</v>
       </c>
       <c r="C63" s="8">
-        <v>36214</v>
+        <v>42472</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>347</v>
@@ -3323,13 +3937,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>523</v>
+        <v>618</v>
       </c>
       <c r="B64" t="s">
         <v>203</v>
       </c>
       <c r="C64" s="8">
-        <v>36333</v>
+        <v>39490</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>348</v>
@@ -3337,69 +3951,69 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
       <c r="B65" t="s">
         <v>203</v>
       </c>
       <c r="C65" s="8">
-        <v>36305</v>
-      </c>
-      <c r="D65" s="6" t="s">
+        <v>39707</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>525</v>
+        <v>620</v>
       </c>
       <c r="B66" t="s">
         <v>203</v>
       </c>
       <c r="C66" s="8">
-        <v>36662</v>
-      </c>
-      <c r="D66" s="11" t="s">
+        <v>39406</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>526</v>
+        <v>621</v>
       </c>
       <c r="B67" t="s">
         <v>203</v>
       </c>
       <c r="C67" s="8">
-        <v>36326</v>
-      </c>
-      <c r="D67" s="11" t="s">
+        <v>39826</v>
+      </c>
+      <c r="D67" s="19" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>527</v>
+        <v>622</v>
       </c>
       <c r="B68" t="s">
         <v>203</v>
       </c>
       <c r="C68" s="8">
-        <v>36452</v>
-      </c>
-      <c r="D68" s="13" t="s">
+        <v>39826</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>528</v>
+        <v>623</v>
       </c>
       <c r="B69" t="s">
         <v>203</v>
       </c>
       <c r="C69" s="8">
-        <v>36452</v>
+        <v>39854</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>353</v>
@@ -3407,41 +4021,41 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>529</v>
+        <v>624</v>
       </c>
       <c r="B70" t="s">
         <v>203</v>
       </c>
       <c r="C70" s="8">
-        <v>36452</v>
-      </c>
-      <c r="D70" s="18" t="s">
+        <v>39525</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>530</v>
+        <v>625</v>
       </c>
       <c r="B71" t="s">
         <v>203</v>
       </c>
       <c r="C71" s="8">
-        <v>36676</v>
-      </c>
-      <c r="D71" s="6" t="s">
+        <v>39798</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>531</v>
+        <v>626</v>
       </c>
       <c r="B72" t="s">
         <v>203</v>
       </c>
       <c r="C72" s="8">
-        <v>36697</v>
+        <v>39483</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>356</v>
@@ -3449,27 +4063,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>532</v>
+        <v>627</v>
       </c>
       <c r="B73" t="s">
         <v>203</v>
       </c>
       <c r="C73" s="8">
-        <v>36564</v>
-      </c>
-      <c r="D73" s="6" t="s">
+        <v>39770</v>
+      </c>
+      <c r="D73" s="12" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>533</v>
+        <v>628</v>
       </c>
       <c r="B74" t="s">
         <v>203</v>
       </c>
       <c r="C74" s="8">
-        <v>36564</v>
+        <v>39770</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>358</v>
@@ -3477,69 +4091,69 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>534</v>
+        <v>629</v>
       </c>
       <c r="B75" t="s">
         <v>203</v>
       </c>
       <c r="C75" s="8">
-        <v>36613</v>
-      </c>
-      <c r="D75" s="7" t="s">
+        <v>39826</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>535</v>
+        <v>630</v>
       </c>
       <c r="B76" t="s">
         <v>203</v>
       </c>
       <c r="C76" s="8">
-        <v>36949</v>
-      </c>
-      <c r="D76" s="9" t="s">
+        <v>39826</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>536</v>
+        <v>631</v>
       </c>
       <c r="B77" t="s">
         <v>203</v>
       </c>
       <c r="C77" s="8">
-        <v>36613</v>
-      </c>
-      <c r="D77" s="7" t="s">
+        <v>39749</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>537</v>
+        <v>632</v>
       </c>
       <c r="B78" t="s">
         <v>203</v>
       </c>
       <c r="C78" s="8">
-        <v>36564</v>
-      </c>
-      <c r="D78" s="9" t="s">
+        <v>39896</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>538</v>
+        <v>633</v>
       </c>
       <c r="B79" t="s">
         <v>203</v>
       </c>
       <c r="C79" s="8">
-        <v>36564</v>
+        <v>39798</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>363</v>
@@ -3547,111 +4161,111 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>539</v>
+        <v>634</v>
       </c>
       <c r="B80" t="s">
         <v>203</v>
       </c>
       <c r="C80" s="8">
-        <v>38125</v>
-      </c>
-      <c r="D80" s="13" t="s">
+        <v>39854</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>540</v>
+        <v>635</v>
       </c>
       <c r="B81" t="s">
         <v>203</v>
       </c>
       <c r="C81" s="8">
-        <v>36662</v>
-      </c>
-      <c r="D81" s="9" t="s">
+        <v>39770</v>
+      </c>
+      <c r="D81" s="12" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>541</v>
+        <v>636</v>
       </c>
       <c r="B82" t="s">
         <v>203</v>
       </c>
       <c r="C82" s="8">
-        <v>36816</v>
-      </c>
-      <c r="D82" s="11" t="s">
+        <v>39896</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>542</v>
+        <v>637</v>
       </c>
       <c r="B83" t="s">
         <v>203</v>
       </c>
       <c r="C83" s="8">
-        <v>36921</v>
-      </c>
-      <c r="D83" s="10" t="s">
+        <v>40190</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>543</v>
+        <v>638</v>
       </c>
       <c r="B84" t="s">
         <v>203</v>
       </c>
       <c r="C84" s="8">
-        <v>36704</v>
-      </c>
-      <c r="D84" s="7" t="s">
+        <v>40008</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>544</v>
+        <v>639</v>
       </c>
       <c r="B85" t="s">
         <v>203</v>
       </c>
       <c r="C85" s="8">
-        <v>36697</v>
-      </c>
-      <c r="D85" s="7" t="s">
+        <v>39987</v>
+      </c>
+      <c r="D85" s="10" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>545</v>
+        <v>640</v>
       </c>
       <c r="B86" t="s">
         <v>203</v>
       </c>
       <c r="C86" s="8">
-        <v>36921</v>
-      </c>
-      <c r="D86" s="6" t="s">
+        <v>40106</v>
+      </c>
+      <c r="D86" s="12" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>546</v>
+        <v>641</v>
       </c>
       <c r="B87" t="s">
         <v>203</v>
       </c>
       <c r="C87" s="8">
-        <v>36662</v>
+        <v>39917</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>371</v>
@@ -3659,13 +4273,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>547</v>
+        <v>642</v>
       </c>
       <c r="B88" t="s">
         <v>203</v>
       </c>
       <c r="C88" s="8">
-        <v>36697</v>
+        <v>39917</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>372</v>
@@ -3673,13 +4287,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>548</v>
+        <v>643</v>
       </c>
       <c r="B89" t="s">
         <v>203</v>
       </c>
       <c r="C89" s="8">
-        <v>36697</v>
+        <v>40190</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>373</v>
@@ -3687,41 +4301,41 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>549</v>
+        <v>644</v>
       </c>
       <c r="B90" t="s">
         <v>203</v>
       </c>
       <c r="C90" s="8">
-        <v>36697</v>
-      </c>
-      <c r="D90" s="14" t="s">
+        <v>40386</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>550</v>
+        <v>645</v>
       </c>
       <c r="B91" t="s">
         <v>203</v>
       </c>
       <c r="C91" s="8">
-        <v>36676</v>
-      </c>
-      <c r="D91" s="11" t="s">
+        <v>39987</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>551</v>
+        <v>646</v>
       </c>
       <c r="B92" t="s">
         <v>203</v>
       </c>
       <c r="C92" s="8">
-        <v>36823</v>
+        <v>40134</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>376</v>
@@ -3729,13 +4343,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>552</v>
+        <v>647</v>
       </c>
       <c r="B93" t="s">
         <v>203</v>
       </c>
       <c r="C93" s="8">
-        <v>42717</v>
+        <v>40092</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>377</v>
@@ -3743,55 +4357,55 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>553</v>
+        <v>648</v>
       </c>
       <c r="B94" t="s">
         <v>203</v>
       </c>
       <c r="C94" s="8">
-        <v>36921</v>
-      </c>
-      <c r="D94" s="11" t="s">
+        <v>40127</v>
+      </c>
+      <c r="D94" s="12" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>554</v>
+        <v>649</v>
       </c>
       <c r="B95" t="s">
         <v>203</v>
       </c>
       <c r="C95" s="8">
-        <v>36697</v>
-      </c>
-      <c r="D95" s="9" t="s">
+        <v>40099</v>
+      </c>
+      <c r="D95" s="11" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>555</v>
+        <v>650</v>
       </c>
       <c r="B96" t="s">
         <v>203</v>
       </c>
       <c r="C96" s="8">
-        <v>36704</v>
-      </c>
-      <c r="D96" s="11" t="s">
+        <v>40673</v>
+      </c>
+      <c r="D96" s="10" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>556</v>
+        <v>651</v>
       </c>
       <c r="B97" t="s">
         <v>203</v>
       </c>
       <c r="C97" s="8">
-        <v>36921</v>
+        <v>39945</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>381</v>
@@ -3799,69 +4413,69 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>557</v>
+        <v>652</v>
       </c>
       <c r="B98" t="s">
         <v>203</v>
       </c>
       <c r="C98" s="8">
-        <v>36704</v>
-      </c>
-      <c r="D98" s="11" t="s">
+        <v>40190</v>
+      </c>
+      <c r="D98" s="12" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>558</v>
+        <v>653</v>
       </c>
       <c r="B99" t="s">
         <v>203</v>
       </c>
       <c r="C99" s="8">
-        <v>36844</v>
-      </c>
-      <c r="D99" s="7" t="s">
+        <v>40260</v>
+      </c>
+      <c r="D99" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>559</v>
+        <v>654</v>
       </c>
       <c r="B100" t="s">
         <v>203</v>
       </c>
       <c r="C100" s="8">
-        <v>36921</v>
-      </c>
-      <c r="D100" s="15" t="s">
+        <v>42472</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>560</v>
+        <v>655</v>
       </c>
       <c r="B101" t="s">
         <v>203</v>
       </c>
       <c r="C101" s="8">
-        <v>36949</v>
-      </c>
-      <c r="D101" s="11" t="s">
+        <v>40134</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>561</v>
+        <v>656</v>
       </c>
       <c r="B102" t="s">
         <v>203</v>
       </c>
       <c r="C102" s="8">
-        <v>36879</v>
+        <v>40190</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>386</v>
@@ -3869,153 +4483,153 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>562</v>
+        <v>657</v>
       </c>
       <c r="B103" t="s">
         <v>203</v>
       </c>
       <c r="C103" s="8">
-        <v>36865</v>
-      </c>
-      <c r="D103" s="6" t="s">
+        <v>42472</v>
+      </c>
+      <c r="D103" s="10" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>563</v>
+        <v>658</v>
       </c>
       <c r="B104" t="s">
         <v>203</v>
       </c>
       <c r="C104" s="8">
-        <v>36858</v>
-      </c>
-      <c r="D104" s="11" t="s">
+        <v>40134</v>
+      </c>
+      <c r="D104" s="12" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>564</v>
+        <v>659</v>
       </c>
       <c r="B105" t="s">
         <v>203</v>
       </c>
       <c r="C105" s="8">
-        <v>36879</v>
-      </c>
-      <c r="D105" s="11" t="s">
+        <v>40134</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>565</v>
+        <v>660</v>
       </c>
       <c r="B106" t="s">
         <v>203</v>
       </c>
       <c r="C106" s="8">
-        <v>36879</v>
-      </c>
-      <c r="D106" s="12" t="s">
+        <v>40134</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>566</v>
+        <v>661</v>
       </c>
       <c r="B107" t="s">
         <v>203</v>
       </c>
       <c r="C107" s="8">
-        <v>37012</v>
-      </c>
-      <c r="D107" s="9" t="s">
+        <v>40218</v>
+      </c>
+      <c r="D107" s="11" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>567</v>
+        <v>662</v>
       </c>
       <c r="B108" t="s">
         <v>203</v>
       </c>
       <c r="C108" s="8">
-        <v>37012</v>
-      </c>
-      <c r="D108" s="9" t="s">
+        <v>40435</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>568</v>
+        <v>663</v>
       </c>
       <c r="B109" t="s">
         <v>203</v>
       </c>
       <c r="C109" s="8">
-        <v>37117</v>
-      </c>
-      <c r="D109" s="12" t="s">
+        <v>40260</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>569</v>
+        <v>664</v>
       </c>
       <c r="B110" t="s">
         <v>203</v>
       </c>
       <c r="C110" s="8">
-        <v>41135</v>
-      </c>
-      <c r="D110" s="9" t="s">
+        <v>40099</v>
+      </c>
+      <c r="D110" s="12" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>570</v>
+        <v>665</v>
       </c>
       <c r="B111" t="s">
         <v>203</v>
       </c>
       <c r="C111" s="8">
-        <v>36956</v>
-      </c>
-      <c r="D111" s="11" t="s">
+        <v>40190</v>
+      </c>
+      <c r="D111" s="12" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="B112" t="s">
         <v>203</v>
       </c>
       <c r="C112" s="8">
-        <v>37005</v>
-      </c>
-      <c r="D112" s="12" t="s">
+        <v>40435</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>572</v>
+        <v>667</v>
       </c>
       <c r="B113" t="s">
         <v>203</v>
       </c>
       <c r="C113" s="8">
-        <v>37005</v>
+        <v>40400</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>397</v>
@@ -4023,69 +4637,69 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>573</v>
+        <v>668</v>
       </c>
       <c r="B114" t="s">
         <v>203</v>
       </c>
       <c r="C114" s="8">
-        <v>37005</v>
-      </c>
-      <c r="D114" s="9" t="s">
+        <v>40190</v>
+      </c>
+      <c r="D114" s="11" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>574</v>
+        <v>669</v>
       </c>
       <c r="B115" t="s">
         <v>203</v>
       </c>
       <c r="C115" s="8">
-        <v>37068</v>
-      </c>
-      <c r="D115" s="6" t="s">
+        <v>43074</v>
+      </c>
+      <c r="D115" s="11" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>575</v>
+        <v>670</v>
       </c>
       <c r="B116" t="s">
         <v>203</v>
       </c>
       <c r="C116" s="8">
-        <v>37068</v>
-      </c>
-      <c r="D116" s="9" t="s">
+        <v>40386</v>
+      </c>
+      <c r="D116" s="11" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>576</v>
+        <v>671</v>
       </c>
       <c r="B117" t="s">
         <v>203</v>
       </c>
       <c r="C117" s="8">
-        <v>37068</v>
-      </c>
-      <c r="D117" s="11" t="s">
+        <v>40071</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>577</v>
+        <v>672</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
       </c>
       <c r="C118" s="8">
-        <v>37208</v>
+        <v>40071</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>402</v>
@@ -4093,27 +4707,27 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>578</v>
+        <v>673</v>
       </c>
       <c r="B119" t="s">
         <v>203</v>
       </c>
       <c r="C119" s="8">
-        <v>37208</v>
-      </c>
-      <c r="D119" s="11" t="s">
+        <v>40218</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>579</v>
+        <v>674</v>
       </c>
       <c r="B120" t="s">
         <v>203</v>
       </c>
       <c r="C120" s="8">
-        <v>37208</v>
+        <v>40127</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>404</v>
@@ -4121,41 +4735,41 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>580</v>
+        <v>675</v>
       </c>
       <c r="B121" t="s">
         <v>203</v>
       </c>
       <c r="C121" s="8">
-        <v>37208</v>
-      </c>
-      <c r="D121" s="13" t="s">
+        <v>40071</v>
+      </c>
+      <c r="D121" s="7" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>581</v>
+        <v>676</v>
       </c>
       <c r="B122" t="s">
         <v>203</v>
       </c>
       <c r="C122" s="8">
-        <v>37656</v>
-      </c>
-      <c r="D122" s="11" t="s">
+        <v>40071</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>582</v>
+        <v>677</v>
       </c>
       <c r="B123" t="s">
         <v>203</v>
       </c>
       <c r="C123" s="8">
-        <v>37243</v>
+        <v>40400</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>407</v>
@@ -4163,69 +4777,69 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>583</v>
+        <v>678</v>
       </c>
       <c r="B124" t="s">
         <v>203</v>
       </c>
       <c r="C124" s="8">
-        <v>37243</v>
-      </c>
-      <c r="D124" s="11" t="s">
+        <v>40260</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>584</v>
+        <v>679</v>
       </c>
       <c r="B125" t="s">
         <v>203</v>
       </c>
       <c r="C125" s="8">
-        <v>39490</v>
-      </c>
-      <c r="D125" s="17" t="s">
+        <v>40281</v>
+      </c>
+      <c r="D125" s="7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>585</v>
+        <v>680</v>
       </c>
       <c r="B126" t="s">
         <v>203</v>
       </c>
       <c r="C126" s="8">
-        <v>37264</v>
-      </c>
-      <c r="D126" s="11" t="s">
+        <v>40477</v>
+      </c>
+      <c r="D126" s="13" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>586</v>
+        <v>681</v>
       </c>
       <c r="B127" t="s">
         <v>203</v>
       </c>
       <c r="C127" s="8">
-        <v>37481</v>
-      </c>
-      <c r="D127" s="9" t="s">
+        <v>40260</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>587</v>
+        <v>682</v>
       </c>
       <c r="B128" t="s">
         <v>203</v>
       </c>
       <c r="C128" s="8">
-        <v>37425</v>
+        <v>40351</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>412</v>
@@ -4233,41 +4847,41 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>588</v>
+        <v>683</v>
       </c>
       <c r="B129" t="s">
         <v>203</v>
       </c>
       <c r="C129" s="8">
-        <v>37313</v>
-      </c>
-      <c r="D129" s="18" t="s">
+        <v>40841</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>589</v>
+        <v>684</v>
       </c>
       <c r="B130" t="s">
         <v>203</v>
       </c>
       <c r="C130" s="8">
-        <v>37558</v>
-      </c>
-      <c r="D130" s="11" t="s">
+        <v>40498</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>590</v>
+        <v>685</v>
       </c>
       <c r="B131" t="s">
         <v>203</v>
       </c>
       <c r="C131" s="8">
-        <v>37432</v>
+        <v>40841</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>415</v>
@@ -4275,265 +4889,265 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>591</v>
+        <v>686</v>
       </c>
       <c r="B132" t="s">
         <v>203</v>
       </c>
       <c r="C132" s="8">
-        <v>37677</v>
-      </c>
-      <c r="D132" s="6" t="s">
+        <v>40477</v>
+      </c>
+      <c r="D132" s="9" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>592</v>
+        <v>687</v>
       </c>
       <c r="B133" t="s">
         <v>203</v>
       </c>
       <c r="C133" s="8">
-        <v>37558</v>
-      </c>
-      <c r="D133" s="6" t="s">
+        <v>42472</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>593</v>
+        <v>688</v>
       </c>
       <c r="B134" t="s">
         <v>203</v>
       </c>
       <c r="C134" s="8">
-        <v>37607</v>
-      </c>
-      <c r="D134" s="6" t="s">
+        <v>40624</v>
+      </c>
+      <c r="D134" s="9" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="19" t="s">
-        <v>594</v>
+      <c r="A135" t="s">
+        <v>689</v>
       </c>
       <c r="B135" t="s">
         <v>203</v>
       </c>
       <c r="C135" s="8">
-        <v>37481</v>
-      </c>
-      <c r="D135" s="6" t="s">
+        <v>41163</v>
+      </c>
+      <c r="D135" s="9" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>595</v>
+        <v>690</v>
       </c>
       <c r="B136" t="s">
         <v>203</v>
       </c>
       <c r="C136" s="8">
-        <v>39770</v>
-      </c>
-      <c r="D136" s="7" t="s">
+        <v>40435</v>
+      </c>
+      <c r="D136" s="10" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>596</v>
+        <v>691</v>
       </c>
       <c r="B137" t="s">
         <v>203</v>
       </c>
       <c r="C137" s="8">
-        <v>37789</v>
-      </c>
-      <c r="D137" s="7" t="s">
+        <v>40526</v>
+      </c>
+      <c r="D137" s="10" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>597</v>
+        <v>692</v>
       </c>
       <c r="B138" t="s">
         <v>203</v>
       </c>
       <c r="C138" s="8">
-        <v>37600</v>
-      </c>
-      <c r="D138" s="11" t="s">
+        <v>40351</v>
+      </c>
+      <c r="D138" s="10" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>598</v>
+        <v>693</v>
       </c>
       <c r="B139" t="s">
         <v>203</v>
       </c>
       <c r="C139" s="8">
-        <v>37607</v>
-      </c>
-      <c r="D139" s="6" t="s">
+        <v>40498</v>
+      </c>
+      <c r="D139" s="10" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>599</v>
+        <v>694</v>
       </c>
       <c r="B140" t="s">
         <v>203</v>
       </c>
       <c r="C140" s="8">
-        <v>37705</v>
-      </c>
-      <c r="D140" s="6" t="s">
+        <v>40477</v>
+      </c>
+      <c r="D140" s="10" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>600</v>
+        <v>695</v>
       </c>
       <c r="B141" t="s">
         <v>203</v>
       </c>
       <c r="C141" s="8">
-        <v>37796</v>
-      </c>
-      <c r="D141" s="11" t="s">
+        <v>40722</v>
+      </c>
+      <c r="D141" s="12" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>601</v>
+        <v>696</v>
       </c>
       <c r="B142" t="s">
         <v>203</v>
       </c>
       <c r="C142" s="8">
-        <v>37796</v>
-      </c>
-      <c r="D142" s="9" t="s">
+        <v>40526</v>
+      </c>
+      <c r="D142" s="12" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>602</v>
+        <v>697</v>
       </c>
       <c r="B143" t="s">
         <v>203</v>
       </c>
       <c r="C143" s="8">
-        <v>38559</v>
-      </c>
-      <c r="D143" s="9" t="s">
+        <v>40554</v>
+      </c>
+      <c r="D143" s="12" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>603</v>
+        <v>698</v>
       </c>
       <c r="B144" t="s">
         <v>203</v>
       </c>
       <c r="C144" s="8">
-        <v>37796</v>
-      </c>
-      <c r="D144" s="12" t="s">
+        <v>40498</v>
+      </c>
+      <c r="D144" s="7" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>604</v>
+        <v>699</v>
       </c>
       <c r="B145" t="s">
         <v>203</v>
       </c>
       <c r="C145" s="8">
-        <v>42717</v>
-      </c>
-      <c r="D145" s="9" t="s">
+        <v>40498</v>
+      </c>
+      <c r="D145" s="7" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>605</v>
+        <v>700</v>
       </c>
       <c r="B146" t="s">
         <v>203</v>
       </c>
       <c r="C146" s="8">
-        <v>38027</v>
-      </c>
-      <c r="D146" s="6" t="s">
+        <v>41576</v>
+      </c>
+      <c r="D146" s="7" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>606</v>
+        <v>701</v>
       </c>
       <c r="B147" t="s">
         <v>203</v>
       </c>
       <c r="C147" s="8">
-        <v>38076</v>
-      </c>
-      <c r="D147" s="11" t="s">
+        <v>40575</v>
+      </c>
+      <c r="D147" s="9" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>607</v>
+        <v>702</v>
       </c>
       <c r="B148" t="s">
         <v>203</v>
       </c>
       <c r="C148" s="8">
-        <v>38118</v>
-      </c>
-      <c r="D148" s="10" t="s">
+        <v>40575</v>
+      </c>
+      <c r="D148" s="9" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>608</v>
+        <v>703</v>
       </c>
       <c r="B149" t="s">
         <v>203</v>
       </c>
       <c r="C149" s="8">
-        <v>38251</v>
-      </c>
-      <c r="D149" s="6" t="s">
+        <v>40575</v>
+      </c>
+      <c r="D149" s="9" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>609</v>
+        <v>704</v>
       </c>
       <c r="B150" t="s">
         <v>203</v>
       </c>
       <c r="C150" s="8">
-        <v>42472</v>
+        <v>40554</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>434</v>
@@ -4541,366 +5155,1710 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>610</v>
+        <v>705</v>
       </c>
       <c r="B151" t="s">
         <v>203</v>
       </c>
       <c r="C151" s="8">
-        <v>38146</v>
-      </c>
-      <c r="D151" s="12" t="s">
+        <v>40645</v>
+      </c>
+      <c r="D151" s="10" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>611</v>
+        <v>706</v>
       </c>
       <c r="B152" t="s">
         <v>203</v>
       </c>
       <c r="C152" s="8">
-        <v>38146</v>
-      </c>
-      <c r="D152" s="11" t="s">
+        <v>40722</v>
+      </c>
+      <c r="D152" s="12" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>612</v>
+        <v>707</v>
       </c>
       <c r="B153" t="s">
         <v>203</v>
       </c>
       <c r="C153" s="8">
-        <v>38146</v>
-      </c>
-      <c r="D153" s="6" t="s">
+        <v>40624</v>
+      </c>
+      <c r="D153" s="10" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>613</v>
+        <v>708</v>
       </c>
       <c r="B154" t="s">
         <v>203</v>
       </c>
       <c r="C154" s="8">
-        <v>38146</v>
-      </c>
-      <c r="D154" s="11" t="s">
+        <v>40897</v>
+      </c>
+      <c r="D154" s="6" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>614</v>
+        <v>709</v>
       </c>
       <c r="B155" t="s">
         <v>203</v>
       </c>
       <c r="C155" s="8">
-        <v>38118</v>
-      </c>
-      <c r="D155" s="11" t="s">
+        <v>41940</v>
+      </c>
+      <c r="D155" s="15" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>615</v>
+        <v>710</v>
       </c>
       <c r="B156" t="s">
         <v>203</v>
       </c>
       <c r="C156" s="8">
-        <v>38146</v>
-      </c>
-      <c r="D156" s="6" t="s">
+        <v>40806</v>
+      </c>
+      <c r="D156" s="13" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>616</v>
+        <v>711</v>
       </c>
       <c r="B157" t="s">
         <v>203</v>
       </c>
       <c r="C157" s="8">
-        <v>38279</v>
-      </c>
-      <c r="D157" s="11" t="s">
+        <v>40526</v>
+      </c>
+      <c r="D157" s="6" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>617</v>
+        <v>712</v>
       </c>
       <c r="B158" t="s">
         <v>203</v>
       </c>
       <c r="C158" s="8">
-        <v>38167</v>
-      </c>
-      <c r="D158" s="11" t="s">
+        <v>41072</v>
+      </c>
+      <c r="D158" s="9" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>618</v>
+        <v>713</v>
       </c>
       <c r="B159" t="s">
         <v>203</v>
       </c>
       <c r="C159" s="8">
-        <v>38279</v>
-      </c>
-      <c r="D159" s="7" t="s">
+        <v>40624</v>
+      </c>
+      <c r="D159" s="12" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>619</v>
+        <v>714</v>
       </c>
       <c r="B160" t="s">
         <v>203</v>
       </c>
       <c r="C160" s="8">
-        <v>38167</v>
-      </c>
-      <c r="D160" s="11" t="s">
+        <v>40897</v>
+      </c>
+      <c r="D160" s="15" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>620</v>
+        <v>715</v>
       </c>
       <c r="B161" t="s">
         <v>203</v>
       </c>
       <c r="C161" s="8">
-        <v>38615</v>
-      </c>
-      <c r="D161" s="11" t="s">
+        <v>40526</v>
+      </c>
+      <c r="D161" s="9" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>621</v>
+        <v>716</v>
       </c>
       <c r="B162" t="s">
         <v>203</v>
       </c>
       <c r="C162" s="8">
-        <v>38510</v>
-      </c>
-      <c r="D162" s="6" t="s">
+        <v>40624</v>
+      </c>
+      <c r="D162" s="10" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>622</v>
+        <v>717</v>
       </c>
       <c r="B163" t="s">
         <v>203</v>
       </c>
       <c r="C163" s="8">
-        <v>38440</v>
-      </c>
-      <c r="D163" s="11" t="s">
+        <v>40673</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>623</v>
+        <v>718</v>
       </c>
       <c r="B164" t="s">
         <v>203</v>
       </c>
       <c r="C164" s="8">
-        <v>39112</v>
-      </c>
-      <c r="D164" s="9" t="s">
+        <v>40715</v>
+      </c>
+      <c r="D164" s="12" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>624</v>
+        <v>719</v>
       </c>
       <c r="B165" t="s">
         <v>203</v>
       </c>
       <c r="C165" s="8">
-        <v>39112</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>449</v>
+        <v>40841</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>625</v>
+        <v>720</v>
       </c>
       <c r="B166" t="s">
         <v>203</v>
       </c>
       <c r="C166" s="8">
-        <v>38531</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>450</v>
+        <v>41968</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>626</v>
+        <v>721</v>
       </c>
       <c r="B167" t="s">
         <v>203</v>
       </c>
       <c r="C167" s="8">
-        <v>40008</v>
-      </c>
-      <c r="D167" s="16" t="s">
-        <v>451</v>
+        <v>40764</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>627</v>
+        <v>722</v>
       </c>
       <c r="B168" t="s">
         <v>203</v>
       </c>
       <c r="C168" s="8">
-        <v>38699</v>
-      </c>
-      <c r="D168" s="11" t="s">
-        <v>452</v>
+        <v>41044</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>628</v>
+        <v>723</v>
       </c>
       <c r="B169" t="s">
         <v>203</v>
       </c>
       <c r="C169" s="8">
-        <v>38426</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>453</v>
+        <v>40925</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>629</v>
+        <v>724</v>
       </c>
       <c r="B170" t="s">
         <v>203</v>
       </c>
       <c r="C170" s="8">
-        <v>38426</v>
-      </c>
-      <c r="D170" s="9" t="s">
-        <v>454</v>
+        <v>42437</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>630</v>
+        <v>725</v>
       </c>
       <c r="B171" t="s">
         <v>203</v>
       </c>
       <c r="C171" s="8">
-        <v>38531</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>455</v>
+        <v>40897</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>631</v>
+        <v>726</v>
       </c>
       <c r="B172" t="s">
         <v>203</v>
       </c>
       <c r="C172" s="8">
-        <v>39140</v>
-      </c>
-      <c r="D172" s="12" t="s">
-        <v>456</v>
+        <v>40897</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>632</v>
+        <v>727</v>
       </c>
       <c r="B173" t="s">
         <v>203</v>
       </c>
       <c r="C173" s="8">
-        <v>38489</v>
-      </c>
-      <c r="D173" s="12" t="s">
-        <v>457</v>
+        <v>40841</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>633</v>
+        <v>728</v>
       </c>
       <c r="B174" t="s">
         <v>203</v>
       </c>
       <c r="C174" s="8">
-        <v>38489</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>458</v>
+        <v>40995</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>634</v>
+        <v>729</v>
       </c>
       <c r="B175" t="s">
         <v>203</v>
       </c>
       <c r="C175" s="8">
-        <v>38468</v>
+        <v>40995</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>635</v>
+        <v>730</v>
       </c>
       <c r="B176" t="s">
         <v>203</v>
       </c>
       <c r="C176" s="8">
-        <v>38531</v>
-      </c>
-      <c r="D176" s="11" t="s">
+        <v>40995</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>731</v>
+      </c>
+      <c r="B177" t="s">
+        <v>203</v>
+      </c>
+      <c r="C177" s="8">
+        <v>40995</v>
+      </c>
+      <c r="D177" s="7" t="s">
         <v>460</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>732</v>
+      </c>
+      <c r="B178" t="s">
+        <v>203</v>
+      </c>
+      <c r="C178" s="8">
+        <v>40897</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>733</v>
+      </c>
+      <c r="B179" t="s">
+        <v>203</v>
+      </c>
+      <c r="C179" s="8">
+        <v>41576</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>734</v>
+      </c>
+      <c r="B180" t="s">
+        <v>203</v>
+      </c>
+      <c r="C180" s="8">
+        <v>41086</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>735</v>
+      </c>
+      <c r="B181" t="s">
+        <v>203</v>
+      </c>
+      <c r="C181" s="8">
+        <v>41016</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>736</v>
+      </c>
+      <c r="B182" t="s">
+        <v>203</v>
+      </c>
+      <c r="C182" s="8">
+        <v>41072</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>737</v>
+      </c>
+      <c r="B183" t="s">
+        <v>203</v>
+      </c>
+      <c r="C183" s="8">
+        <v>41086</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>738</v>
+      </c>
+      <c r="B184" t="s">
+        <v>203</v>
+      </c>
+      <c r="C184" s="8">
+        <v>41072</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>739</v>
+      </c>
+      <c r="B185" t="s">
+        <v>203</v>
+      </c>
+      <c r="C185" s="8">
+        <v>41086</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>740</v>
+      </c>
+      <c r="B186" t="s">
+        <v>203</v>
+      </c>
+      <c r="C186" s="8">
+        <v>42171</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>741</v>
+      </c>
+      <c r="B187" t="s">
+        <v>203</v>
+      </c>
+      <c r="C187" s="8">
+        <v>41072</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>742</v>
+      </c>
+      <c r="B188" t="s">
+        <v>203</v>
+      </c>
+      <c r="C188" s="8">
+        <v>41072</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>743</v>
+      </c>
+      <c r="B189" t="s">
+        <v>203</v>
+      </c>
+      <c r="C189" s="8">
+        <v>41072</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>744</v>
+      </c>
+      <c r="B190" t="s">
+        <v>203</v>
+      </c>
+      <c r="C190" s="8">
+        <v>41317</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>745</v>
+      </c>
+      <c r="B191" t="s">
+        <v>203</v>
+      </c>
+      <c r="C191" s="8">
+        <v>41317</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>746</v>
+      </c>
+      <c r="B192" t="s">
+        <v>203</v>
+      </c>
+      <c r="C192" s="8">
+        <v>41317</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>747</v>
+      </c>
+      <c r="B193" t="s">
+        <v>203</v>
+      </c>
+      <c r="C193" s="8">
+        <v>41317</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>748</v>
+      </c>
+      <c r="B194" t="s">
+        <v>203</v>
+      </c>
+      <c r="C194" s="8">
+        <v>41317</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>749</v>
+      </c>
+      <c r="B195" t="s">
+        <v>203</v>
+      </c>
+      <c r="C195" s="8">
+        <v>41450</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>750</v>
+      </c>
+      <c r="B196" t="s">
+        <v>203</v>
+      </c>
+      <c r="C196" s="8">
+        <v>41415</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>751</v>
+      </c>
+      <c r="B197" t="s">
+        <v>203</v>
+      </c>
+      <c r="C197" s="8">
+        <v>41450</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>752</v>
+      </c>
+      <c r="B198" t="s">
+        <v>203</v>
+      </c>
+      <c r="C198" s="8">
+        <v>41450</v>
+      </c>
+      <c r="D198" s="13" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>753</v>
+      </c>
+      <c r="B199" t="s">
+        <v>203</v>
+      </c>
+      <c r="C199" s="8">
+        <v>41450</v>
+      </c>
+      <c r="D199" s="14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>754</v>
+      </c>
+      <c r="B200" t="s">
+        <v>203</v>
+      </c>
+      <c r="C200" s="8">
+        <v>41541</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>755</v>
+      </c>
+      <c r="B201" t="s">
+        <v>203</v>
+      </c>
+      <c r="C201" s="8">
+        <v>41450</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>756</v>
+      </c>
+      <c r="B202" t="s">
+        <v>203</v>
+      </c>
+      <c r="C202" s="8">
+        <v>41576</v>
+      </c>
+      <c r="D202" s="18" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>757</v>
+      </c>
+      <c r="B203" t="s">
+        <v>203</v>
+      </c>
+      <c r="C203" s="8">
+        <v>41576</v>
+      </c>
+      <c r="D203" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>758</v>
+      </c>
+      <c r="B204" t="s">
+        <v>203</v>
+      </c>
+      <c r="C204" s="8">
+        <v>41842</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>759</v>
+      </c>
+      <c r="B205" t="s">
+        <v>203</v>
+      </c>
+      <c r="C205" s="8">
+        <v>43032</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>760</v>
+      </c>
+      <c r="B206" t="s">
+        <v>203</v>
+      </c>
+      <c r="C206" s="8">
+        <v>42171</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>761</v>
+      </c>
+      <c r="B207" t="s">
+        <v>203</v>
+      </c>
+      <c r="C207" s="8">
+        <v>41534</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>762</v>
+      </c>
+      <c r="B208" t="s">
+        <v>203</v>
+      </c>
+      <c r="C208" s="8">
+        <v>41450</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>763</v>
+      </c>
+      <c r="B209" t="s">
+        <v>203</v>
+      </c>
+      <c r="C209" s="8">
+        <v>41912</v>
+      </c>
+      <c r="D209" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>764</v>
+      </c>
+      <c r="B210" t="s">
+        <v>203</v>
+      </c>
+      <c r="C210" s="8">
+        <v>41450</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>765</v>
+      </c>
+      <c r="B211" t="s">
+        <v>203</v>
+      </c>
+      <c r="C211" s="8">
+        <v>42696</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>766</v>
+      </c>
+      <c r="B212" t="s">
+        <v>203</v>
+      </c>
+      <c r="C212" s="8">
+        <v>42696</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>767</v>
+      </c>
+      <c r="B213" t="s">
+        <v>203</v>
+      </c>
+      <c r="C213" s="8">
+        <v>42696</v>
+      </c>
+      <c r="D213" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>768</v>
+      </c>
+      <c r="B214" t="s">
+        <v>203</v>
+      </c>
+      <c r="C214" s="8">
+        <v>42696</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>769</v>
+      </c>
+      <c r="B215" t="s">
+        <v>203</v>
+      </c>
+      <c r="C215" s="8">
+        <v>42696</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>770</v>
+      </c>
+      <c r="B216" t="s">
+        <v>203</v>
+      </c>
+      <c r="C216" s="8">
+        <v>41653</v>
+      </c>
+      <c r="D216" s="11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>771</v>
+      </c>
+      <c r="B217" t="s">
+        <v>203</v>
+      </c>
+      <c r="C217" s="8">
+        <v>42549</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>772</v>
+      </c>
+      <c r="B218" t="s">
+        <v>203</v>
+      </c>
+      <c r="C218" s="8">
+        <v>43025</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>773</v>
+      </c>
+      <c r="B219" t="s">
+        <v>203</v>
+      </c>
+      <c r="C219" s="8">
+        <v>42108</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>774</v>
+      </c>
+      <c r="B220" t="s">
+        <v>203</v>
+      </c>
+      <c r="C220" s="8">
+        <v>42178</v>
+      </c>
+      <c r="D220" s="12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>775</v>
+      </c>
+      <c r="B221" t="s">
+        <v>203</v>
+      </c>
+      <c r="C221" s="8">
+        <v>42136</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>776</v>
+      </c>
+      <c r="B222" t="s">
+        <v>203</v>
+      </c>
+      <c r="C222" s="8">
+        <v>42178</v>
+      </c>
+      <c r="D222" s="12" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>777</v>
+      </c>
+      <c r="B223" t="s">
+        <v>203</v>
+      </c>
+      <c r="C223" s="8">
+        <v>43074</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>778</v>
+      </c>
+      <c r="B224" t="s">
+        <v>203</v>
+      </c>
+      <c r="C224" s="8">
+        <v>42696</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>779</v>
+      </c>
+      <c r="B225" t="s">
+        <v>203</v>
+      </c>
+      <c r="C225" s="8">
+        <v>42696</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>780</v>
+      </c>
+      <c r="B226" t="s">
+        <v>203</v>
+      </c>
+      <c r="C226" s="8">
+        <v>42696</v>
+      </c>
+      <c r="D226" s="10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>781</v>
+      </c>
+      <c r="B227" t="s">
+        <v>203</v>
+      </c>
+      <c r="C227" s="8">
+        <v>42696</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>782</v>
+      </c>
+      <c r="B228" t="s">
+        <v>203</v>
+      </c>
+      <c r="C228" s="8">
+        <v>42696</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="B229" t="s">
+        <v>203</v>
+      </c>
+      <c r="C229" s="8">
+        <v>42710</v>
+      </c>
+      <c r="D229" s="20" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>784</v>
+      </c>
+      <c r="B230" t="s">
+        <v>203</v>
+      </c>
+      <c r="C230" s="8">
+        <v>42787</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>785</v>
+      </c>
+      <c r="B231" t="s">
+        <v>203</v>
+      </c>
+      <c r="C231" s="8">
+        <v>42759</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>786</v>
+      </c>
+      <c r="B232" t="s">
+        <v>203</v>
+      </c>
+      <c r="C232" s="8">
+        <v>42759</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>787</v>
+      </c>
+      <c r="B233" t="s">
+        <v>203</v>
+      </c>
+      <c r="C233" s="8">
+        <v>42997</v>
+      </c>
+      <c r="D233" s="11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>788</v>
+      </c>
+      <c r="B234" t="s">
+        <v>203</v>
+      </c>
+      <c r="C234" s="8">
+        <v>43039</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>789</v>
+      </c>
+      <c r="B235" t="s">
+        <v>203</v>
+      </c>
+      <c r="C235" s="8">
+        <v>43186</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>790</v>
+      </c>
+      <c r="B236" t="s">
+        <v>203</v>
+      </c>
+      <c r="C236" s="8">
+        <v>43186</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>791</v>
+      </c>
+      <c r="B237" t="s">
+        <v>203</v>
+      </c>
+      <c r="C237" s="8">
+        <v>43186</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>792</v>
+      </c>
+      <c r="B238" t="s">
+        <v>203</v>
+      </c>
+      <c r="C238" s="8">
+        <v>43186</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>793</v>
+      </c>
+      <c r="B239" t="s">
+        <v>203</v>
+      </c>
+      <c r="C239" s="8">
+        <v>43312</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>794</v>
+      </c>
+      <c r="B240" t="s">
+        <v>203</v>
+      </c>
+      <c r="C240" s="8">
+        <v>43627</v>
+      </c>
+      <c r="D240" s="11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>795</v>
+      </c>
+      <c r="B241" t="s">
+        <v>203</v>
+      </c>
+      <c r="C241" s="8">
+        <v>43165</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>796</v>
+      </c>
+      <c r="B242" t="s">
+        <v>203</v>
+      </c>
+      <c r="C242" s="8">
+        <v>43165</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>797</v>
+      </c>
+      <c r="B243" t="s">
+        <v>203</v>
+      </c>
+      <c r="C243" s="8">
+        <v>43627</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>798</v>
+      </c>
+      <c r="B244" t="s">
+        <v>203</v>
+      </c>
+      <c r="C244" s="8">
+        <v>43165</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>799</v>
+      </c>
+      <c r="B245" t="s">
+        <v>203</v>
+      </c>
+      <c r="C245" s="8">
+        <v>43249</v>
+      </c>
+      <c r="D245" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>800</v>
+      </c>
+      <c r="B246" t="s">
+        <v>203</v>
+      </c>
+      <c r="C246" s="8">
+        <v>43249</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>801</v>
+      </c>
+      <c r="B247" t="s">
+        <v>203</v>
+      </c>
+      <c r="C247" s="8">
+        <v>43361</v>
+      </c>
+      <c r="D247" s="16" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>802</v>
+      </c>
+      <c r="B248" t="s">
+        <v>203</v>
+      </c>
+      <c r="C248" s="8">
+        <v>43361</v>
+      </c>
+      <c r="D248" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>803</v>
+      </c>
+      <c r="B249" t="s">
+        <v>203</v>
+      </c>
+      <c r="C249" s="8">
+        <v>44145</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>804</v>
+      </c>
+      <c r="B250" t="s">
+        <v>203</v>
+      </c>
+      <c r="C250" s="8">
+        <v>43627</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>805</v>
+      </c>
+      <c r="B251" t="s">
+        <v>203</v>
+      </c>
+      <c r="C251" s="8">
+        <v>43627</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="23" t="s">
+        <v>806</v>
+      </c>
+      <c r="B252" t="s">
+        <v>203</v>
+      </c>
+      <c r="C252" s="24">
+        <v>43627</v>
+      </c>
+      <c r="D252" s="21" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>807</v>
+      </c>
+      <c r="B253" t="s">
+        <v>203</v>
+      </c>
+      <c r="C253" s="8">
+        <v>43627</v>
+      </c>
+      <c r="D253" s="10" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>808</v>
+      </c>
+      <c r="B254" t="s">
+        <v>203</v>
+      </c>
+      <c r="C254" s="8">
+        <v>43627</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>809</v>
+      </c>
+      <c r="B255" t="s">
+        <v>203</v>
+      </c>
+      <c r="C255" s="8">
+        <v>43627</v>
+      </c>
+      <c r="D255" s="10" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>810</v>
+      </c>
+      <c r="B256" t="s">
+        <v>203</v>
+      </c>
+      <c r="C256" s="8">
+        <v>43627</v>
+      </c>
+      <c r="D256" s="12" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>811</v>
+      </c>
+      <c r="B257" t="s">
+        <v>203</v>
+      </c>
+      <c r="C257" s="8">
+        <v>43809</v>
+      </c>
+      <c r="D257" s="10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>812</v>
+      </c>
+      <c r="B258" t="s">
+        <v>203</v>
+      </c>
+      <c r="C258" s="8">
+        <v>43809</v>
+      </c>
+      <c r="D258" s="10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>813</v>
+      </c>
+      <c r="B259" t="s">
+        <v>203</v>
+      </c>
+      <c r="C259" s="8">
+        <v>43809</v>
+      </c>
+      <c r="D259" s="10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>814</v>
+      </c>
+      <c r="B260" t="s">
+        <v>203</v>
+      </c>
+      <c r="C260" s="8">
+        <v>43809</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>815</v>
+      </c>
+      <c r="B261" t="s">
+        <v>203</v>
+      </c>
+      <c r="C261" s="8">
+        <v>43809</v>
+      </c>
+      <c r="D261" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>816</v>
+      </c>
+      <c r="B262" t="s">
+        <v>203</v>
+      </c>
+      <c r="C262" s="8">
+        <v>43634</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>817</v>
+      </c>
+      <c r="B263" t="s">
+        <v>203</v>
+      </c>
+      <c r="C263" s="8">
+        <v>43634</v>
+      </c>
+      <c r="D263" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>818</v>
+      </c>
+      <c r="B264" t="s">
+        <v>203</v>
+      </c>
+      <c r="C264" s="8">
+        <v>43634</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>819</v>
+      </c>
+      <c r="B265" t="s">
+        <v>203</v>
+      </c>
+      <c r="C265" s="8">
+        <v>43634</v>
+      </c>
+      <c r="D265" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>820</v>
+      </c>
+      <c r="B266" t="s">
+        <v>203</v>
+      </c>
+      <c r="C266" s="8">
+        <v>43634</v>
+      </c>
+      <c r="D266" s="10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>821</v>
+      </c>
+      <c r="B267" t="s">
+        <v>203</v>
+      </c>
+      <c r="C267" s="8">
+        <v>43767</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>822</v>
+      </c>
+      <c r="B268" t="s">
+        <v>203</v>
+      </c>
+      <c r="C268" s="8">
+        <v>43767</v>
+      </c>
+      <c r="D268" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>823</v>
+      </c>
+      <c r="B269" t="s">
+        <v>203</v>
+      </c>
+      <c r="C269" s="8">
+        <v>43767</v>
+      </c>
+      <c r="D269" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>824</v>
+      </c>
+      <c r="B270" t="s">
+        <v>203</v>
+      </c>
+      <c r="C270" s="8">
+        <v>43767</v>
+      </c>
+      <c r="D270" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>825</v>
+      </c>
+      <c r="B271" t="s">
+        <v>203</v>
+      </c>
+      <c r="C271" s="8">
+        <v>43767</v>
+      </c>
+      <c r="D271" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>826</v>
+      </c>
+      <c r="B272" t="s">
+        <v>203</v>
+      </c>
+      <c r="C272" s="8">
+        <v>43634</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Location-Import.xlsx
+++ b/data/raw/Location-Import.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC16A2A-B149-4BC9-9CC6-D92B6AF70063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10F99FA-C1F3-4467-92F8-5B54A421E23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20220" yWindow="2850" windowWidth="32475" windowHeight="16875" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
+    <workbookView xWindow="2025" yWindow="3240" windowWidth="32475" windowHeight="16875" activeTab="1" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
   </bookViews>
   <sheets>
     <sheet name="Landmark" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="BBL" sheetId="3" r:id="rId2"/>
     <sheet name="Location" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="314">
   <si>
     <t>BoroughCode</t>
   </si>
@@ -652,250 +652,163 @@
     <t>Individual Landmark</t>
   </si>
   <si>
-    <t>6487fdc23ee0be65782261ba</t>
-  </si>
-  <si>
-    <t>6487fc133ee0be65782261b8</t>
-  </si>
-  <si>
-    <t>6487e7313ee0be65782261b2</t>
-  </si>
-  <si>
-    <t>648b67a87c55b27c2c708030</t>
-  </si>
-  <si>
-    <t>648b69f47c55b27c2c708031</t>
-  </si>
-  <si>
-    <t>648b6be87c55b27c2c708036</t>
-  </si>
-  <si>
-    <t>648b6c827c55b27c2c708037</t>
-  </si>
-  <si>
-    <t>648b6d2d7c55b27c2c708038</t>
-  </si>
-  <si>
-    <t>648b6e017c55b27c2c708039</t>
-  </si>
-  <si>
-    <t>648b6f137c55b27c2c70803a</t>
-  </si>
-  <si>
-    <t>648b70a47c55b27c2c70803c</t>
-  </si>
-  <si>
-    <t>648b71137c55b27c2c70803d</t>
+    <t>6463327f6117d262815b105f</t>
+  </si>
+  <si>
+    <t>646cfd419e866c1d68eb57d8</t>
+  </si>
+  <si>
+    <t>64698a609e866c1d68eb5779</t>
+  </si>
+  <si>
+    <t>645dd8d2e6fcaf3f17fab010</t>
+  </si>
+  <si>
+    <t>648369063ee0be6578226179</t>
+  </si>
+  <si>
+    <t>647e899f426b0f007933de20</t>
+  </si>
+  <si>
+    <t>647e932d426b0f007933de28</t>
+  </si>
+  <si>
+    <t>647e8e70426b0f007933de23</t>
+  </si>
+  <si>
+    <t>6455087f3879cf70e53ff0cd</t>
+  </si>
+  <si>
+    <t>6458329a4673c82a34f4ecec</t>
+  </si>
+  <si>
+    <t>64a722b5fc95c50bc98dcfb3</t>
+  </si>
+  <si>
+    <t>645e72d1e6fcaf3f17fab03b</t>
+  </si>
+  <si>
+    <t>6472459b426b0f007933dc98</t>
+  </si>
+  <si>
+    <t>647249c1426b0f007933dc9e</t>
+  </si>
+  <si>
+    <t>645bfb43e6fcaf3f17faafef</t>
+  </si>
+  <si>
+    <t>64654ebb6117d262815b1092</t>
   </si>
   <si>
     <t>648b71827c55b27c2c70803e</t>
   </si>
   <si>
-    <t>648b71f07c55b27c2c70803f</t>
-  </si>
-  <si>
-    <t>648b730d7c55b27c2c708042</t>
-  </si>
-  <si>
-    <t>648b739e7c55b27c2c708043</t>
-  </si>
-  <si>
-    <t>648b74b87c55b27c2c708044</t>
-  </si>
-  <si>
-    <t>648b75387c55b27c2c708045</t>
-  </si>
-  <si>
-    <t>648b75ae7c55b27c2c708046</t>
-  </si>
-  <si>
-    <t>648bea157c55b27c2c708049</t>
-  </si>
-  <si>
-    <t>648bea847c55b27c2c70804a</t>
-  </si>
-  <si>
-    <t>648beaf47c55b27c2c70804b</t>
-  </si>
-  <si>
     <t>648bebc57c55b27c2c70804c</t>
   </si>
   <si>
-    <t>648bec2a7c55b27c2c70804d</t>
-  </si>
-  <si>
-    <t>648bec9e7c55b27c2c70804e</t>
-  </si>
-  <si>
-    <t>648bed5d7c55b27c2c708050</t>
-  </si>
-  <si>
-    <t>648bedc07c55b27c2c708051</t>
-  </si>
-  <si>
-    <t>648939ee7c55b27c2c707f73</t>
-  </si>
-  <si>
-    <t>648939367c55b27c2c707f72</t>
-  </si>
-  <si>
-    <t>648937da7c55b27c2c707f71</t>
-  </si>
-  <si>
-    <t>648936e57c55b27c2c707f70</t>
-  </si>
-  <si>
-    <t>554c0643083cd88a44265d1b</t>
-  </si>
-  <si>
-    <t>554c0c27083cd88a44265d20</t>
-  </si>
-  <si>
-    <t>554c0906083cd88a44265d1d</t>
-  </si>
-  <si>
-    <t>554c0208083cd88a44265d16</t>
-  </si>
-  <si>
-    <t>554c0a57083cd88a44265d1e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">554c0866083cd88a44265d1c </t>
-  </si>
-  <si>
-    <t>554c0474083cd88a44265d19</t>
-  </si>
-  <si>
-    <t>644742d9e7abb0665474a235</t>
-  </si>
-  <si>
-    <t>646432196117d262815b107d</t>
-  </si>
-  <si>
-    <t>64582ce84673c82a34f4ece4</t>
-  </si>
-  <si>
-    <t>LP-01133</t>
-  </si>
-  <si>
-    <t>LP-01134</t>
-  </si>
-  <si>
-    <t>LP-01135</t>
-  </si>
-  <si>
-    <t>LP-01137</t>
-  </si>
-  <si>
-    <t>LP-01138</t>
-  </si>
-  <si>
-    <t>LP-01139</t>
-  </si>
-  <si>
-    <t>LP-01140</t>
-  </si>
-  <si>
-    <t>LP-01141</t>
-  </si>
-  <si>
-    <t>LP-01142</t>
-  </si>
-  <si>
-    <t>LP-01143</t>
-  </si>
-  <si>
-    <t>LP-01144</t>
-  </si>
-  <si>
-    <t>LP-01145</t>
-  </si>
-  <si>
-    <t>LP-01146</t>
-  </si>
-  <si>
-    <t>LP-01147</t>
-  </si>
-  <si>
-    <t>LP-01148</t>
-  </si>
-  <si>
-    <t>LP-01149</t>
-  </si>
-  <si>
-    <t>LP-01150</t>
-  </si>
-  <si>
-    <t>LP-01151</t>
-  </si>
-  <si>
-    <t>LP-01152</t>
-  </si>
-  <si>
-    <t>LP-01153</t>
-  </si>
-  <si>
-    <t>LP-01154</t>
-  </si>
-  <si>
-    <t>LP-01155</t>
-  </si>
-  <si>
-    <t>LP-01156</t>
-  </si>
-  <si>
-    <t>LP-01157</t>
-  </si>
-  <si>
-    <t>LP-01158</t>
-  </si>
-  <si>
-    <t>LP-01159</t>
-  </si>
-  <si>
-    <t>LP-01160</t>
-  </si>
-  <si>
-    <t>LP-01161</t>
-  </si>
-  <si>
-    <t>LP-01162</t>
-  </si>
-  <si>
-    <t>LP-01163</t>
-  </si>
-  <si>
-    <t>LP-01164</t>
-  </si>
-  <si>
-    <t>LP-01169</t>
-  </si>
-  <si>
-    <t>LP-01170</t>
-  </si>
-  <si>
-    <t>LP-01171</t>
-  </si>
-  <si>
-    <t>LP-01172</t>
-  </si>
-  <si>
-    <t>LP-01173</t>
-  </si>
-  <si>
-    <t>LP-01174</t>
-  </si>
-  <si>
-    <t>LP-01176</t>
-  </si>
-  <si>
-    <t>LP-01177</t>
-  </si>
-  <si>
-    <t>LP-01179</t>
-  </si>
-  <si>
-    <t>LP-01194</t>
+    <t>6487ff963ee0be65782261bd</t>
+  </si>
+  <si>
+    <t>644967b0e7abb0665474a26f</t>
+  </si>
+  <si>
+    <t>5600dc9ef58614cf075b770e</t>
+  </si>
+  <si>
+    <t>6455b3a64673c82a34f4ecc6</t>
+  </si>
+  <si>
+    <t>6473ae92426b0f007933dcbd</t>
+  </si>
+  <si>
+    <t>6491f75d13f51e5a4696f268</t>
+  </si>
+  <si>
+    <t>6472e60f426b0f007933dcaf</t>
+  </si>
+  <si>
+    <t>6472e5b0426b0f007933dcae</t>
+  </si>
+  <si>
+    <t>6472df3c426b0f007933dca7</t>
+  </si>
+  <si>
+    <t>64698bdd9e866c1d68eb577b</t>
+  </si>
+  <si>
+    <t>5614bd96f89701aedbaebc5e</t>
+  </si>
+  <si>
+    <t>645bf5b4e6fcaf3f17faafe6</t>
+  </si>
+  <si>
+    <t>646e32299e866c1d68eb5830</t>
+  </si>
+  <si>
+    <t>6455efbd4673c82a34f4ecd4</t>
+  </si>
+  <si>
+    <t>645343793879cf70e53ff0b4</t>
+  </si>
+  <si>
+    <t>647e3651426b0f007933de1b</t>
+  </si>
+  <si>
+    <t>645ddd03e6fcaf3f17fab015</t>
+  </si>
+  <si>
+    <t>6451da263879cf70e53ff07c</t>
+  </si>
+  <si>
+    <t>648690643ee0be6578226192</t>
+  </si>
+  <si>
+    <t>6499b8a2d4762e2149e238cf</t>
+  </si>
+  <si>
+    <t>64a4b36ffc95c50bc98dcf99</t>
+  </si>
+  <si>
+    <t>648ff76613f51e5a4696f25b</t>
+  </si>
+  <si>
+    <t>648fad9713f51e5a4696f237</t>
+  </si>
+  <si>
+    <t>5606bfc4f89701aedbaebb77</t>
+  </si>
+  <si>
+    <t>64794de4426b0f007933dd03</t>
+  </si>
+  <si>
+    <t>6477aee6426b0f007933dce8</t>
+  </si>
+  <si>
+    <t>646685a46117d262815b10ab</t>
+  </si>
+  <si>
+    <t>646fab3a9e866c1d68eb5843</t>
+  </si>
+  <si>
+    <t>64a49debfc95c50bc98dcf96</t>
+  </si>
+  <si>
+    <t>64a4bcc6fc95c50bc98dcf9f</t>
+  </si>
+  <si>
+    <t>560dfe0bf89701aedbaebc05</t>
+  </si>
+  <si>
+    <t>646e35389e866c1d68eb5833</t>
+  </si>
+  <si>
+    <t>647e2ca6426b0f007933de12</t>
+  </si>
+  <si>
+    <t>647ffd8e426b0f007933de3d</t>
+  </si>
+  <si>
+    <t>649c68a9d4762e2149e238fa</t>
   </si>
   <si>
     <t>55f7b147f58614cf075b7688</t>
@@ -1022,6 +935,51 @@
   </si>
   <si>
     <t>LP-02671</t>
+  </si>
+  <si>
+    <t>6455b7e44673c82a34f4ecca</t>
+  </si>
+  <si>
+    <t>648a4f917c55b27c2c708012</t>
+  </si>
+  <si>
+    <t>6450c0883879cf70e53ff043</t>
+  </si>
+  <si>
+    <t>644594a1e7abb0665474a219</t>
+  </si>
+  <si>
+    <t>56233968f89701aedbaebcb8</t>
+  </si>
+  <si>
+    <t>BBL</t>
+  </si>
+  <si>
+    <t>64820bd4c57c9f5a476e2be3</t>
+  </si>
+  <si>
+    <t>647bdbf6426b0f007933dda4</t>
+  </si>
+  <si>
+    <t>646c311c9e866c1d68eb57c1</t>
+  </si>
+  <si>
+    <t>647aafb2426b0f007933dd12</t>
+  </si>
+  <si>
+    <t>64a0522019d97124a7a9d353</t>
+  </si>
+  <si>
+    <t>646dc5dc9e866c1d68eb5825</t>
+  </si>
+  <si>
+    <t>6442f8bb94494a7b43e48353</t>
+  </si>
+  <si>
+    <t>55f7908af58614cf075b766e</t>
+  </si>
+  <si>
+    <t>64963e6313f51e5a4696f276</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1022,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1096,8 +1054,14 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1118,6 +1082,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1126,7 +1101,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -1140,7 +1115,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1483,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8DF20D-43B8-4F50-BD73-629D07637EE7}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,7 +1492,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
         <v>203</v>
@@ -1520,12 +1501,12 @@
         <v>25441</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
         <v>203</v>
@@ -1534,12 +1515,12 @@
         <v>25441</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
         <v>203</v>
@@ -1548,12 +1529,12 @@
         <v>25441</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
         <v>203</v>
@@ -1562,12 +1543,12 @@
         <v>25441</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
         <v>203</v>
@@ -1576,12 +1557,12 @@
         <v>25441</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
         <v>203</v>
@@ -1590,12 +1571,12 @@
         <v>25441</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
         <v>203</v>
@@ -1604,12 +1585,12 @@
         <v>25441</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="B9" t="s">
         <v>203</v>
@@ -1618,12 +1599,12 @@
         <v>25441</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
         <v>203</v>
@@ -1632,12 +1613,12 @@
         <v>25441</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="B11" t="s">
         <v>203</v>
@@ -1646,12 +1627,12 @@
         <v>25441</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s">
         <v>203</v>
@@ -1660,12 +1641,12 @@
         <v>25441</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="B13" t="s">
         <v>203</v>
@@ -1674,12 +1655,12 @@
         <v>25441</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
         <v>203</v>
@@ -1688,12 +1669,12 @@
         <v>25441</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
         <v>203</v>
@@ -1702,12 +1683,12 @@
         <v>44334</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="B16" t="s">
         <v>203</v>
@@ -1716,12 +1697,12 @@
         <v>44334</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="B17" t="s">
         <v>203</v>
@@ -1730,12 +1711,12 @@
         <v>44362</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="B18" t="s">
         <v>203</v>
@@ -1744,12 +1725,12 @@
         <v>44369</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="B19" t="s">
         <v>203</v>
@@ -1758,12 +1739,12 @@
         <v>45090</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="B20" t="s">
         <v>203</v>
@@ -1772,12 +1753,12 @@
         <v>45090</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B21" t="s">
         <v>203</v>
@@ -1786,12 +1767,12 @@
         <v>45104</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B22" t="s">
         <v>203</v>
@@ -1800,7 +1781,7 @@
         <v>45104</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -1810,593 +1791,564 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3357CC09-23DF-4DCC-90AE-073CA89D0F7A}">
-  <dimension ref="D137:G177"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137:G177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
-    <col min="7" max="7" width="50" customWidth="1"/>
-    <col min="8" max="8" width="44.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D137" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1008710010</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>3070710130</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>1012580040</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>1003920010</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>5000630050</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>1015020110</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>1015020020</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>1014010020</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>1006320030</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>1010090050</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>1006370040</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>1014080025</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>1017530010</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>1014080030</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>1001240010</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>1018730160</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>1017270050</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>3010040060</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>1016320030</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>5010120010</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>1001420010</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>1012460040</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>1012460140</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>1009230050</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>1012470020</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>1001760010</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>1005450040</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>1007220010</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>1017270060</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>1005950040</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>1008300010</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <v>1012700030</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>1015050030</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>1001320006</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>2040110210</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>3018430020</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>1019310010</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>1018550050</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>1012910010</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
+        <v>1013360040</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <v>1013050020</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <v>1003360017</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>5032990010</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <v>5044440001</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>1005307507</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
+        <v>2024430400</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>3005980030</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>5005710242</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <v>1020850020</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
+        <v>1018670020</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>1014000020</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <v>1014000020</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>3020100010</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <v>3020230100</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <v>5078570090</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <v>1019620035</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <v>3020580040</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
+        <v>3051030010</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <v>3051030010</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="E137" t="s">
-        <v>203</v>
-      </c>
-      <c r="F137" s="8">
-        <v>29620</v>
-      </c>
-      <c r="G137" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D138" t="s">
-        <v>246</v>
-      </c>
-      <c r="E138" t="s">
-        <v>203</v>
-      </c>
-      <c r="F138" s="8">
-        <v>29620</v>
-      </c>
-      <c r="G138" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D139" t="s">
-        <v>247</v>
-      </c>
-      <c r="E139" t="s">
-        <v>203</v>
-      </c>
-      <c r="F139" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G139" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D140" t="s">
-        <v>248</v>
-      </c>
-      <c r="E140" t="s">
-        <v>203</v>
-      </c>
-      <c r="F140" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G140" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="141" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D141" t="s">
-        <v>249</v>
-      </c>
-      <c r="E141" t="s">
-        <v>203</v>
-      </c>
-      <c r="F141" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G141" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="142" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D142" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="17">
+        <v>1021260035</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>2023060052</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
+        <v>4032940020</v>
+      </c>
+      <c r="B63" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="E142" t="s">
-        <v>203</v>
-      </c>
-      <c r="F142" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G142" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D143" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
+        <v>2029090040</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="E143" t="s">
-        <v>203</v>
-      </c>
-      <c r="F143" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D144" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="17">
+        <v>1004300010</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
+        <v>4100970010</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="17">
+        <v>4038660070</v>
+      </c>
+      <c r="B67" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="E144" t="s">
-        <v>203</v>
-      </c>
-      <c r="F144" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G144" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="145" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D145" t="s">
-        <v>253</v>
-      </c>
-      <c r="E145" t="s">
-        <v>203</v>
-      </c>
-      <c r="F145" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D146" t="s">
-        <v>254</v>
-      </c>
-      <c r="E146" t="s">
-        <v>203</v>
-      </c>
-      <c r="F146" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G146" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D147" t="s">
-        <v>255</v>
-      </c>
-      <c r="E147" t="s">
-        <v>203</v>
-      </c>
-      <c r="F147" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G147" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="148" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D148" t="s">
-        <v>256</v>
-      </c>
-      <c r="E148" t="s">
-        <v>203</v>
-      </c>
-      <c r="F148" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="149" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D149" t="s">
-        <v>257</v>
-      </c>
-      <c r="E149" t="s">
-        <v>203</v>
-      </c>
-      <c r="F149" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="150" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D150" t="s">
-        <v>258</v>
-      </c>
-      <c r="E150" t="s">
-        <v>203</v>
-      </c>
-      <c r="F150" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="151" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D151" t="s">
-        <v>259</v>
-      </c>
-      <c r="E151" t="s">
-        <v>203</v>
-      </c>
-      <c r="F151" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="152" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D152" t="s">
-        <v>260</v>
-      </c>
-      <c r="E152" t="s">
-        <v>203</v>
-      </c>
-      <c r="F152" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G152" s="11" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <v>4101020010</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="153" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D153" t="s">
-        <v>261</v>
-      </c>
-      <c r="E153" t="s">
-        <v>203</v>
-      </c>
-      <c r="F153" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G153" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D154" t="s">
-        <v>262</v>
-      </c>
-      <c r="E154" t="s">
-        <v>203</v>
-      </c>
-      <c r="F154" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G154" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D155" t="s">
-        <v>263</v>
-      </c>
-      <c r="E155" t="s">
-        <v>203</v>
-      </c>
-      <c r="F155" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="156" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D156" t="s">
-        <v>264</v>
-      </c>
-      <c r="E156" t="s">
-        <v>203</v>
-      </c>
-      <c r="F156" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G156" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="157" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D157" t="s">
-        <v>265</v>
-      </c>
-      <c r="E157" t="s">
-        <v>203</v>
-      </c>
-      <c r="F157" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G157" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D158" t="s">
-        <v>266</v>
-      </c>
-      <c r="E158" t="s">
-        <v>203</v>
-      </c>
-      <c r="F158" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D159" t="s">
-        <v>267</v>
-      </c>
-      <c r="E159" t="s">
-        <v>203</v>
-      </c>
-      <c r="F159" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G159" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D160" t="s">
-        <v>268</v>
-      </c>
-      <c r="E160" t="s">
-        <v>203</v>
-      </c>
-      <c r="F160" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D161" t="s">
-        <v>269</v>
-      </c>
-      <c r="E161" t="s">
-        <v>203</v>
-      </c>
-      <c r="F161" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="162" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D162" t="s">
-        <v>270</v>
-      </c>
-      <c r="E162" t="s">
-        <v>203</v>
-      </c>
-      <c r="F162" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="163" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D163" t="s">
-        <v>271</v>
-      </c>
-      <c r="E163" t="s">
-        <v>203</v>
-      </c>
-      <c r="F163" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D164" t="s">
-        <v>272</v>
-      </c>
-      <c r="E164" t="s">
-        <v>203</v>
-      </c>
-      <c r="F164" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G164" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="165" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D165" t="s">
-        <v>273</v>
-      </c>
-      <c r="E165" t="s">
-        <v>203</v>
-      </c>
-      <c r="F165" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G165" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="166" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D166" t="s">
-        <v>274</v>
-      </c>
-      <c r="E166" t="s">
-        <v>203</v>
-      </c>
-      <c r="F166" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="167" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D167" t="s">
-        <v>275</v>
-      </c>
-      <c r="E167" t="s">
-        <v>203</v>
-      </c>
-      <c r="F167" s="8">
-        <v>29809</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="168" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D168" t="s">
-        <v>276</v>
-      </c>
-      <c r="E168" t="s">
-        <v>203</v>
-      </c>
-      <c r="F168" s="8">
-        <v>29823</v>
-      </c>
-      <c r="G168" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="169" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D169" t="s">
-        <v>277</v>
-      </c>
-      <c r="E169" t="s">
-        <v>203</v>
-      </c>
-      <c r="F169" s="8">
-        <v>29823</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="170" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D170" t="s">
-        <v>278</v>
-      </c>
-      <c r="E170" t="s">
-        <v>203</v>
-      </c>
-      <c r="F170" s="8">
-        <v>29823</v>
-      </c>
-      <c r="G170" s="11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="171" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D171" t="s">
-        <v>279</v>
-      </c>
-      <c r="E171" t="s">
-        <v>203</v>
-      </c>
-      <c r="F171" s="8">
-        <v>29823</v>
-      </c>
-      <c r="G171" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="172" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D172" t="s">
-        <v>280</v>
-      </c>
-      <c r="E172" t="s">
-        <v>203</v>
-      </c>
-      <c r="F172" s="8">
-        <v>29823</v>
-      </c>
-      <c r="G172" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D173" t="s">
-        <v>281</v>
-      </c>
-      <c r="E173" t="s">
-        <v>203</v>
-      </c>
-      <c r="F173" s="8">
-        <v>29823</v>
-      </c>
-      <c r="G173" s="11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="174" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D174" t="s">
-        <v>282</v>
-      </c>
-      <c r="E174" t="s">
-        <v>203</v>
-      </c>
-      <c r="F174" s="8">
-        <v>29823</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="175" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D175" t="s">
-        <v>283</v>
-      </c>
-      <c r="E175" t="s">
-        <v>203</v>
-      </c>
-      <c r="F175" s="8">
-        <v>29732</v>
-      </c>
-      <c r="G175" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="176" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D176" t="s">
-        <v>284</v>
-      </c>
-      <c r="E176" t="s">
-        <v>203</v>
-      </c>
-      <c r="F176" s="8">
-        <v>29823</v>
-      </c>
-      <c r="G176" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D177" t="s">
-        <v>285</v>
-      </c>
-      <c r="E177" t="s">
-        <v>203</v>
-      </c>
-      <c r="F177" s="8">
-        <v>30495</v>
-      </c>
-      <c r="G177" s="6" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
